--- a/name/vnindex/20230106/VNINDEX_HOSE_5p_20230106.xlsx
+++ b/name/vnindex/20230106/VNINDEX_HOSE_5p_20230106.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +554,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672995900000</v>
+        <v>1672996080000</v>
       </c>
       <c r="B4">
         <v>3100</v>
@@ -581,7 +581,7 @@
         <v>87030000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-06T09:05:00.000Z</v>
+        <v>2023-01-06T09:08:00.000Z</v>
       </c>
       <c r="K4">
         <v>161750000</v>
@@ -610,2651 +610,6501 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46660000</v>
+        <v>45390000</v>
       </c>
       <c r="G5">
-        <v>2520000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="I5">
-        <v>49180000</v>
+        <v>45390000</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-06T09:10:00.000Z</v>
       </c>
       <c r="K5">
-        <v>210930000</v>
+        <v>207140000</v>
       </c>
       <c r="L5">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="M5">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="N5">
-        <v>46660000</v>
+        <v>45390000</v>
       </c>
       <c r="O5">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="P5">
-        <v>-10310000</v>
+        <v>-11580000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672996500000</v>
+        <v>1672996320000</v>
       </c>
       <c r="B6">
-        <v>5158500</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4419100</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2600700</v>
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>85053694000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>75487858000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>32555315000</v>
+        <v>2520000</v>
       </c>
       <c r="H6">
-        <v>12178300</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>193096867000</v>
+        <v>2520000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-06T09:15:00.000Z</v>
+        <v>2023-01-06T09:12:00.000Z</v>
       </c>
       <c r="K6">
-        <v>193307797000</v>
+        <v>209660000</v>
       </c>
       <c r="L6">
-        <v>12195100</v>
+        <v>16700</v>
       </c>
       <c r="M6">
-        <v>-739400</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-9565836000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>-740400</v>
+        <v>-1100</v>
       </c>
       <c r="P6">
-        <v>-9576146000</v>
+        <v>-11580000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672996800000</v>
+        <v>1672996440000</v>
       </c>
       <c r="B7">
-        <v>4502700</v>
+        <v>2479900</v>
       </c>
       <c r="C7">
-        <v>6681700</v>
+        <v>1163700</v>
       </c>
       <c r="D7">
-        <v>26500</v>
+        <v>2528200</v>
       </c>
       <c r="E7">
-        <v>72132251000</v>
+        <v>40015039000</v>
       </c>
       <c r="F7">
-        <v>98697232000</v>
+        <v>22749875000</v>
       </c>
       <c r="G7">
-        <v>496220000</v>
+        <v>31500561000</v>
       </c>
       <c r="H7">
-        <v>11210900</v>
+        <v>6171800</v>
       </c>
       <c r="I7">
-        <v>171325703000</v>
+        <v>94265475000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-06T09:20:00.000Z</v>
+        <v>2023-01-06T09:14:00.000Z</v>
       </c>
       <c r="K7">
-        <v>364633500000</v>
+        <v>94475135000</v>
       </c>
       <c r="L7">
-        <v>23406000</v>
+        <v>6188500</v>
       </c>
       <c r="M7">
-        <v>2179000</v>
+        <v>-1316200</v>
       </c>
       <c r="N7">
-        <v>26564981000</v>
+        <v>-17265164000</v>
       </c>
       <c r="O7">
-        <v>1438600</v>
+        <v>-1317300</v>
       </c>
       <c r="P7">
-        <v>16988835000</v>
+        <v>-17276744000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672997100000</v>
+        <v>1672996560000</v>
       </c>
       <c r="B8">
-        <v>4212800</v>
+        <v>1291900</v>
       </c>
       <c r="C8">
-        <v>11142800</v>
+        <v>1469000</v>
       </c>
       <c r="D8">
-        <v>80800</v>
+        <v>16300</v>
       </c>
       <c r="E8">
-        <v>66168600000</v>
+        <v>21656403000</v>
       </c>
       <c r="F8">
-        <v>175572461000</v>
+        <v>24263787000</v>
       </c>
       <c r="G8">
-        <v>1360059000</v>
+        <v>269767000</v>
       </c>
       <c r="H8">
-        <v>15436400</v>
+        <v>2777200</v>
       </c>
       <c r="I8">
-        <v>243101120000</v>
+        <v>46189957000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-06T09:25:00.000Z</v>
+        <v>2023-01-06T09:16:00.000Z</v>
       </c>
       <c r="K8">
-        <v>607734620000</v>
+        <v>140665092000</v>
       </c>
       <c r="L8">
-        <v>38842400</v>
+        <v>8965700</v>
       </c>
       <c r="M8">
-        <v>6930000</v>
+        <v>177100</v>
       </c>
       <c r="N8">
-        <v>109403861000</v>
+        <v>2607384000</v>
       </c>
       <c r="O8">
-        <v>8368600</v>
+        <v>-1140200</v>
       </c>
       <c r="P8">
-        <v>126392696000</v>
+        <v>-14669360000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672997400000</v>
+        <v>1672996680000</v>
       </c>
       <c r="B9">
-        <v>4873800</v>
+        <v>1386700</v>
       </c>
       <c r="C9">
-        <v>8137700</v>
+        <v>1786500</v>
       </c>
       <c r="D9">
-        <v>26000</v>
+        <v>56200</v>
       </c>
       <c r="E9">
-        <v>75921289000</v>
+        <v>23382252000</v>
       </c>
       <c r="F9">
-        <v>127761055000</v>
+        <v>28475466000</v>
       </c>
       <c r="G9">
-        <v>352613000</v>
+        <v>784987000</v>
       </c>
       <c r="H9">
-        <v>13037500</v>
+        <v>3229400</v>
       </c>
       <c r="I9">
-        <v>204034957000</v>
+        <v>52642705000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-06T09:30:00.000Z</v>
+        <v>2023-01-06T09:18:00.000Z</v>
       </c>
       <c r="K9">
-        <v>811769577000</v>
+        <v>193307797000</v>
       </c>
       <c r="L9">
-        <v>51879900</v>
+        <v>12195100</v>
       </c>
       <c r="M9">
-        <v>3263900</v>
+        <v>399800</v>
       </c>
       <c r="N9">
-        <v>51839766000</v>
+        <v>5093214000</v>
       </c>
       <c r="O9">
-        <v>11632500</v>
+        <v>-740400</v>
       </c>
       <c r="P9">
-        <v>178232462000</v>
+        <v>-9576146000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672997700000</v>
+        <v>1672996800000</v>
       </c>
       <c r="B10">
-        <v>6545900</v>
+        <v>1769500</v>
       </c>
       <c r="C10">
-        <v>3946000</v>
+        <v>2267800</v>
       </c>
       <c r="D10">
-        <v>34100</v>
+        <v>3300</v>
       </c>
       <c r="E10">
-        <v>106800281000</v>
+        <v>29845034000</v>
       </c>
       <c r="F10">
-        <v>63504200000</v>
+        <v>32575694000</v>
       </c>
       <c r="G10">
-        <v>844764000</v>
+        <v>109022000</v>
       </c>
       <c r="H10">
-        <v>10526000</v>
+        <v>4040600</v>
       </c>
       <c r="I10">
-        <v>171149245000</v>
+        <v>62529750000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-06T09:35:00.000Z</v>
+        <v>2023-01-06T09:20:00.000Z</v>
       </c>
       <c r="K10">
-        <v>982918822000</v>
+        <v>255837547000</v>
       </c>
       <c r="L10">
-        <v>62405900</v>
+        <v>16235700</v>
       </c>
       <c r="M10">
-        <v>-2599900</v>
+        <v>498300</v>
       </c>
       <c r="N10">
-        <v>-43296081000</v>
+        <v>2730660000</v>
       </c>
       <c r="O10">
-        <v>9032600</v>
+        <v>-242100</v>
       </c>
       <c r="P10">
-        <v>134936381000</v>
+        <v>-6845486000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672998000000</v>
+        <v>1672996920000</v>
       </c>
       <c r="B11">
-        <v>6154700</v>
+        <v>1706800</v>
       </c>
       <c r="C11">
-        <v>3020900</v>
+        <v>2822100</v>
       </c>
       <c r="D11">
-        <v>71300</v>
+        <v>18900</v>
       </c>
       <c r="E11">
-        <v>107030536000</v>
+        <v>26364831000</v>
       </c>
       <c r="F11">
-        <v>49363484000</v>
+        <v>41691724000</v>
       </c>
       <c r="G11">
-        <v>1158884000</v>
+        <v>275196000</v>
       </c>
       <c r="H11">
-        <v>9246900</v>
+        <v>4547800</v>
       </c>
       <c r="I11">
-        <v>157552904000</v>
+        <v>68331751000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-06T09:40:00.000Z</v>
+        <v>2023-01-06T09:22:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1140471726000</v>
+        <v>324169298000</v>
       </c>
       <c r="L11">
-        <v>71652800</v>
+        <v>20783500</v>
       </c>
       <c r="M11">
-        <v>-3133800</v>
+        <v>1115300</v>
       </c>
       <c r="N11">
-        <v>-57667052000</v>
+        <v>15326893000</v>
       </c>
       <c r="O11">
-        <v>5898800</v>
+        <v>873200</v>
       </c>
       <c r="P11">
-        <v>77269329000</v>
+        <v>8481407000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672998300000</v>
+        <v>1672997040000</v>
       </c>
       <c r="B12">
-        <v>3733800</v>
+        <v>1861500</v>
       </c>
       <c r="C12">
-        <v>6707200</v>
+        <v>3125900</v>
       </c>
       <c r="D12">
-        <v>25900</v>
+        <v>5400</v>
       </c>
       <c r="E12">
-        <v>57484048000</v>
+        <v>28601955000</v>
       </c>
       <c r="F12">
-        <v>112582783000</v>
+        <v>49143635000</v>
       </c>
       <c r="G12">
-        <v>624248000</v>
+        <v>116677000</v>
       </c>
       <c r="H12">
-        <v>10466900</v>
+        <v>4992800</v>
       </c>
       <c r="I12">
-        <v>170691079000</v>
+        <v>77862267000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-06T09:45:00.000Z</v>
+        <v>2023-01-06T09:24:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1311162805000</v>
+        <v>402031565000</v>
       </c>
       <c r="L12">
-        <v>82119700</v>
+        <v>25776300</v>
       </c>
       <c r="M12">
-        <v>2973400</v>
+        <v>1264400</v>
       </c>
       <c r="N12">
-        <v>55098735000</v>
+        <v>20541680000</v>
       </c>
       <c r="O12">
-        <v>8872200</v>
+        <v>2137600</v>
       </c>
       <c r="P12">
-        <v>132368064000</v>
+        <v>29023087000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672998600000</v>
+        <v>1672997160000</v>
       </c>
       <c r="B13">
-        <v>3834900</v>
+        <v>1409400</v>
       </c>
       <c r="C13">
-        <v>9058600</v>
+        <v>4985200</v>
       </c>
       <c r="D13">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="E13">
-        <v>66947808000</v>
+        <v>23157134000</v>
       </c>
       <c r="F13">
-        <v>144542405000</v>
+        <v>79248104000</v>
       </c>
       <c r="G13">
-        <v>406987000</v>
+        <v>251119000</v>
       </c>
       <c r="H13">
-        <v>12908000</v>
+        <v>6409800</v>
       </c>
       <c r="I13">
-        <v>211897200000</v>
+        <v>102656357000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-06T09:50:00.000Z</v>
+        <v>2023-01-06T09:26:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1523060005000</v>
+        <v>504687922000</v>
       </c>
       <c r="L13">
-        <v>95027700</v>
+        <v>32186100</v>
       </c>
       <c r="M13">
-        <v>5223700</v>
+        <v>3575800</v>
       </c>
       <c r="N13">
-        <v>77594597000</v>
+        <v>56090970000</v>
       </c>
       <c r="O13">
-        <v>14095900</v>
+        <v>5713400</v>
       </c>
       <c r="P13">
-        <v>209962661000</v>
+        <v>85114057000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672998900000</v>
+        <v>1672997280000</v>
       </c>
       <c r="B14">
-        <v>4067400</v>
+        <v>1968300</v>
       </c>
       <c r="C14">
-        <v>10399100</v>
+        <v>4623500</v>
       </c>
       <c r="D14">
-        <v>154600</v>
+        <v>64500</v>
       </c>
       <c r="E14">
-        <v>78274704000</v>
+        <v>30331897000</v>
       </c>
       <c r="F14">
-        <v>182588095000</v>
+        <v>71610536000</v>
       </c>
       <c r="G14">
-        <v>3493305000</v>
+        <v>1104265000</v>
       </c>
       <c r="H14">
-        <v>14621100</v>
+        <v>6656300</v>
       </c>
       <c r="I14">
-        <v>264356104000</v>
+        <v>103046698000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-06T09:55:00.000Z</v>
+        <v>2023-01-06T09:28:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1787416109000</v>
+        <v>607734620000</v>
       </c>
       <c r="L14">
-        <v>109648800</v>
+        <v>38842400</v>
       </c>
       <c r="M14">
-        <v>6331700</v>
+        <v>2655200</v>
       </c>
       <c r="N14">
-        <v>104313391000</v>
+        <v>41278639000</v>
       </c>
       <c r="O14">
-        <v>20427600</v>
+        <v>8368600</v>
       </c>
       <c r="P14">
-        <v>314276052000</v>
+        <v>126392696000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672999200000</v>
+        <v>1672997400000</v>
       </c>
       <c r="B15">
-        <v>4274200</v>
+        <v>1764100</v>
       </c>
       <c r="C15">
-        <v>10590900</v>
+        <v>4015000</v>
       </c>
       <c r="D15">
-        <v>43300</v>
+        <v>10500</v>
       </c>
       <c r="E15">
-        <v>68625600000</v>
+        <v>27061496000</v>
       </c>
       <c r="F15">
-        <v>176191656000</v>
+        <v>59292781000</v>
       </c>
       <c r="G15">
-        <v>846950000</v>
+        <v>90575000</v>
       </c>
       <c r="H15">
-        <v>14908400</v>
+        <v>5789600</v>
       </c>
       <c r="I15">
-        <v>245664206000</v>
+        <v>86444852000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-06T10:00:00.000Z</v>
+        <v>2023-01-06T09:30:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2033080315000</v>
+        <v>694179472000</v>
       </c>
       <c r="L15">
-        <v>124557200</v>
+        <v>44632000</v>
       </c>
       <c r="M15">
-        <v>6316700</v>
+        <v>2250900</v>
       </c>
       <c r="N15">
-        <v>107566056000</v>
+        <v>32231285000</v>
       </c>
       <c r="O15">
-        <v>26744300</v>
+        <v>10619500</v>
       </c>
       <c r="P15">
-        <v>421842108000</v>
+        <v>158623981000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672999500000</v>
+        <v>1672997520000</v>
       </c>
       <c r="B16">
-        <v>6994800</v>
+        <v>2316500</v>
       </c>
       <c r="C16">
-        <v>4793100</v>
+        <v>2882100</v>
       </c>
       <c r="D16">
-        <v>22000</v>
+        <v>11100</v>
       </c>
       <c r="E16">
-        <v>113919225000</v>
+        <v>38196085000</v>
       </c>
       <c r="F16">
-        <v>83380441000</v>
+        <v>48055407000</v>
       </c>
       <c r="G16">
-        <v>494800000</v>
+        <v>236606000</v>
       </c>
       <c r="H16">
-        <v>11809900</v>
+        <v>5209700</v>
       </c>
       <c r="I16">
-        <v>197794466000</v>
+        <v>86488098000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-06T10:05:00.000Z</v>
+        <v>2023-01-06T09:32:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2230874781000</v>
+        <v>780667570000</v>
       </c>
       <c r="L16">
-        <v>136367100</v>
+        <v>49841700</v>
       </c>
       <c r="M16">
-        <v>-2201700</v>
+        <v>565600</v>
       </c>
       <c r="N16">
-        <v>-30538784000</v>
+        <v>9859322000</v>
       </c>
       <c r="O16">
-        <v>24542600</v>
+        <v>11185100</v>
       </c>
       <c r="P16">
-        <v>391303324000</v>
+        <v>168483303000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672999800000</v>
+        <v>1672997640000</v>
       </c>
       <c r="B17">
-        <v>4583400</v>
+        <v>1763100</v>
       </c>
       <c r="C17">
-        <v>2527400</v>
+        <v>2476800</v>
       </c>
       <c r="D17">
-        <v>14700</v>
+        <v>7300</v>
       </c>
       <c r="E17">
-        <v>76763125000</v>
+        <v>25330263000</v>
       </c>
       <c r="F17">
-        <v>50181941000</v>
+        <v>38947204000</v>
       </c>
       <c r="G17">
-        <v>392709000</v>
+        <v>106127000</v>
       </c>
       <c r="H17">
-        <v>7125500</v>
+        <v>4247200</v>
       </c>
       <c r="I17">
-        <v>127337775000</v>
+        <v>64383594000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-06T10:10:00.000Z</v>
+        <v>2023-01-06T09:34:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2358212556000</v>
+        <v>845051164000</v>
       </c>
       <c r="L17">
-        <v>143492600</v>
+        <v>54088900</v>
       </c>
       <c r="M17">
-        <v>-2056000</v>
+        <v>713700</v>
       </c>
       <c r="N17">
-        <v>-26581184000</v>
+        <v>13616941000</v>
       </c>
       <c r="O17">
-        <v>22486600</v>
+        <v>11898800</v>
       </c>
       <c r="P17">
-        <v>364722140000</v>
+        <v>182100244000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673000100000</v>
+        <v>1672997760000</v>
       </c>
       <c r="B18">
-        <v>2474100</v>
+        <v>2845600</v>
       </c>
       <c r="C18">
-        <v>6109000</v>
+        <v>1396000</v>
       </c>
       <c r="D18">
-        <v>21200</v>
+        <v>14100</v>
       </c>
       <c r="E18">
-        <v>42487916000</v>
+        <v>48419617000</v>
       </c>
       <c r="F18">
-        <v>126538360000</v>
+        <v>24293510000</v>
       </c>
       <c r="G18">
-        <v>416649000</v>
+        <v>632246000</v>
       </c>
       <c r="H18">
-        <v>8604300</v>
+        <v>4255700</v>
       </c>
       <c r="I18">
-        <v>169442925000</v>
+        <v>73345373000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-06T10:15:00.000Z</v>
+        <v>2023-01-06T09:36:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2527655481000</v>
+        <v>918396537000</v>
       </c>
       <c r="L18">
-        <v>152096900</v>
+        <v>58344600</v>
       </c>
       <c r="M18">
-        <v>3634900</v>
+        <v>-1449600</v>
       </c>
       <c r="N18">
-        <v>84050444000</v>
+        <v>-24126107000</v>
       </c>
       <c r="O18">
-        <v>26121500</v>
+        <v>10449200</v>
       </c>
       <c r="P18">
-        <v>448772584000</v>
+        <v>157974137000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673000400000</v>
+        <v>1672997880000</v>
       </c>
       <c r="B19">
-        <v>3325100</v>
+        <v>2730400</v>
       </c>
       <c r="C19">
-        <v>4995400</v>
+        <v>1313800</v>
       </c>
       <c r="D19">
-        <v>10800</v>
+        <v>17100</v>
       </c>
       <c r="E19">
-        <v>58086676000</v>
+        <v>43714109000</v>
       </c>
       <c r="F19">
-        <v>88919935000</v>
+        <v>20676353000</v>
       </c>
       <c r="G19">
-        <v>232685000</v>
+        <v>131823000</v>
       </c>
       <c r="H19">
-        <v>8331300</v>
+        <v>4061300</v>
       </c>
       <c r="I19">
-        <v>147239296000</v>
+        <v>64522285000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-06T10:20:00.000Z</v>
+        <v>2023-01-06T09:38:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2674894777000</v>
+        <v>982918822000</v>
       </c>
       <c r="L19">
-        <v>160428200</v>
+        <v>62405900</v>
       </c>
       <c r="M19">
-        <v>1670300</v>
+        <v>-1416600</v>
       </c>
       <c r="N19">
-        <v>30833259000</v>
+        <v>-23037756000</v>
       </c>
       <c r="O19">
-        <v>27791800</v>
+        <v>9032600</v>
       </c>
       <c r="P19">
-        <v>479605843000</v>
+        <v>134936381000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673000700000</v>
+        <v>1672998000000</v>
       </c>
       <c r="B20">
-        <v>5012400</v>
+        <v>2657200</v>
       </c>
       <c r="C20">
-        <v>3452300</v>
+        <v>777600</v>
       </c>
       <c r="D20">
-        <v>20400</v>
+        <v>6300</v>
       </c>
       <c r="E20">
-        <v>79954551000</v>
+        <v>45719339000</v>
       </c>
       <c r="F20">
-        <v>67520128000</v>
+        <v>13435420000</v>
       </c>
       <c r="G20">
-        <v>413104000</v>
+        <v>109230000</v>
       </c>
       <c r="H20">
-        <v>8485100</v>
+        <v>3441100</v>
       </c>
       <c r="I20">
-        <v>147887783000</v>
+        <v>59263989000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-06T10:25:00.000Z</v>
+        <v>2023-01-06T09:40:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2822782560000</v>
+        <v>1042182811000</v>
       </c>
       <c r="L20">
-        <v>168913300</v>
+        <v>65847000</v>
       </c>
       <c r="M20">
-        <v>-1560100</v>
+        <v>-1879600</v>
       </c>
       <c r="N20">
-        <v>-12434423000</v>
+        <v>-32283919000</v>
       </c>
       <c r="O20">
-        <v>26231700</v>
+        <v>7153000</v>
       </c>
       <c r="P20">
-        <v>467171420000</v>
+        <v>102652462000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673001000000</v>
+        <v>1672998120000</v>
       </c>
       <c r="B21">
-        <v>4074700</v>
+        <v>2518500</v>
       </c>
       <c r="C21">
-        <v>3627900</v>
+        <v>1121800</v>
       </c>
       <c r="D21">
-        <v>31900</v>
+        <v>36400</v>
       </c>
       <c r="E21">
-        <v>70458890000</v>
+        <v>43990282000</v>
       </c>
       <c r="F21">
-        <v>75297215000</v>
+        <v>17091118000</v>
       </c>
       <c r="G21">
-        <v>714546000</v>
+        <v>642436000</v>
       </c>
       <c r="H21">
-        <v>7734500</v>
+        <v>3676700</v>
       </c>
       <c r="I21">
-        <v>146470651000</v>
+        <v>61723836000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-06T10:30:00.000Z</v>
+        <v>2023-01-06T09:42:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2969253211000</v>
+        <v>1103906647000</v>
       </c>
       <c r="L21">
-        <v>176647800</v>
+        <v>69523700</v>
       </c>
       <c r="M21">
-        <v>-446800</v>
+        <v>-1396700</v>
       </c>
       <c r="N21">
-        <v>4838325000</v>
+        <v>-26899164000</v>
       </c>
       <c r="O21">
-        <v>25784900</v>
+        <v>5756300</v>
       </c>
       <c r="P21">
-        <v>472009745000</v>
+        <v>75753298000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673001300000</v>
+        <v>1672998240000</v>
       </c>
       <c r="B22">
-        <v>4610100</v>
+        <v>1708800</v>
       </c>
       <c r="C22">
-        <v>2638900</v>
+        <v>1926900</v>
       </c>
       <c r="D22">
-        <v>24100</v>
+        <v>30700</v>
       </c>
       <c r="E22">
-        <v>83271833000</v>
+        <v>31554390000</v>
       </c>
       <c r="F22">
-        <v>53225315000</v>
+        <v>33305060000</v>
       </c>
       <c r="G22">
-        <v>295585000</v>
+        <v>481797000</v>
       </c>
       <c r="H22">
-        <v>7273100</v>
+        <v>3666400</v>
       </c>
       <c r="I22">
-        <v>136792733000</v>
+        <v>65341247000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-06T10:35:00.000Z</v>
+        <v>2023-01-06T09:44:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3106045944000</v>
+        <v>1169247894000</v>
       </c>
       <c r="L22">
-        <v>183920900</v>
+        <v>73190100</v>
       </c>
       <c r="M22">
-        <v>-1971200</v>
+        <v>218100</v>
       </c>
       <c r="N22">
-        <v>-30046518000</v>
+        <v>1750670000</v>
       </c>
       <c r="O22">
-        <v>23813700</v>
+        <v>5974400</v>
       </c>
       <c r="P22">
-        <v>441963227000</v>
+        <v>77503968000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673001600000</v>
+        <v>1672998360000</v>
       </c>
       <c r="B23">
-        <v>2550900</v>
+        <v>1523800</v>
       </c>
       <c r="C23">
-        <v>3762000</v>
+        <v>2375700</v>
       </c>
       <c r="D23">
-        <v>34400</v>
+        <v>11100</v>
       </c>
       <c r="E23">
-        <v>45670664000</v>
+        <v>20413745000</v>
       </c>
       <c r="F23">
-        <v>75282543000</v>
+        <v>39870531000</v>
       </c>
       <c r="G23">
-        <v>568375000</v>
+        <v>349436000</v>
       </c>
       <c r="H23">
-        <v>6347300</v>
+        <v>3910600</v>
       </c>
       <c r="I23">
-        <v>121521582000</v>
+        <v>60633712000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-06T10:40:00.000Z</v>
+        <v>2023-01-06T09:46:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3227567526000</v>
+        <v>1229881606000</v>
       </c>
       <c r="L23">
-        <v>190268200</v>
+        <v>77100700</v>
       </c>
       <c r="M23">
-        <v>1211100</v>
+        <v>851900</v>
       </c>
       <c r="N23">
-        <v>29611879000</v>
+        <v>19456786000</v>
       </c>
       <c r="O23">
-        <v>25024800</v>
+        <v>6826300</v>
       </c>
       <c r="P23">
-        <v>471575106000</v>
+        <v>96960754000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673001900000</v>
+        <v>1672998480000</v>
       </c>
       <c r="B24">
-        <v>3148400</v>
+        <v>1480200</v>
       </c>
       <c r="C24">
-        <v>2357600</v>
+        <v>3526100</v>
       </c>
       <c r="D24">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="E24">
-        <v>61034676000</v>
+        <v>22836828000</v>
       </c>
       <c r="F24">
-        <v>46011098000</v>
+        <v>58244138000</v>
       </c>
       <c r="G24">
-        <v>393638000</v>
+        <v>200233000</v>
       </c>
       <c r="H24">
-        <v>5518600</v>
+        <v>5019000</v>
       </c>
       <c r="I24">
-        <v>107439412000</v>
+        <v>81281199000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-06T10:45:00.000Z</v>
+        <v>2023-01-06T09:48:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3335006938000</v>
+        <v>1311162805000</v>
       </c>
       <c r="L24">
-        <v>195786800</v>
+        <v>82119700</v>
       </c>
       <c r="M24">
-        <v>-790800</v>
+        <v>2045900</v>
       </c>
       <c r="N24">
-        <v>-15023578000</v>
+        <v>35407310000</v>
       </c>
       <c r="O24">
-        <v>24234000</v>
+        <v>8872200</v>
       </c>
       <c r="P24">
-        <v>456551528000</v>
+        <v>132368064000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673002200000</v>
+        <v>1672998600000</v>
       </c>
       <c r="B25">
-        <v>3750900</v>
+        <v>1169000</v>
       </c>
       <c r="C25">
         <v>4401600</v>
       </c>
       <c r="D25">
-        <v>15700</v>
+        <v>2000</v>
       </c>
       <c r="E25">
-        <v>72651221000</v>
+        <v>18331795000</v>
       </c>
       <c r="F25">
-        <v>96673237000</v>
+        <v>71051125000</v>
       </c>
       <c r="G25">
-        <v>235125000</v>
+        <v>29160000</v>
       </c>
       <c r="H25">
-        <v>8168200</v>
+        <v>5572600</v>
       </c>
       <c r="I25">
-        <v>169559583000</v>
+        <v>89412080000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-06T10:50:00.000Z</v>
+        <v>2023-01-06T09:50:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3504566521000</v>
+        <v>1400574885000</v>
       </c>
       <c r="L25">
-        <v>203955000</v>
+        <v>87692300</v>
       </c>
       <c r="M25">
-        <v>650700</v>
+        <v>3232600</v>
       </c>
       <c r="N25">
-        <v>24022016000</v>
+        <v>52719330000</v>
       </c>
       <c r="O25">
-        <v>24884700</v>
+        <v>12104800</v>
       </c>
       <c r="P25">
-        <v>480573544000</v>
+        <v>185087394000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673002500000</v>
+        <v>1672998720000</v>
       </c>
       <c r="B26">
-        <v>3860000</v>
+        <v>1730100</v>
       </c>
       <c r="C26">
-        <v>4765200</v>
+        <v>3579600</v>
       </c>
       <c r="D26">
-        <v>4500</v>
+        <v>9400</v>
       </c>
       <c r="E26">
-        <v>68741381000</v>
+        <v>32520141000</v>
       </c>
       <c r="F26">
-        <v>80869800000</v>
+        <v>54744129000</v>
       </c>
       <c r="G26">
-        <v>269334000</v>
+        <v>207792000</v>
       </c>
       <c r="H26">
-        <v>8629700</v>
+        <v>5319100</v>
       </c>
       <c r="I26">
-        <v>149880515000</v>
+        <v>87472062000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-06T10:55:00.000Z</v>
+        <v>2023-01-06T09:52:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3654447036000</v>
+        <v>1488046947000</v>
       </c>
       <c r="L26">
-        <v>212584700</v>
+        <v>93011400</v>
       </c>
       <c r="M26">
-        <v>905200</v>
+        <v>1849500</v>
       </c>
       <c r="N26">
-        <v>12128419000</v>
+        <v>22223988000</v>
       </c>
       <c r="O26">
-        <v>25789900</v>
+        <v>13954300</v>
       </c>
       <c r="P26">
-        <v>492701963000</v>
+        <v>207311382000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673002800000</v>
+        <v>1672998840000</v>
       </c>
       <c r="B27">
-        <v>3760000</v>
+        <v>1615000</v>
       </c>
       <c r="C27">
-        <v>12375000</v>
+        <v>2844000</v>
       </c>
       <c r="D27">
-        <v>18200</v>
+        <v>4900</v>
       </c>
       <c r="E27">
-        <v>60190822000</v>
+        <v>31800014000</v>
       </c>
       <c r="F27">
-        <v>194002438000</v>
+        <v>52620939000</v>
       </c>
       <c r="G27">
-        <v>591104000</v>
+        <v>232755000</v>
       </c>
       <c r="H27">
-        <v>16153200</v>
+        <v>4463900</v>
       </c>
       <c r="I27">
-        <v>254784364000</v>
+        <v>84653708000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-06T11:00:00.000Z</v>
+        <v>2023-01-06T09:54:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3909231400000</v>
+        <v>1572700655000</v>
       </c>
       <c r="L27">
-        <v>228737900</v>
+        <v>97475300</v>
       </c>
       <c r="M27">
-        <v>8615000</v>
+        <v>1229000</v>
       </c>
       <c r="N27">
-        <v>133811616000</v>
+        <v>20820925000</v>
       </c>
       <c r="O27">
-        <v>34404900</v>
+        <v>15183300</v>
       </c>
       <c r="P27">
-        <v>626513579000</v>
+        <v>228132307000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673003100000</v>
+        <v>1672998960000</v>
       </c>
       <c r="B28">
-        <v>3313100</v>
+        <v>1311800</v>
       </c>
       <c r="C28">
-        <v>7478100</v>
+        <v>3920900</v>
       </c>
       <c r="D28">
-        <v>4200</v>
+        <v>117900</v>
       </c>
       <c r="E28">
-        <v>56937025000</v>
+        <v>25367258000</v>
       </c>
       <c r="F28">
-        <v>129540208000</v>
+        <v>66352694000</v>
       </c>
       <c r="G28">
-        <v>75078000</v>
+        <v>3020000000</v>
       </c>
       <c r="H28">
-        <v>10795400</v>
+        <v>5350600</v>
       </c>
       <c r="I28">
-        <v>186552311000</v>
+        <v>94739952000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-06T11:05:00.000Z</v>
+        <v>2023-01-06T09:56:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4095783711000</v>
+        <v>1667440607000</v>
       </c>
       <c r="L28">
-        <v>239533300</v>
+        <v>102825900</v>
       </c>
       <c r="M28">
-        <v>4165000</v>
+        <v>2609100</v>
       </c>
       <c r="N28">
-        <v>72603183000</v>
+        <v>40985436000</v>
       </c>
       <c r="O28">
-        <v>38569900</v>
+        <v>17792400</v>
       </c>
       <c r="P28">
-        <v>699116762000</v>
+        <v>269117743000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673003400000</v>
+        <v>1672999080000</v>
       </c>
       <c r="B29">
-        <v>3609000</v>
+        <v>2076400</v>
       </c>
       <c r="C29">
-        <v>11712700</v>
+        <v>4711600</v>
       </c>
       <c r="D29">
-        <v>34200</v>
+        <v>34900</v>
       </c>
       <c r="E29">
-        <v>62653309000</v>
+        <v>37203304000</v>
       </c>
       <c r="F29">
-        <v>203345611000</v>
+        <v>82361613000</v>
       </c>
       <c r="G29">
-        <v>739660000</v>
+        <v>410585000</v>
       </c>
       <c r="H29">
-        <v>15355900</v>
+        <v>6822900</v>
       </c>
       <c r="I29">
-        <v>266738580000</v>
+        <v>119975502000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-06T11:10:00.000Z</v>
+        <v>2023-01-06T09:58:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4362522291000</v>
+        <v>1787416109000</v>
       </c>
       <c r="L29">
-        <v>254889200</v>
+        <v>109648800</v>
       </c>
       <c r="M29">
-        <v>8103700</v>
+        <v>2635200</v>
       </c>
       <c r="N29">
-        <v>140692302000</v>
+        <v>45158309000</v>
       </c>
       <c r="O29">
-        <v>46673600</v>
+        <v>20427600</v>
       </c>
       <c r="P29">
-        <v>839809064000</v>
+        <v>314276052000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673003700000</v>
+        <v>1672999200000</v>
       </c>
       <c r="B30">
-        <v>4011100</v>
+        <v>1288800</v>
       </c>
       <c r="C30">
-        <v>6627000</v>
+        <v>5578600</v>
       </c>
       <c r="D30">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="E30">
-        <v>68856275000</v>
+        <v>22768283000</v>
       </c>
       <c r="F30">
-        <v>121527991000</v>
+        <v>92914769000</v>
       </c>
       <c r="G30">
-        <v>158397000</v>
+        <v>60296000</v>
       </c>
       <c r="H30">
-        <v>10651100</v>
+        <v>6871400</v>
       </c>
       <c r="I30">
-        <v>190542663000</v>
+        <v>115743348000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-06T11:15:00.000Z</v>
+        <v>2023-01-06T10:00:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4553064954000</v>
+        <v>1903159457000</v>
       </c>
       <c r="L30">
-        <v>265540300</v>
+        <v>116520200</v>
       </c>
       <c r="M30">
-        <v>2615900</v>
+        <v>4289800</v>
       </c>
       <c r="N30">
-        <v>52671716000</v>
+        <v>70146486000</v>
       </c>
       <c r="O30">
-        <v>49289500</v>
+        <v>24717400</v>
       </c>
       <c r="P30">
-        <v>892480780000</v>
+        <v>384422538000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673004000000</v>
+        <v>1672999320000</v>
       </c>
       <c r="B31">
-        <v>5517200</v>
+        <v>1813600</v>
       </c>
       <c r="C31">
-        <v>4030800</v>
+        <v>3493100</v>
       </c>
       <c r="D31">
-        <v>45000</v>
+        <v>31600</v>
       </c>
       <c r="E31">
-        <v>97719488000</v>
+        <v>27503856000</v>
       </c>
       <c r="F31">
-        <v>72259341000</v>
+        <v>59474745000</v>
       </c>
       <c r="G31">
-        <v>605217000</v>
+        <v>610231000</v>
       </c>
       <c r="H31">
-        <v>9593000</v>
+        <v>5338300</v>
       </c>
       <c r="I31">
-        <v>170584046000</v>
+        <v>87588832000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-06T11:20:00.000Z</v>
+        <v>2023-01-06T10:02:00.000Z</v>
       </c>
       <c r="K31">
-        <v>4723649000000</v>
+        <v>1990748289000</v>
       </c>
       <c r="L31">
-        <v>275133300</v>
+        <v>121858500</v>
       </c>
       <c r="M31">
-        <v>-1486400</v>
+        <v>1679500</v>
       </c>
       <c r="N31">
-        <v>-25460147000</v>
+        <v>31970889000</v>
       </c>
       <c r="O31">
-        <v>47803100</v>
+        <v>26396900</v>
       </c>
       <c r="P31">
-        <v>867020633000</v>
+        <v>416393427000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673004300000</v>
+        <v>1672999440000</v>
       </c>
       <c r="B32">
-        <v>6003400</v>
+        <v>2363000</v>
       </c>
       <c r="C32">
-        <v>2673500</v>
+        <v>2734400</v>
       </c>
       <c r="D32">
-        <v>6600</v>
+        <v>16400</v>
       </c>
       <c r="E32">
-        <v>99277359000</v>
+        <v>37147954000</v>
       </c>
       <c r="F32">
-        <v>48811161000</v>
+        <v>46242740000</v>
       </c>
       <c r="G32">
-        <v>195509000</v>
+        <v>322588000</v>
       </c>
       <c r="H32">
-        <v>8683500</v>
+        <v>5113800</v>
       </c>
       <c r="I32">
-        <v>148284029000</v>
+        <v>83713282000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-06T11:25:00.000Z</v>
+        <v>2023-01-06T10:04:00.000Z</v>
       </c>
       <c r="K32">
-        <v>4871933029000</v>
+        <v>2074461571000</v>
       </c>
       <c r="L32">
-        <v>283816800</v>
+        <v>126972300</v>
       </c>
       <c r="M32">
-        <v>-3329900</v>
+        <v>371400</v>
       </c>
       <c r="N32">
-        <v>-50466198000</v>
+        <v>9094786000</v>
       </c>
       <c r="O32">
-        <v>44473200</v>
+        <v>26768300</v>
       </c>
       <c r="P32">
-        <v>816554435000</v>
+        <v>425488213000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673004600000</v>
+        <v>1672999560000</v>
       </c>
       <c r="B33">
-        <v>6500</v>
+        <v>3143400</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>2435700</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E33">
-        <v>95760000</v>
+        <v>51096225000</v>
       </c>
       <c r="F33">
-        <v>2495000</v>
+        <v>41775087000</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>281585000</v>
       </c>
       <c r="H33">
-        <v>6600</v>
+        <v>5587900</v>
       </c>
       <c r="I33">
-        <v>98255000</v>
+        <v>93152897000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-06T11:30:00.000Z</v>
+        <v>2023-01-06T10:06:00.000Z</v>
       </c>
       <c r="K33">
-        <v>4872031284000</v>
+        <v>2167614468000</v>
       </c>
       <c r="L33">
-        <v>283823400</v>
+        <v>132560200</v>
       </c>
       <c r="M33">
-        <v>-6400</v>
+        <v>-707700</v>
       </c>
       <c r="N33">
-        <v>-93265000</v>
+        <v>-9321138000</v>
       </c>
       <c r="O33">
-        <v>44466800</v>
+        <v>26060600</v>
       </c>
       <c r="P33">
-        <v>816461170000</v>
+        <v>416167075000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673010000000</v>
+        <v>1672999680000</v>
       </c>
       <c r="B34">
-        <v>10231300</v>
+        <v>2660200</v>
       </c>
       <c r="C34">
-        <v>4856900</v>
+        <v>1142200</v>
       </c>
       <c r="D34">
-        <v>197500</v>
+        <v>4500</v>
       </c>
       <c r="E34">
-        <v>175983359000</v>
+        <v>44028507000</v>
       </c>
       <c r="F34">
-        <v>78777900000</v>
+        <v>19164756000</v>
       </c>
       <c r="G34">
-        <v>3334470000</v>
+        <v>67050000</v>
       </c>
       <c r="H34">
-        <v>15285700</v>
+        <v>3806900</v>
       </c>
       <c r="I34">
-        <v>258095729000</v>
+        <v>63260313000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-06T13:00:00.000Z</v>
+        <v>2023-01-06T10:08:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5130127013000</v>
+        <v>2230874781000</v>
       </c>
       <c r="L34">
-        <v>299109100</v>
+        <v>136367100</v>
       </c>
       <c r="M34">
-        <v>-5374400</v>
+        <v>-1518000</v>
       </c>
       <c r="N34">
-        <v>-97205459000</v>
+        <v>-24863751000</v>
       </c>
       <c r="O34">
-        <v>39092400</v>
+        <v>24542600</v>
       </c>
       <c r="P34">
-        <v>719255711000</v>
+        <v>391303324000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673010300000</v>
+        <v>1672999800000</v>
       </c>
       <c r="B35">
-        <v>7898800</v>
+        <v>1827300</v>
       </c>
       <c r="C35">
-        <v>3011400</v>
+        <v>1120900</v>
       </c>
       <c r="D35">
-        <v>30600</v>
+        <v>12900</v>
       </c>
       <c r="E35">
-        <v>126524290000</v>
+        <v>30543244000</v>
       </c>
       <c r="F35">
-        <v>50183657000</v>
+        <v>23915049000</v>
       </c>
       <c r="G35">
-        <v>560478000</v>
+        <v>363320000</v>
       </c>
       <c r="H35">
-        <v>10940800</v>
+        <v>2961100</v>
       </c>
       <c r="I35">
-        <v>177268425000</v>
+        <v>54821613000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-06T13:05:00.000Z</v>
+        <v>2023-01-06T10:10:00.000Z</v>
       </c>
       <c r="K35">
-        <v>5307395438000</v>
+        <v>2285696394000</v>
       </c>
       <c r="L35">
-        <v>310049900</v>
+        <v>139328200</v>
       </c>
       <c r="M35">
-        <v>-4887400</v>
+        <v>-706400</v>
       </c>
       <c r="N35">
-        <v>-76340633000</v>
+        <v>-6628195000</v>
       </c>
       <c r="O35">
-        <v>34205000</v>
+        <v>23836200</v>
       </c>
       <c r="P35">
-        <v>642915078000</v>
+        <v>384675129000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673010600000</v>
+        <v>1672999920000</v>
       </c>
       <c r="B36">
-        <v>5414200</v>
+        <v>1829600</v>
       </c>
       <c r="C36">
-        <v>4754300</v>
+        <v>997100</v>
       </c>
       <c r="D36">
-        <v>95200</v>
+        <v>200</v>
       </c>
       <c r="E36">
-        <v>105894675000</v>
+        <v>30471793000</v>
       </c>
       <c r="F36">
-        <v>75781252000</v>
+        <v>18919159000</v>
       </c>
       <c r="G36">
-        <v>1483008000</v>
+        <v>1134000</v>
       </c>
       <c r="H36">
-        <v>10263700</v>
+        <v>2826900</v>
       </c>
       <c r="I36">
-        <v>183158935000</v>
+        <v>49392086000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-06T13:10:00.000Z</v>
+        <v>2023-01-06T10:12:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5490554373000</v>
+        <v>2335088480000</v>
       </c>
       <c r="L36">
-        <v>320313600</v>
+        <v>142155100</v>
       </c>
       <c r="M36">
-        <v>-659900</v>
+        <v>-832500</v>
       </c>
       <c r="N36">
-        <v>-30113423000</v>
+        <v>-11552634000</v>
       </c>
       <c r="O36">
-        <v>33545100</v>
+        <v>23003700</v>
       </c>
       <c r="P36">
-        <v>612801655000</v>
+        <v>373122495000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673010900000</v>
+        <v>1673000040000</v>
       </c>
       <c r="B37">
-        <v>8156600</v>
+        <v>1789500</v>
       </c>
       <c r="C37">
-        <v>5900200</v>
+        <v>1146000</v>
       </c>
       <c r="D37">
-        <v>25700</v>
+        <v>2100</v>
       </c>
       <c r="E37">
-        <v>146271363000</v>
+        <v>30141910000</v>
       </c>
       <c r="F37">
-        <v>90810044000</v>
+        <v>22139090000</v>
       </c>
       <c r="G37">
-        <v>619258000</v>
+        <v>33684000</v>
       </c>
       <c r="H37">
-        <v>14082500</v>
+        <v>2937600</v>
       </c>
       <c r="I37">
-        <v>237700665000</v>
+        <v>52314684000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-06T13:15:00.000Z</v>
+        <v>2023-01-06T10:14:00.000Z</v>
       </c>
       <c r="K37">
-        <v>5728255038000</v>
+        <v>2387403164000</v>
       </c>
       <c r="L37">
-        <v>334396100</v>
+        <v>145092700</v>
       </c>
       <c r="M37">
-        <v>-2256400</v>
+        <v>-643500</v>
       </c>
       <c r="N37">
-        <v>-55461319000</v>
+        <v>-8002820000</v>
       </c>
       <c r="O37">
-        <v>31288700</v>
+        <v>22360200</v>
       </c>
       <c r="P37">
-        <v>557340336000</v>
+        <v>365119675000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673011200000</v>
+        <v>1673000160000</v>
       </c>
       <c r="B38">
-        <v>10268300</v>
+        <v>924000</v>
       </c>
       <c r="C38">
-        <v>2920900</v>
+        <v>2621300</v>
       </c>
       <c r="D38">
-        <v>118200</v>
+        <v>8600</v>
       </c>
       <c r="E38">
-        <v>181391591000</v>
+        <v>15539331000</v>
       </c>
       <c r="F38">
-        <v>52436278000</v>
+        <v>56375709000</v>
       </c>
       <c r="G38">
-        <v>1328109000</v>
+        <v>238192000</v>
       </c>
       <c r="H38">
-        <v>13307400</v>
+        <v>3553900</v>
       </c>
       <c r="I38">
-        <v>235155978000</v>
+        <v>72153232000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-06T13:20:00.000Z</v>
+        <v>2023-01-06T10:16:00.000Z</v>
       </c>
       <c r="K38">
-        <v>5963411016000</v>
+        <v>2459556396000</v>
       </c>
       <c r="L38">
-        <v>347703500</v>
+        <v>148646600</v>
       </c>
       <c r="M38">
-        <v>-7347400</v>
+        <v>1697300</v>
       </c>
       <c r="N38">
-        <v>-128955313000</v>
+        <v>40836378000</v>
       </c>
       <c r="O38">
-        <v>23941300</v>
+        <v>24057500</v>
       </c>
       <c r="P38">
-        <v>428385023000</v>
+        <v>405956053000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673011500000</v>
+        <v>1673000280000</v>
       </c>
       <c r="B39">
-        <v>9557500</v>
+        <v>687100</v>
       </c>
       <c r="C39">
-        <v>4237600</v>
+        <v>2751100</v>
       </c>
       <c r="D39">
-        <v>49200</v>
+        <v>12100</v>
       </c>
       <c r="E39">
-        <v>159601623000</v>
+        <v>12554763000</v>
       </c>
       <c r="F39">
-        <v>72638936000</v>
+        <v>55371294000</v>
       </c>
       <c r="G39">
-        <v>913997000</v>
+        <v>173028000</v>
       </c>
       <c r="H39">
-        <v>13844300</v>
+        <v>3450300</v>
       </c>
       <c r="I39">
-        <v>233154556000</v>
+        <v>68099085000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-06T13:25:00.000Z</v>
+        <v>2023-01-06T10:18:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6196565572000</v>
+        <v>2527655481000</v>
       </c>
       <c r="L39">
-        <v>361547800</v>
+        <v>152096900</v>
       </c>
       <c r="M39">
-        <v>-5319900</v>
+        <v>2064000</v>
       </c>
       <c r="N39">
-        <v>-86962687000</v>
+        <v>42816531000</v>
       </c>
       <c r="O39">
-        <v>18621400</v>
+        <v>26121500</v>
       </c>
       <c r="P39">
-        <v>341422336000</v>
+        <v>448772584000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673011800000</v>
+        <v>1673000400000</v>
       </c>
       <c r="B40">
-        <v>5954400</v>
+        <v>980800</v>
       </c>
       <c r="C40">
-        <v>2479100</v>
+        <v>2628000</v>
       </c>
       <c r="D40">
-        <v>37900</v>
+        <v>3400</v>
       </c>
       <c r="E40">
-        <v>116672697000</v>
+        <v>18547948000</v>
       </c>
       <c r="F40">
-        <v>44835190000</v>
+        <v>47491493000</v>
       </c>
       <c r="G40">
-        <v>1014572000</v>
+        <v>99110000</v>
       </c>
       <c r="H40">
-        <v>8471400</v>
+        <v>3612200</v>
       </c>
       <c r="I40">
-        <v>162522459000</v>
+        <v>66138551000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-06T13:30:00.000Z</v>
+        <v>2023-01-06T10:20:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6359088031000</v>
+        <v>2593794032000</v>
       </c>
       <c r="L40">
-        <v>370019200</v>
+        <v>155709100</v>
       </c>
       <c r="M40">
-        <v>-3475300</v>
+        <v>1647200</v>
       </c>
       <c r="N40">
-        <v>-71837507000</v>
+        <v>28943545000</v>
       </c>
       <c r="O40">
-        <v>15146100</v>
+        <v>27768700</v>
       </c>
       <c r="P40">
-        <v>269584829000</v>
+        <v>477716129000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673012100000</v>
+        <v>1673000520000</v>
       </c>
       <c r="B41">
-        <v>9844600</v>
+        <v>1405600</v>
       </c>
       <c r="C41">
-        <v>2497400</v>
+        <v>1698500</v>
       </c>
       <c r="D41">
-        <v>26700</v>
+        <v>2200</v>
       </c>
       <c r="E41">
-        <v>179555602000</v>
+        <v>24711157000</v>
       </c>
       <c r="F41">
-        <v>46680908000</v>
+        <v>29440312000</v>
       </c>
       <c r="G41">
-        <v>629717000</v>
+        <v>37330000</v>
       </c>
       <c r="H41">
-        <v>12368700</v>
+        <v>3106300</v>
       </c>
       <c r="I41">
-        <v>226866227000</v>
+        <v>54188799000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-06T13:35:00.000Z</v>
+        <v>2023-01-06T10:22:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6585954258000</v>
+        <v>2647982831000</v>
       </c>
       <c r="L41">
-        <v>382387900</v>
+        <v>158815400</v>
       </c>
       <c r="M41">
-        <v>-7347200</v>
+        <v>292900</v>
       </c>
       <c r="N41">
-        <v>-132874694000</v>
+        <v>4729155000</v>
       </c>
       <c r="O41">
-        <v>7798900</v>
+        <v>28061600</v>
       </c>
       <c r="P41">
-        <v>136710135000</v>
+        <v>482445284000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673012400000</v>
+        <v>1673000640000</v>
       </c>
       <c r="B42">
-        <v>6271300</v>
+        <v>1762700</v>
       </c>
       <c r="C42">
-        <v>6799800</v>
+        <v>1187800</v>
       </c>
       <c r="D42">
-        <v>66900</v>
+        <v>23800</v>
       </c>
       <c r="E42">
-        <v>104110620000</v>
+        <v>27399113000</v>
       </c>
       <c r="F42">
-        <v>116987976000</v>
+        <v>22376226000</v>
       </c>
       <c r="G42">
-        <v>1547007000</v>
+        <v>463565000</v>
       </c>
       <c r="H42">
-        <v>13138000</v>
+        <v>2974300</v>
       </c>
       <c r="I42">
-        <v>222645603000</v>
+        <v>50238904000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-06T13:40:00.000Z</v>
+        <v>2023-01-06T10:24:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6808599861000</v>
+        <v>2698221735000</v>
       </c>
       <c r="L42">
-        <v>395525900</v>
+        <v>161789700</v>
       </c>
       <c r="M42">
-        <v>528500</v>
+        <v>-574900</v>
       </c>
       <c r="N42">
-        <v>12877356000</v>
+        <v>-5022887000</v>
       </c>
       <c r="O42">
-        <v>8327400</v>
+        <v>27486700</v>
       </c>
       <c r="P42">
-        <v>149587491000</v>
+        <v>477422397000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673012700000</v>
+        <v>1673000760000</v>
       </c>
       <c r="B43">
-        <v>4450600</v>
+        <v>1855600</v>
       </c>
       <c r="C43">
-        <v>4130300</v>
+        <v>1426100</v>
       </c>
       <c r="D43">
-        <v>241900</v>
+        <v>1400</v>
       </c>
       <c r="E43">
-        <v>83953705000</v>
+        <v>32226129000</v>
       </c>
       <c r="F43">
-        <v>73885221000</v>
+        <v>28202678000</v>
       </c>
       <c r="G43">
-        <v>1588245000</v>
+        <v>33375000</v>
       </c>
       <c r="H43">
-        <v>8822800</v>
+        <v>3283100</v>
       </c>
       <c r="I43">
-        <v>159427171000</v>
+        <v>60462182000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-06T13:45:00.000Z</v>
+        <v>2023-01-06T10:26:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6968027032000</v>
+        <v>2758683917000</v>
       </c>
       <c r="L43">
-        <v>404348700</v>
+        <v>165072800</v>
       </c>
       <c r="M43">
-        <v>-320300</v>
+        <v>-429500</v>
       </c>
       <c r="N43">
-        <v>-10068484000</v>
+        <v>-4023451000</v>
       </c>
       <c r="O43">
-        <v>8007100</v>
+        <v>27057200</v>
       </c>
       <c r="P43">
-        <v>139519007000</v>
+        <v>473398946000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673013000000</v>
+        <v>1673000880000</v>
       </c>
       <c r="B44">
-        <v>3738300</v>
+        <v>2332800</v>
       </c>
       <c r="C44">
-        <v>3879600</v>
+        <v>1507300</v>
       </c>
       <c r="D44">
-        <v>85200</v>
+        <v>400</v>
       </c>
       <c r="E44">
-        <v>57160937000</v>
+        <v>35156880000</v>
       </c>
       <c r="F44">
-        <v>67932935000</v>
+        <v>28929354000</v>
       </c>
       <c r="G44">
-        <v>824013000</v>
+        <v>12409000</v>
       </c>
       <c r="H44">
-        <v>7703100</v>
+        <v>3840500</v>
       </c>
       <c r="I44">
-        <v>125917885000</v>
+        <v>64098643000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-06T13:50:00.000Z</v>
+        <v>2023-01-06T10:28:00.000Z</v>
       </c>
       <c r="K44">
-        <v>7093944917000</v>
+        <v>2822782560000</v>
       </c>
       <c r="L44">
-        <v>412051800</v>
+        <v>168913300</v>
       </c>
       <c r="M44">
-        <v>141300</v>
+        <v>-825500</v>
       </c>
       <c r="N44">
-        <v>10771998000</v>
+        <v>-6227526000</v>
       </c>
       <c r="O44">
-        <v>8148400</v>
+        <v>26231700</v>
       </c>
       <c r="P44">
-        <v>150291005000</v>
+        <v>467171420000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673013300000</v>
+        <v>1673001000000</v>
       </c>
       <c r="B45">
-        <v>4108100</v>
+        <v>1628900</v>
       </c>
       <c r="C45">
-        <v>4282300</v>
+        <v>1431600</v>
       </c>
       <c r="D45">
-        <v>20400</v>
+        <v>5100</v>
       </c>
       <c r="E45">
-        <v>69860120000</v>
+        <v>29438390000</v>
       </c>
       <c r="F45">
-        <v>71197934000</v>
+        <v>33337870000</v>
       </c>
       <c r="G45">
-        <v>630450000</v>
+        <v>61296000</v>
       </c>
       <c r="H45">
-        <v>8410800</v>
+        <v>3065600</v>
       </c>
       <c r="I45">
-        <v>141688504000</v>
+        <v>62837556000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-06T13:55:00.000Z</v>
+        <v>2023-01-06T10:30:00.000Z</v>
       </c>
       <c r="K45">
-        <v>7235633421000</v>
+        <v>2885620116000</v>
       </c>
       <c r="L45">
-        <v>420462600</v>
+        <v>171978900</v>
       </c>
       <c r="M45">
-        <v>174200</v>
+        <v>-197300</v>
       </c>
       <c r="N45">
-        <v>1337814000</v>
+        <v>3899480000</v>
       </c>
       <c r="O45">
-        <v>8322600</v>
+        <v>26034400</v>
       </c>
       <c r="P45">
-        <v>151628819000</v>
+        <v>471070900000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673013600000</v>
+        <v>1673001120000</v>
       </c>
       <c r="B46">
-        <v>15542000</v>
+        <v>1303400</v>
       </c>
       <c r="C46">
-        <v>3032600</v>
+        <v>1678900</v>
       </c>
       <c r="D46">
-        <v>62000</v>
+        <v>5300</v>
       </c>
       <c r="E46">
-        <v>282173669000</v>
+        <v>21666951000</v>
       </c>
       <c r="F46">
-        <v>52573770000</v>
+        <v>32669956000</v>
       </c>
       <c r="G46">
-        <v>904124000</v>
+        <v>134440000</v>
       </c>
       <c r="H46">
-        <v>18636600</v>
+        <v>2987600</v>
       </c>
       <c r="I46">
-        <v>335651563000</v>
+        <v>54471347000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-06T14:00:00.000Z</v>
+        <v>2023-01-06T10:32:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7571284984000</v>
+        <v>2940091463000</v>
       </c>
       <c r="L46">
-        <v>439099200</v>
+        <v>174966500</v>
       </c>
       <c r="M46">
-        <v>-12509400</v>
+        <v>375500</v>
       </c>
       <c r="N46">
-        <v>-229599899000</v>
+        <v>11003005000</v>
       </c>
       <c r="O46">
-        <v>-4186800</v>
+        <v>26409900</v>
       </c>
       <c r="P46">
-        <v>-77971080000</v>
+        <v>482073905000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673013900000</v>
+        <v>1673001240000</v>
       </c>
       <c r="B47">
-        <v>14151500</v>
+        <v>2171300</v>
       </c>
       <c r="C47">
-        <v>5480500</v>
+        <v>1115400</v>
       </c>
       <c r="D47">
-        <v>54500</v>
+        <v>35400</v>
       </c>
       <c r="E47">
-        <v>248571365000</v>
+        <v>35007288000</v>
       </c>
       <c r="F47">
-        <v>94178663000</v>
+        <v>20759228000</v>
       </c>
       <c r="G47">
-        <v>979977000</v>
+        <v>597444000</v>
       </c>
       <c r="H47">
-        <v>19686500</v>
+        <v>3322100</v>
       </c>
       <c r="I47">
-        <v>343730005000</v>
+        <v>56363960000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-06T14:05:00.000Z</v>
+        <v>2023-01-06T10:34:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7915014989000</v>
+        <v>2996455423000</v>
       </c>
       <c r="L47">
-        <v>458785700</v>
+        <v>178288600</v>
       </c>
       <c r="M47">
-        <v>-8671000</v>
+        <v>-1055900</v>
       </c>
       <c r="N47">
-        <v>-154392702000</v>
+        <v>-14248060000</v>
       </c>
       <c r="O47">
-        <v>-12857800</v>
+        <v>25354000</v>
       </c>
       <c r="P47">
-        <v>-232363782000</v>
+        <v>467825845000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673014200000</v>
+        <v>1673001360000</v>
       </c>
       <c r="B48">
-        <v>4451600</v>
+        <v>1916400</v>
       </c>
       <c r="C48">
-        <v>5377500</v>
+        <v>1188400</v>
       </c>
       <c r="D48">
-        <v>12100</v>
+        <v>600</v>
       </c>
       <c r="E48">
-        <v>75914116000</v>
+        <v>37071510000</v>
       </c>
       <c r="F48">
-        <v>94542571000</v>
+        <v>25081915000</v>
       </c>
       <c r="G48">
-        <v>403199000</v>
+        <v>11810000</v>
       </c>
       <c r="H48">
-        <v>9841200</v>
+        <v>3105400</v>
       </c>
       <c r="I48">
-        <v>170859886000</v>
+        <v>62165235000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-06T14:10:00.000Z</v>
+        <v>2023-01-06T10:36:00.000Z</v>
       </c>
       <c r="K48">
-        <v>8085874875000</v>
+        <v>3058620658000</v>
       </c>
       <c r="L48">
-        <v>468626900</v>
+        <v>181394000</v>
       </c>
       <c r="M48">
-        <v>925900</v>
+        <v>-728000</v>
       </c>
       <c r="N48">
-        <v>18628455000</v>
+        <v>-11989595000</v>
       </c>
       <c r="O48">
-        <v>-11931900</v>
+        <v>24626000</v>
       </c>
       <c r="P48">
-        <v>-213735327000</v>
+        <v>455836250000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673014500000</v>
+        <v>1673001480000</v>
       </c>
       <c r="B49">
-        <v>16164500</v>
+        <v>1664800</v>
       </c>
       <c r="C49">
-        <v>3585500</v>
+        <v>852500</v>
       </c>
       <c r="D49">
-        <v>113100</v>
+        <v>9600</v>
       </c>
       <c r="E49">
-        <v>287667028000</v>
+        <v>30546584000</v>
       </c>
       <c r="F49">
-        <v>61312898000</v>
+        <v>16673561000</v>
       </c>
       <c r="G49">
-        <v>1355963000</v>
+        <v>205141000</v>
       </c>
       <c r="H49">
-        <v>19863100</v>
+        <v>2526900</v>
       </c>
       <c r="I49">
-        <v>350335889000</v>
+        <v>47425286000</v>
       </c>
       <c r="J49" t="str">
-        <v>2023-01-06T14:15:00.000Z</v>
+        <v>2023-01-06T10:38:00.000Z</v>
       </c>
       <c r="K49">
-        <v>8436210764000</v>
+        <v>3106045944000</v>
       </c>
       <c r="L49">
-        <v>488490000</v>
+        <v>183920900</v>
       </c>
       <c r="M49">
-        <v>-12579000</v>
+        <v>-812300</v>
       </c>
       <c r="N49">
-        <v>-226354130000</v>
+        <v>-13873023000</v>
       </c>
       <c r="O49">
-        <v>-24510900</v>
+        <v>23813700</v>
       </c>
       <c r="P49">
-        <v>-440089457000</v>
+        <v>441963227000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1673014800000</v>
+        <v>1673001600000</v>
       </c>
       <c r="B50">
-        <v>28314200</v>
+        <v>1278700</v>
       </c>
       <c r="C50">
-        <v>9679200</v>
+        <v>816100</v>
       </c>
       <c r="D50">
-        <v>229100</v>
+        <v>20200</v>
       </c>
       <c r="E50">
-        <v>470968474000</v>
+        <v>22926044000</v>
       </c>
       <c r="F50">
-        <v>163526354000</v>
+        <v>16222527000</v>
       </c>
       <c r="G50">
-        <v>3809860000</v>
+        <v>175345000</v>
       </c>
       <c r="H50">
-        <v>38222500</v>
+        <v>2115000</v>
       </c>
       <c r="I50">
-        <v>638304688000</v>
+        <v>39323916000</v>
       </c>
       <c r="J50" t="str">
-        <v>2023-01-06T14:20:00.000Z</v>
+        <v>2023-01-06T10:40:00.000Z</v>
       </c>
       <c r="K50">
-        <v>9074515452000</v>
+        <v>3145369860000</v>
       </c>
       <c r="L50">
-        <v>526712500</v>
+        <v>186035900</v>
       </c>
       <c r="M50">
-        <v>-18635000</v>
+        <v>-462600</v>
       </c>
       <c r="N50">
-        <v>-307442120000</v>
+        <v>-6703517000</v>
       </c>
       <c r="O50">
-        <v>-43145900</v>
+        <v>23351100</v>
       </c>
       <c r="P50">
-        <v>-747531577000</v>
+        <v>435259710000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1673015100000</v>
+        <v>1673001720000</v>
       </c>
       <c r="B51">
-        <v>10296600</v>
+        <v>849200</v>
       </c>
       <c r="C51">
-        <v>12309100</v>
+        <v>1813800</v>
       </c>
       <c r="D51">
-        <v>113300</v>
+        <v>13700</v>
       </c>
       <c r="E51">
-        <v>176293925000</v>
+        <v>16060113000</v>
       </c>
       <c r="F51">
-        <v>201549626000</v>
+        <v>39827149000</v>
       </c>
       <c r="G51">
-        <v>1463697000</v>
+        <v>378905000</v>
       </c>
       <c r="H51">
-        <v>22719000</v>
+        <v>2676700</v>
       </c>
       <c r="I51">
-        <v>379307248000</v>
+        <v>56266167000</v>
       </c>
       <c r="J51" t="str">
-        <v>2023-01-06T14:25:00.000Z</v>
+        <v>2023-01-06T10:42:00.000Z</v>
       </c>
       <c r="K51">
-        <v>9453822700000</v>
+        <v>3201636027000</v>
       </c>
       <c r="L51">
-        <v>549431500</v>
+        <v>188712600</v>
       </c>
       <c r="M51">
-        <v>2012500</v>
+        <v>964600</v>
       </c>
       <c r="N51">
-        <v>25255701000</v>
+        <v>23767036000</v>
       </c>
       <c r="O51">
-        <v>-41133400</v>
+        <v>24315700</v>
       </c>
       <c r="P51">
-        <v>-722275876000</v>
+        <v>459026746000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1673015400000</v>
+        <v>1673001840000</v>
       </c>
       <c r="B52">
-        <v>119000</v>
+        <v>845200</v>
       </c>
       <c r="C52">
-        <v>8700</v>
+        <v>1624000</v>
       </c>
       <c r="D52">
-        <v>200</v>
+        <v>4600</v>
       </c>
       <c r="E52">
-        <v>2909165000</v>
+        <v>15085849000</v>
       </c>
       <c r="F52">
-        <v>86098000</v>
+        <v>27924545000</v>
       </c>
       <c r="G52">
-        <v>2500000</v>
+        <v>88903000.00000001</v>
       </c>
       <c r="H52">
-        <v>127900</v>
+        <v>2473800</v>
       </c>
       <c r="I52">
-        <v>2997763000</v>
+        <v>43099297000</v>
       </c>
       <c r="J52" t="str">
-        <v>2023-01-06T14:30:00.000Z</v>
+        <v>2023-01-06T10:44:00.000Z</v>
       </c>
       <c r="K52">
-        <v>9456820463000</v>
+        <v>3244735324000</v>
       </c>
       <c r="L52">
-        <v>549559400</v>
+        <v>191186400</v>
       </c>
       <c r="M52">
-        <v>-110300</v>
+        <v>778800</v>
       </c>
       <c r="N52">
-        <v>-2823067000</v>
+        <v>12838696000</v>
       </c>
       <c r="O52">
-        <v>-41243700</v>
+        <v>25094500</v>
       </c>
       <c r="P52">
-        <v>-725098943000</v>
+        <v>471865442000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1673015700000</v>
+        <v>1673001960000</v>
       </c>
       <c r="B53">
-        <v>1600</v>
+        <v>1088600</v>
       </c>
       <c r="C53">
-        <v>7500</v>
+        <v>1128800</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="E53">
-        <v>20160000</v>
+        <v>21310728000</v>
       </c>
       <c r="F53">
-        <v>94500000</v>
+        <v>22961878000</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>176000000</v>
       </c>
       <c r="H53">
-        <v>9100</v>
+        <v>2223200</v>
       </c>
       <c r="I53">
-        <v>114660000</v>
+        <v>44448606000</v>
       </c>
       <c r="J53" t="str">
-        <v>2023-01-06T14:35:00.000Z</v>
+        <v>2023-01-06T10:46:00.000Z</v>
       </c>
       <c r="K53">
-        <v>9456935123000</v>
+        <v>3289183930000</v>
       </c>
       <c r="L53">
-        <v>549568500</v>
+        <v>193409600</v>
       </c>
       <c r="M53">
-        <v>5900</v>
+        <v>40200</v>
       </c>
       <c r="N53">
-        <v>74340000</v>
+        <v>1651150000</v>
       </c>
       <c r="O53">
-        <v>-41237800</v>
+        <v>25134700</v>
       </c>
       <c r="P53">
-        <v>-725024603000</v>
+        <v>473516592000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1673016000000</v>
+        <v>1673002080000</v>
       </c>
       <c r="B54">
-        <v>4400</v>
+        <v>1637600</v>
       </c>
       <c r="C54">
-        <v>1200</v>
+        <v>736900</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E54">
-        <v>55270000</v>
+        <v>31322606000</v>
       </c>
       <c r="F54">
-        <v>15120000</v>
+        <v>14357542000</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>142860000</v>
       </c>
       <c r="H54">
-        <v>5600</v>
+        <v>2377200</v>
       </c>
       <c r="I54">
-        <v>70390000</v>
+        <v>45823008000</v>
       </c>
       <c r="J54" t="str">
-        <v>2023-01-06T14:40:00.000Z</v>
+        <v>2023-01-06T10:48:00.000Z</v>
       </c>
       <c r="K54">
-        <v>9457005513000</v>
+        <v>3335006938000</v>
       </c>
       <c r="L54">
-        <v>549574100</v>
+        <v>195786800</v>
       </c>
       <c r="M54">
-        <v>-3200</v>
+        <v>-900700</v>
       </c>
       <c r="N54">
-        <v>-40150000</v>
+        <v>-16965064000</v>
       </c>
       <c r="O54">
-        <v>-41241000</v>
+        <v>24234000</v>
       </c>
       <c r="P54">
-        <v>-725064753000</v>
+        <v>456551528000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1673016300000</v>
+        <v>1673002200000</v>
       </c>
       <c r="B55">
-        <v>10709800</v>
+        <v>1540900</v>
       </c>
       <c r="C55">
-        <v>1923700</v>
+        <v>2406500</v>
       </c>
       <c r="D55">
-        <v>21367700</v>
+        <v>12000</v>
       </c>
       <c r="E55">
-        <v>194687306000</v>
+        <v>28868651000</v>
       </c>
       <c r="F55">
-        <v>40565675000</v>
+        <v>57283634000</v>
       </c>
       <c r="G55">
-        <v>363171093000</v>
+        <v>159070000</v>
       </c>
       <c r="H55">
-        <v>34001200</v>
+        <v>3959400</v>
       </c>
       <c r="I55">
-        <v>598424074000</v>
+        <v>86311355000</v>
       </c>
       <c r="J55" t="str">
-        <v>2023-01-06T14:45:00.000Z</v>
+        <v>2023-01-06T10:50:00.000Z</v>
       </c>
       <c r="K55">
-        <v>10055429587000</v>
+        <v>3421318293000</v>
       </c>
       <c r="L55">
-        <v>583575300</v>
+        <v>199746200</v>
       </c>
       <c r="M55">
-        <v>-8786100</v>
+        <v>865600</v>
       </c>
       <c r="N55">
-        <v>-154121631000</v>
+        <v>28414983000</v>
       </c>
       <c r="O55">
-        <v>-50027100</v>
+        <v>25099600</v>
       </c>
       <c r="P55">
-        <v>-879186384000</v>
+        <v>484966511000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1673016600000</v>
+        <v>1673002320000</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>1614700</v>
       </c>
       <c r="C56">
-        <v>3300</v>
+        <v>1238600</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E56">
-        <v>3900000</v>
+        <v>34462273000</v>
       </c>
       <c r="F56">
-        <v>43230000</v>
+        <v>27320547000</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>49904000</v>
       </c>
       <c r="H56">
-        <v>3600</v>
+        <v>2855900</v>
       </c>
       <c r="I56">
-        <v>47130000</v>
+        <v>61832724000</v>
       </c>
       <c r="J56" t="str">
-        <v>2023-01-06T14:50:00.000Z</v>
+        <v>2023-01-06T10:52:00.000Z</v>
       </c>
       <c r="K56">
-        <v>10055476717000</v>
+        <v>3483151017000</v>
       </c>
       <c r="L56">
-        <v>583578900</v>
+        <v>202602100</v>
       </c>
       <c r="M56">
-        <v>3000</v>
+        <v>-376100</v>
       </c>
       <c r="N56">
-        <v>39330000</v>
+        <v>-7141726000</v>
       </c>
       <c r="O56">
-        <v>-50024100</v>
+        <v>24723500</v>
       </c>
       <c r="P56">
-        <v>-879147054000</v>
+        <v>477824785000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1673016900000</v>
+        <v>1673002440000</v>
       </c>
       <c r="B57">
-        <v>24600</v>
+        <v>1212900</v>
       </c>
       <c r="C57">
-        <v>26900</v>
+        <v>1148600</v>
       </c>
       <c r="D57">
+        <v>1200</v>
+      </c>
+      <c r="E57">
+        <v>21712671000</v>
+      </c>
+      <c r="F57">
+        <v>20599911000</v>
+      </c>
+      <c r="G57">
+        <v>33221000</v>
+      </c>
+      <c r="H57">
+        <v>2362700</v>
+      </c>
+      <c r="I57">
+        <v>42345803000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-06T10:54:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>3525496820000</v>
+      </c>
+      <c r="L57">
+        <v>204964800</v>
+      </c>
+      <c r="M57">
+        <v>-64300</v>
+      </c>
+      <c r="N57">
+        <v>-1112760000</v>
+      </c>
+      <c r="O57">
+        <v>24659200</v>
+      </c>
+      <c r="P57">
+        <v>476712025000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673002560000</v>
+      </c>
+      <c r="B58">
+        <v>1713700</v>
+      </c>
+      <c r="C58">
+        <v>1601900</v>
+      </c>
+      <c r="D58">
+        <v>500</v>
+      </c>
+      <c r="E58">
+        <v>29671387000</v>
+      </c>
+      <c r="F58">
+        <v>27551455000</v>
+      </c>
+      <c r="G58">
+        <v>6759000</v>
+      </c>
+      <c r="H58">
+        <v>3316100</v>
+      </c>
+      <c r="I58">
+        <v>57229601000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-06T10:56:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>3582726421000</v>
+      </c>
+      <c r="L58">
+        <v>208280900</v>
+      </c>
+      <c r="M58">
+        <v>-111800</v>
+      </c>
+      <c r="N58">
+        <v>-2119932000</v>
+      </c>
+      <c r="O58">
+        <v>24547400</v>
+      </c>
+      <c r="P58">
+        <v>474592093000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673002680000</v>
+      </c>
+      <c r="B59">
+        <v>1528700</v>
+      </c>
+      <c r="C59">
+        <v>2771200</v>
+      </c>
+      <c r="D59">
+        <v>3900</v>
+      </c>
+      <c r="E59">
+        <v>26677620000</v>
+      </c>
+      <c r="F59">
+        <v>44787490000</v>
+      </c>
+      <c r="G59">
+        <v>255505000</v>
+      </c>
+      <c r="H59">
+        <v>4303800</v>
+      </c>
+      <c r="I59">
+        <v>71720615000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-06T10:58:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3654447036000</v>
+      </c>
+      <c r="L59">
+        <v>212584700</v>
+      </c>
+      <c r="M59">
+        <v>1242500</v>
+      </c>
+      <c r="N59">
+        <v>18109870000</v>
+      </c>
+      <c r="O59">
+        <v>25789900</v>
+      </c>
+      <c r="P59">
+        <v>492701963000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673002800000</v>
+      </c>
+      <c r="B60">
+        <v>1052700</v>
+      </c>
+      <c r="C60">
+        <v>7829900</v>
+      </c>
+      <c r="D60">
+        <v>1400</v>
+      </c>
+      <c r="E60">
+        <v>18184133000</v>
+      </c>
+      <c r="F60">
+        <v>111408533000</v>
+      </c>
+      <c r="G60">
+        <v>63550000</v>
+      </c>
+      <c r="H60">
+        <v>8884000</v>
+      </c>
+      <c r="I60">
+        <v>129656216000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-06T11:00:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3784103252000</v>
+      </c>
+      <c r="L60">
+        <v>221468700</v>
+      </c>
+      <c r="M60">
+        <v>6777200</v>
+      </c>
+      <c r="N60">
+        <v>93224400000</v>
+      </c>
+      <c r="O60">
+        <v>32567100</v>
+      </c>
+      <c r="P60">
+        <v>585926363000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673002920000</v>
+      </c>
+      <c r="B61">
+        <v>2000500</v>
+      </c>
+      <c r="C61">
+        <v>3878600</v>
+      </c>
+      <c r="D61">
+        <v>16800</v>
+      </c>
+      <c r="E61">
+        <v>29456302000</v>
+      </c>
+      <c r="F61">
+        <v>69378612000</v>
+      </c>
+      <c r="G61">
+        <v>527554000</v>
+      </c>
+      <c r="H61">
+        <v>5895900</v>
+      </c>
+      <c r="I61">
+        <v>99362468000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-06T11:02:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3883465720000</v>
+      </c>
+      <c r="L61">
+        <v>227364600</v>
+      </c>
+      <c r="M61">
+        <v>1878100</v>
+      </c>
+      <c r="N61">
+        <v>39922310000</v>
+      </c>
+      <c r="O61">
+        <v>34445200</v>
+      </c>
+      <c r="P61">
+        <v>625848673000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673003040000</v>
+      </c>
+      <c r="B62">
+        <v>1208300</v>
+      </c>
+      <c r="C62">
+        <v>2496400</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>22599106000</v>
+      </c>
+      <c r="F62">
+        <v>43171422000</v>
+      </c>
+      <c r="G62">
+        <v>3520000.0000000005</v>
+      </c>
+      <c r="H62">
+        <v>3704800</v>
+      </c>
+      <c r="I62">
+        <v>65774048000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-06T11:04:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3949239768000</v>
+      </c>
+      <c r="L62">
+        <v>231069400</v>
+      </c>
+      <c r="M62">
+        <v>1288100</v>
+      </c>
+      <c r="N62">
+        <v>20572316000</v>
+      </c>
+      <c r="O62">
+        <v>35733300</v>
+      </c>
+      <c r="P62">
+        <v>646420989000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673003160000</v>
+      </c>
+      <c r="B63">
+        <v>1488900</v>
+      </c>
+      <c r="C63">
+        <v>3289300</v>
+      </c>
+      <c r="D63">
+        <v>1700</v>
+      </c>
+      <c r="E63">
+        <v>25408600000</v>
+      </c>
+      <c r="F63">
+        <v>58550247000</v>
+      </c>
+      <c r="G63">
+        <v>27924000</v>
+      </c>
+      <c r="H63">
+        <v>4779900</v>
+      </c>
+      <c r="I63">
+        <v>83986771000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-06T11:06:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4033226539000</v>
+      </c>
+      <c r="L63">
+        <v>235849300</v>
+      </c>
+      <c r="M63">
+        <v>1800400</v>
+      </c>
+      <c r="N63">
+        <v>33141647000</v>
+      </c>
+      <c r="O63">
+        <v>37533700</v>
+      </c>
+      <c r="P63">
+        <v>679562636000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673003280000</v>
+      </c>
+      <c r="B64">
+        <v>1322700</v>
+      </c>
+      <c r="C64">
+        <v>2358900</v>
+      </c>
+      <c r="D64">
+        <v>2400</v>
+      </c>
+      <c r="E64">
+        <v>21479706000</v>
+      </c>
+      <c r="F64">
+        <v>41033832000</v>
+      </c>
+      <c r="G64">
+        <v>43634000</v>
+      </c>
+      <c r="H64">
+        <v>3684000</v>
+      </c>
+      <c r="I64">
+        <v>62557172000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-06T11:08:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4095783711000</v>
+      </c>
+      <c r="L64">
+        <v>239533300</v>
+      </c>
+      <c r="M64">
+        <v>1036200</v>
+      </c>
+      <c r="N64">
+        <v>19554126000</v>
+      </c>
+      <c r="O64">
+        <v>38569900</v>
+      </c>
+      <c r="P64">
+        <v>699116762000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673003400000</v>
+      </c>
+      <c r="B65">
+        <v>1359500</v>
+      </c>
+      <c r="C65">
+        <v>5016400</v>
+      </c>
+      <c r="D65">
+        <v>21200</v>
+      </c>
+      <c r="E65">
+        <v>24134506000</v>
+      </c>
+      <c r="F65">
+        <v>89490323000</v>
+      </c>
+      <c r="G65">
+        <v>399010000</v>
+      </c>
+      <c r="H65">
+        <v>6397100</v>
+      </c>
+      <c r="I65">
+        <v>114023839000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-06T11:10:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4209807550000</v>
+      </c>
+      <c r="L65">
+        <v>245930400</v>
+      </c>
+      <c r="M65">
+        <v>3656900</v>
+      </c>
+      <c r="N65">
+        <v>65355817000</v>
+      </c>
+      <c r="O65">
+        <v>42226800</v>
+      </c>
+      <c r="P65">
+        <v>764472579000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673003520000</v>
+      </c>
+      <c r="B66">
+        <v>1480700</v>
+      </c>
+      <c r="C66">
+        <v>3889200</v>
+      </c>
+      <c r="D66">
+        <v>9600</v>
+      </c>
+      <c r="E66">
+        <v>25209678000</v>
+      </c>
+      <c r="F66">
+        <v>68898125000</v>
+      </c>
+      <c r="G66">
+        <v>319910000</v>
+      </c>
+      <c r="H66">
+        <v>5379500</v>
+      </c>
+      <c r="I66">
+        <v>94427713000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-06T11:12:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4304235263000</v>
+      </c>
+      <c r="L66">
+        <v>251309900</v>
+      </c>
+      <c r="M66">
+        <v>2408500</v>
+      </c>
+      <c r="N66">
+        <v>43688447000</v>
+      </c>
+      <c r="O66">
+        <v>44635300</v>
+      </c>
+      <c r="P66">
+        <v>808161026000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673003640000</v>
+      </c>
+      <c r="B67">
+        <v>1489200</v>
+      </c>
+      <c r="C67">
+        <v>4243900</v>
+      </c>
+      <c r="D67">
+        <v>4500</v>
+      </c>
+      <c r="E67">
+        <v>25169879000</v>
+      </c>
+      <c r="F67">
+        <v>71712821000</v>
+      </c>
+      <c r="G67">
+        <v>39275000</v>
+      </c>
+      <c r="H67">
+        <v>5737600</v>
+      </c>
+      <c r="I67">
+        <v>96921975000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-06T11:14:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4401157238000</v>
+      </c>
+      <c r="L67">
+        <v>257047500</v>
+      </c>
+      <c r="M67">
+        <v>2754700</v>
+      </c>
+      <c r="N67">
+        <v>46542942000</v>
+      </c>
+      <c r="O67">
+        <v>47390000</v>
+      </c>
+      <c r="P67">
+        <v>854703968000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673003760000</v>
+      </c>
+      <c r="B68">
+        <v>1888600</v>
+      </c>
+      <c r="C68">
+        <v>2857200</v>
+      </c>
+      <c r="D68">
+        <v>8900</v>
+      </c>
+      <c r="E68">
+        <v>29686567000</v>
+      </c>
+      <c r="F68">
+        <v>52712839000</v>
+      </c>
+      <c r="G68">
+        <v>119505000</v>
+      </c>
+      <c r="H68">
+        <v>4754700</v>
+      </c>
+      <c r="I68">
+        <v>82518911000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-06T11:16:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4483676149000</v>
+      </c>
+      <c r="L68">
+        <v>261802200</v>
+      </c>
+      <c r="M68">
+        <v>968600</v>
+      </c>
+      <c r="N68">
+        <v>23026272000</v>
+      </c>
+      <c r="O68">
+        <v>48358600</v>
+      </c>
+      <c r="P68">
+        <v>877730240000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673003880000</v>
+      </c>
+      <c r="B69">
+        <v>1402100</v>
+      </c>
+      <c r="C69">
+        <v>2333000</v>
+      </c>
+      <c r="D69">
         <v>3000</v>
       </c>
-      <c r="E57">
-        <v>305300000</v>
-      </c>
-      <c r="F57">
-        <v>344250000</v>
-      </c>
-      <c r="G57">
+      <c r="E69">
+        <v>27308954000</v>
+      </c>
+      <c r="F69">
+        <v>42059494000</v>
+      </c>
+      <c r="G69">
+        <v>20357000</v>
+      </c>
+      <c r="H69">
+        <v>3738100</v>
+      </c>
+      <c r="I69">
+        <v>69388805000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-06T11:18:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4553064954000</v>
+      </c>
+      <c r="L69">
+        <v>265540300</v>
+      </c>
+      <c r="M69">
+        <v>930900</v>
+      </c>
+      <c r="N69">
+        <v>14750540000</v>
+      </c>
+      <c r="O69">
+        <v>49289500</v>
+      </c>
+      <c r="P69">
+        <v>892480780000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673004000000</v>
+      </c>
+      <c r="B70">
+        <v>2380700</v>
+      </c>
+      <c r="C70">
+        <v>1435000</v>
+      </c>
+      <c r="D70">
+        <v>16100</v>
+      </c>
+      <c r="E70">
+        <v>45594635000</v>
+      </c>
+      <c r="F70">
+        <v>22764988000</v>
+      </c>
+      <c r="G70">
+        <v>157388000</v>
+      </c>
+      <c r="H70">
+        <v>3831800</v>
+      </c>
+      <c r="I70">
+        <v>68517011000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-06T11:20:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4621581965000</v>
+      </c>
+      <c r="L70">
+        <v>269372100</v>
+      </c>
+      <c r="M70">
+        <v>-945700</v>
+      </c>
+      <c r="N70">
+        <v>-22829647000</v>
+      </c>
+      <c r="O70">
+        <v>48343800</v>
+      </c>
+      <c r="P70">
+        <v>869651133000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673004120000</v>
+      </c>
+      <c r="B71">
+        <v>2404500</v>
+      </c>
+      <c r="C71">
+        <v>1774000</v>
+      </c>
+      <c r="D71">
+        <v>23800</v>
+      </c>
+      <c r="E71">
+        <v>39492162000</v>
+      </c>
+      <c r="F71">
+        <v>36786024000</v>
+      </c>
+      <c r="G71">
+        <v>401573000</v>
+      </c>
+      <c r="H71">
+        <v>4202300</v>
+      </c>
+      <c r="I71">
+        <v>76679759000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-06T11:22:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>4698261724000</v>
+      </c>
+      <c r="L71">
+        <v>273574400</v>
+      </c>
+      <c r="M71">
+        <v>-630500</v>
+      </c>
+      <c r="N71">
+        <v>-2706138000</v>
+      </c>
+      <c r="O71">
+        <v>47713300</v>
+      </c>
+      <c r="P71">
+        <v>866944995000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673004240000</v>
+      </c>
+      <c r="B72">
+        <v>1487100</v>
+      </c>
+      <c r="C72">
+        <v>1123800</v>
+      </c>
+      <c r="D72">
+        <v>5100</v>
+      </c>
+      <c r="E72">
+        <v>24322129000</v>
+      </c>
+      <c r="F72">
+        <v>18285833000</v>
+      </c>
+      <c r="G72">
+        <v>46256000</v>
+      </c>
+      <c r="H72">
+        <v>2616000</v>
+      </c>
+      <c r="I72">
+        <v>42654218000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-06T11:24:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4740915942000</v>
+      </c>
+      <c r="L72">
+        <v>276190400</v>
+      </c>
+      <c r="M72">
+        <v>-363300</v>
+      </c>
+      <c r="N72">
+        <v>-6036296000</v>
+      </c>
+      <c r="O72">
+        <v>47350000</v>
+      </c>
+      <c r="P72">
+        <v>860908699000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673004360000</v>
+      </c>
+      <c r="B73">
+        <v>2313900</v>
+      </c>
+      <c r="C73">
+        <v>1046900</v>
+      </c>
+      <c r="D73">
+        <v>3300</v>
+      </c>
+      <c r="E73">
+        <v>40659995000</v>
+      </c>
+      <c r="F73">
+        <v>20613766000</v>
+      </c>
+      <c r="G73">
+        <v>145922000</v>
+      </c>
+      <c r="H73">
+        <v>3364100</v>
+      </c>
+      <c r="I73">
+        <v>61419683000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-06T11:26:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4802335625000</v>
+      </c>
+      <c r="L73">
+        <v>279554500</v>
+      </c>
+      <c r="M73">
+        <v>-1267000</v>
+      </c>
+      <c r="N73">
+        <v>-20046229000</v>
+      </c>
+      <c r="O73">
+        <v>46083000</v>
+      </c>
+      <c r="P73">
+        <v>840862470000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673004480000</v>
+      </c>
+      <c r="B74">
+        <v>2934400</v>
+      </c>
+      <c r="C74">
+        <v>1324600</v>
+      </c>
+      <c r="D74">
+        <v>3300</v>
+      </c>
+      <c r="E74">
+        <v>46927926000</v>
+      </c>
+      <c r="F74">
+        <v>22619891000</v>
+      </c>
+      <c r="G74">
+        <v>49587000</v>
+      </c>
+      <c r="H74">
+        <v>4262300</v>
+      </c>
+      <c r="I74">
+        <v>69597404000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-06T11:28:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>4871933029000</v>
+      </c>
+      <c r="L74">
+        <v>283816800</v>
+      </c>
+      <c r="M74">
+        <v>-1609800</v>
+      </c>
+      <c r="N74">
+        <v>-24308035000</v>
+      </c>
+      <c r="O74">
+        <v>44473200</v>
+      </c>
+      <c r="P74">
+        <v>816554435000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673004600000</v>
+      </c>
+      <c r="B75">
+        <v>6500</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>95760000</v>
+      </c>
+      <c r="F75">
+        <v>2495000</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>6600</v>
+      </c>
+      <c r="I75">
+        <v>98255000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-06T11:30:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>4872031284000</v>
+      </c>
+      <c r="L75">
+        <v>283823400</v>
+      </c>
+      <c r="M75">
+        <v>-6400</v>
+      </c>
+      <c r="N75">
+        <v>-93265000</v>
+      </c>
+      <c r="O75">
+        <v>44466800</v>
+      </c>
+      <c r="P75">
+        <v>816461170000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673010000000</v>
+      </c>
+      <c r="B76">
+        <v>5657800</v>
+      </c>
+      <c r="C76">
+        <v>3103100</v>
+      </c>
+      <c r="D76">
+        <v>173900</v>
+      </c>
+      <c r="E76">
+        <v>104563624000</v>
+      </c>
+      <c r="F76">
+        <v>50635890000</v>
+      </c>
+      <c r="G76">
+        <v>2952850000</v>
+      </c>
+      <c r="H76">
+        <v>8934800</v>
+      </c>
+      <c r="I76">
+        <v>158152364000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-06T13:00:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5030183648000</v>
+      </c>
+      <c r="L76">
+        <v>292758200</v>
+      </c>
+      <c r="M76">
+        <v>-2554700</v>
+      </c>
+      <c r="N76">
+        <v>-53927734000</v>
+      </c>
+      <c r="O76">
+        <v>41912100</v>
+      </c>
+      <c r="P76">
+        <v>762533436000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673010120000</v>
+      </c>
+      <c r="B77">
+        <v>3126700</v>
+      </c>
+      <c r="C77">
+        <v>1120700</v>
+      </c>
+      <c r="D77">
+        <v>12300</v>
+      </c>
+      <c r="E77">
+        <v>51255346000</v>
+      </c>
+      <c r="F77">
+        <v>18894088000</v>
+      </c>
+      <c r="G77">
+        <v>215128000</v>
+      </c>
+      <c r="H77">
+        <v>4259700</v>
+      </c>
+      <c r="I77">
+        <v>70364562000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-06T13:02:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5100548210000</v>
+      </c>
+      <c r="L77">
+        <v>297017900</v>
+      </c>
+      <c r="M77">
+        <v>-2006000</v>
+      </c>
+      <c r="N77">
+        <v>-32361258000</v>
+      </c>
+      <c r="O77">
+        <v>39906100</v>
+      </c>
+      <c r="P77">
+        <v>730172178000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673010240000</v>
+      </c>
+      <c r="B78">
+        <v>3304800</v>
+      </c>
+      <c r="C78">
+        <v>1424800</v>
+      </c>
+      <c r="D78">
+        <v>17700</v>
+      </c>
+      <c r="E78">
+        <v>47386205000</v>
+      </c>
+      <c r="F78">
+        <v>22961878000</v>
+      </c>
+      <c r="G78">
+        <v>293211000</v>
+      </c>
+      <c r="H78">
+        <v>4747300</v>
+      </c>
+      <c r="I78">
+        <v>70641294000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-06T13:04:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5171189504000</v>
+      </c>
+      <c r="L78">
+        <v>301765200</v>
+      </c>
+      <c r="M78">
+        <v>-1880000</v>
+      </c>
+      <c r="N78">
+        <v>-24424327000</v>
+      </c>
+      <c r="O78">
+        <v>38026100</v>
+      </c>
+      <c r="P78">
+        <v>705747851000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673010360000</v>
+      </c>
+      <c r="B79">
+        <v>3436500</v>
+      </c>
+      <c r="C79">
+        <v>1055000</v>
+      </c>
+      <c r="D79">
+        <v>14500</v>
+      </c>
+      <c r="E79">
+        <v>58623977000</v>
+      </c>
+      <c r="F79">
+        <v>15312842000</v>
+      </c>
+      <c r="G79">
+        <v>239099000</v>
+      </c>
+      <c r="H79">
+        <v>4506000</v>
+      </c>
+      <c r="I79">
+        <v>74175918000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-06T13:06:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5245365422000</v>
+      </c>
+      <c r="L79">
+        <v>306271200</v>
+      </c>
+      <c r="M79">
+        <v>-2381500</v>
+      </c>
+      <c r="N79">
+        <v>-43311135000</v>
+      </c>
+      <c r="O79">
+        <v>35644600</v>
+      </c>
+      <c r="P79">
+        <v>662436716000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673010480000</v>
+      </c>
+      <c r="B80">
+        <v>2604300</v>
+      </c>
+      <c r="C80">
+        <v>1164700</v>
+      </c>
+      <c r="D80">
+        <v>9700</v>
+      </c>
+      <c r="E80">
+        <v>40678497000</v>
+      </c>
+      <c r="F80">
+        <v>21156859000</v>
+      </c>
+      <c r="G80">
+        <v>194660000</v>
+      </c>
+      <c r="H80">
+        <v>3778700</v>
+      </c>
+      <c r="I80">
+        <v>62030016000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-06T13:08:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5307395438000</v>
+      </c>
+      <c r="L80">
+        <v>310049900</v>
+      </c>
+      <c r="M80">
+        <v>-1439600</v>
+      </c>
+      <c r="N80">
+        <v>-19521638000</v>
+      </c>
+      <c r="O80">
+        <v>34205000</v>
+      </c>
+      <c r="P80">
+        <v>642915078000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673010600000</v>
+      </c>
+      <c r="B81">
+        <v>2150500</v>
+      </c>
+      <c r="C81">
+        <v>1662200</v>
+      </c>
+      <c r="D81">
+        <v>500</v>
+      </c>
+      <c r="E81">
+        <v>39681774000</v>
+      </c>
+      <c r="F81">
+        <v>27630294000</v>
+      </c>
+      <c r="G81">
+        <v>14600000</v>
+      </c>
+      <c r="H81">
+        <v>3813200</v>
+      </c>
+      <c r="I81">
+        <v>67326668000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-06T13:10:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5374722106000</v>
+      </c>
+      <c r="L81">
+        <v>313863100</v>
+      </c>
+      <c r="M81">
+        <v>-488300</v>
+      </c>
+      <c r="N81">
+        <v>-12051480000</v>
+      </c>
+      <c r="O81">
+        <v>33716700</v>
+      </c>
+      <c r="P81">
+        <v>630863598000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673010720000</v>
+      </c>
+      <c r="B82">
+        <v>2054200</v>
+      </c>
+      <c r="C82">
+        <v>1752900</v>
+      </c>
+      <c r="D82">
+        <v>90400</v>
+      </c>
+      <c r="E82">
+        <v>41657446000</v>
+      </c>
+      <c r="F82">
+        <v>25877725000</v>
+      </c>
+      <c r="G82">
+        <v>1340908000</v>
+      </c>
+      <c r="H82">
+        <v>3897500</v>
+      </c>
+      <c r="I82">
+        <v>68876079000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-06T13:12:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5443598185000</v>
+      </c>
+      <c r="L82">
+        <v>317760600</v>
+      </c>
+      <c r="M82">
+        <v>-301300</v>
+      </c>
+      <c r="N82">
+        <v>-15779721000</v>
+      </c>
+      <c r="O82">
+        <v>33415400</v>
+      </c>
+      <c r="P82">
+        <v>615083877000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673010840000</v>
+      </c>
+      <c r="B83">
+        <v>3473400</v>
+      </c>
+      <c r="C83">
+        <v>4725800</v>
+      </c>
+      <c r="D83">
+        <v>5400</v>
+      </c>
+      <c r="E83">
+        <v>63065484000</v>
+      </c>
+      <c r="F83">
+        <v>72137294000</v>
+      </c>
+      <c r="G83">
+        <v>159050000</v>
+      </c>
+      <c r="H83">
+        <v>8204600</v>
+      </c>
+      <c r="I83">
+        <v>135361828000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-06T13:14:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5578960013000</v>
+      </c>
+      <c r="L83">
+        <v>325965200</v>
+      </c>
+      <c r="M83">
+        <v>1252400</v>
+      </c>
+      <c r="N83">
+        <v>9071810000</v>
+      </c>
+      <c r="O83">
+        <v>34667800</v>
+      </c>
+      <c r="P83">
+        <v>624155687000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673010960000</v>
+      </c>
+      <c r="B84">
+        <v>3145700</v>
+      </c>
+      <c r="C84">
+        <v>1074300</v>
+      </c>
+      <c r="D84">
+        <v>9800</v>
+      </c>
+      <c r="E84">
+        <v>60904576000</v>
+      </c>
+      <c r="F84">
+        <v>18092743000</v>
+      </c>
+      <c r="G84">
+        <v>149459000</v>
+      </c>
+      <c r="H84">
+        <v>4229800</v>
+      </c>
+      <c r="I84">
+        <v>79146778000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-06T13:16:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5658106791000</v>
+      </c>
+      <c r="L84">
+        <v>330195000</v>
+      </c>
+      <c r="M84">
+        <v>-2071400</v>
+      </c>
+      <c r="N84">
+        <v>-42811833000</v>
+      </c>
+      <c r="O84">
+        <v>32596400</v>
+      </c>
+      <c r="P84">
+        <v>581343854000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673011080000</v>
+      </c>
+      <c r="B85">
+        <v>2747000</v>
+      </c>
+      <c r="C85">
+        <v>1439300</v>
+      </c>
+      <c r="D85">
+        <v>14800</v>
+      </c>
+      <c r="E85">
+        <v>46856758000</v>
+      </c>
+      <c r="F85">
+        <v>22853240000</v>
+      </c>
+      <c r="G85">
+        <v>438249000</v>
+      </c>
+      <c r="H85">
+        <v>4201100</v>
+      </c>
+      <c r="I85">
+        <v>70148247000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-06T13:18:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>5728255038000</v>
+      </c>
+      <c r="L85">
+        <v>334396100</v>
+      </c>
+      <c r="M85">
+        <v>-1307700</v>
+      </c>
+      <c r="N85">
+        <v>-24003518000</v>
+      </c>
+      <c r="O85">
+        <v>31288700</v>
+      </c>
+      <c r="P85">
+        <v>557340336000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673011200000</v>
+      </c>
+      <c r="B86">
+        <v>3182200</v>
+      </c>
+      <c r="C86">
+        <v>1280200</v>
+      </c>
+      <c r="D86">
+        <v>67200</v>
+      </c>
+      <c r="E86">
+        <v>50255935000</v>
+      </c>
+      <c r="F86">
+        <v>23529571000</v>
+      </c>
+      <c r="G86">
+        <v>491560000</v>
+      </c>
+      <c r="H86">
+        <v>4529600</v>
+      </c>
+      <c r="I86">
+        <v>74277066000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-06T13:20:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>5802532104000</v>
+      </c>
+      <c r="L86">
+        <v>338925700</v>
+      </c>
+      <c r="M86">
+        <v>-1902000</v>
+      </c>
+      <c r="N86">
+        <v>-26726364000</v>
+      </c>
+      <c r="O86">
+        <v>29386700</v>
+      </c>
+      <c r="P86">
+        <v>530613972000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673011320000</v>
+      </c>
+      <c r="B87">
+        <v>4605300</v>
+      </c>
+      <c r="C87">
+        <v>1213000</v>
+      </c>
+      <c r="D87">
+        <v>47500</v>
+      </c>
+      <c r="E87">
+        <v>85826434000</v>
+      </c>
+      <c r="F87">
+        <v>21511375000</v>
+      </c>
+      <c r="G87">
+        <v>741104000</v>
+      </c>
+      <c r="H87">
+        <v>5865800</v>
+      </c>
+      <c r="I87">
+        <v>108078913000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-06T13:22:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5910611017000</v>
+      </c>
+      <c r="L87">
+        <v>344791500</v>
+      </c>
+      <c r="M87">
+        <v>-3392300</v>
+      </c>
+      <c r="N87">
+        <v>-64315059000</v>
+      </c>
+      <c r="O87">
+        <v>25994400</v>
+      </c>
+      <c r="P87">
+        <v>466298913000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673011440000</v>
+      </c>
+      <c r="B88">
+        <v>4928600</v>
+      </c>
+      <c r="C88">
+        <v>1110000</v>
+      </c>
+      <c r="D88">
+        <v>10700</v>
+      </c>
+      <c r="E88">
+        <v>87505228000</v>
+      </c>
+      <c r="F88">
+        <v>18154238000</v>
+      </c>
+      <c r="G88">
+        <v>308917000</v>
+      </c>
+      <c r="H88">
+        <v>6049300</v>
+      </c>
+      <c r="I88">
+        <v>105968383000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-06T13:24:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>6016579400000</v>
+      </c>
+      <c r="L88">
+        <v>350840800</v>
+      </c>
+      <c r="M88">
+        <v>-3818600</v>
+      </c>
+      <c r="N88">
+        <v>-69350990000</v>
+      </c>
+      <c r="O88">
+        <v>22175800</v>
+      </c>
+      <c r="P88">
+        <v>396947923000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673011560000</v>
+      </c>
+      <c r="B89">
+        <v>4559800</v>
+      </c>
+      <c r="C89">
+        <v>1131900</v>
+      </c>
+      <c r="D89">
+        <v>21400</v>
+      </c>
+      <c r="E89">
+        <v>75916698000</v>
+      </c>
+      <c r="F89">
+        <v>19864869000</v>
+      </c>
+      <c r="G89">
+        <v>276664000</v>
+      </c>
+      <c r="H89">
+        <v>5713100</v>
+      </c>
+      <c r="I89">
+        <v>96058231000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-06T13:26:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6112637631000</v>
+      </c>
+      <c r="L89">
+        <v>356553900</v>
+      </c>
+      <c r="M89">
+        <v>-3427900</v>
+      </c>
+      <c r="N89">
+        <v>-56051829000</v>
+      </c>
+      <c r="O89">
+        <v>18747900</v>
+      </c>
+      <c r="P89">
+        <v>340896094000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673011680000</v>
+      </c>
+      <c r="B90">
+        <v>2549900</v>
+      </c>
+      <c r="C90">
+        <v>2423400</v>
+      </c>
+      <c r="D90">
+        <v>20600</v>
+      </c>
+      <c r="E90">
+        <v>41488919000</v>
+      </c>
+      <c r="F90">
+        <v>42015161000</v>
+      </c>
+      <c r="G90">
+        <v>423861000</v>
+      </c>
+      <c r="H90">
+        <v>4993900</v>
+      </c>
+      <c r="I90">
+        <v>83927941000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-06T13:28:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>6196565572000</v>
+      </c>
+      <c r="L90">
+        <v>361547800</v>
+      </c>
+      <c r="M90">
+        <v>-126500</v>
+      </c>
+      <c r="N90">
+        <v>526242000</v>
+      </c>
+      <c r="O90">
+        <v>18621400</v>
+      </c>
+      <c r="P90">
+        <v>341422336000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673011800000</v>
+      </c>
+      <c r="B91">
+        <v>1958600</v>
+      </c>
+      <c r="C91">
+        <v>1157300</v>
+      </c>
+      <c r="D91">
+        <v>28400</v>
+      </c>
+      <c r="E91">
+        <v>38379636000</v>
+      </c>
+      <c r="F91">
+        <v>20080578000</v>
+      </c>
+      <c r="G91">
+        <v>865290000</v>
+      </c>
+      <c r="H91">
+        <v>3144300</v>
+      </c>
+      <c r="I91">
+        <v>59325504000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-06T13:30:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6255891076000</v>
+      </c>
+      <c r="L91">
+        <v>364692100</v>
+      </c>
+      <c r="M91">
+        <v>-801300</v>
+      </c>
+      <c r="N91">
+        <v>-18299058000</v>
+      </c>
+      <c r="O91">
+        <v>17820100</v>
+      </c>
+      <c r="P91">
+        <v>323123278000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673011920000</v>
+      </c>
+      <c r="B92">
+        <v>2703800</v>
+      </c>
+      <c r="C92">
+        <v>988900</v>
+      </c>
+      <c r="D92">
+        <v>4500</v>
+      </c>
+      <c r="E92">
+        <v>52806430000</v>
+      </c>
+      <c r="F92">
+        <v>17888927000</v>
+      </c>
+      <c r="G92">
+        <v>40122000</v>
+      </c>
+      <c r="H92">
+        <v>3697200</v>
+      </c>
+      <c r="I92">
+        <v>70735479000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-06T13:32:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6326626555000</v>
+      </c>
+      <c r="L92">
+        <v>368389300</v>
+      </c>
+      <c r="M92">
+        <v>-1714900</v>
+      </c>
+      <c r="N92">
+        <v>-34917503000</v>
+      </c>
+      <c r="O92">
+        <v>16105200</v>
+      </c>
+      <c r="P92">
+        <v>288205775000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673012040000</v>
+      </c>
+      <c r="B93">
+        <v>2471600</v>
+      </c>
+      <c r="C93">
+        <v>700000</v>
+      </c>
+      <c r="D93">
+        <v>10900</v>
+      </c>
+      <c r="E93">
+        <v>48127151000</v>
+      </c>
+      <c r="F93">
+        <v>14037510000</v>
+      </c>
+      <c r="G93">
+        <v>304545000</v>
+      </c>
+      <c r="H93">
+        <v>3182500</v>
+      </c>
+      <c r="I93">
+        <v>62469206000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-06T13:34:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6389095761000</v>
+      </c>
+      <c r="L93">
+        <v>371571800</v>
+      </c>
+      <c r="M93">
+        <v>-1771600</v>
+      </c>
+      <c r="N93">
+        <v>-34089641000</v>
+      </c>
+      <c r="O93">
+        <v>14333600</v>
+      </c>
+      <c r="P93">
+        <v>254116134000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673012160000</v>
+      </c>
+      <c r="B94">
+        <v>4453200</v>
+      </c>
+      <c r="C94">
+        <v>1015200</v>
+      </c>
+      <c r="D94">
+        <v>10400</v>
+      </c>
+      <c r="E94">
+        <v>79549297000</v>
+      </c>
+      <c r="F94">
+        <v>19675896000</v>
+      </c>
+      <c r="G94">
+        <v>256635000</v>
+      </c>
+      <c r="H94">
+        <v>5478800</v>
+      </c>
+      <c r="I94">
+        <v>99481828000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-06T13:36:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6488577589000</v>
+      </c>
+      <c r="L94">
+        <v>377050600</v>
+      </c>
+      <c r="M94">
+        <v>-3438000</v>
+      </c>
+      <c r="N94">
+        <v>-59873401000</v>
+      </c>
+      <c r="O94">
+        <v>10895600</v>
+      </c>
+      <c r="P94">
+        <v>194242733000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673012280000</v>
+      </c>
+      <c r="B95">
+        <v>4211800</v>
+      </c>
+      <c r="C95">
+        <v>1115100</v>
+      </c>
+      <c r="D95">
+        <v>10400</v>
+      </c>
+      <c r="E95">
+        <v>77365785000</v>
+      </c>
+      <c r="F95">
+        <v>19833187000</v>
+      </c>
+      <c r="G95">
+        <v>177697000</v>
+      </c>
+      <c r="H95">
+        <v>5337300</v>
+      </c>
+      <c r="I95">
+        <v>97376669000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-06T13:38:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6585954258000</v>
+      </c>
+      <c r="L95">
+        <v>382387900</v>
+      </c>
+      <c r="M95">
+        <v>-3096700</v>
+      </c>
+      <c r="N95">
+        <v>-57532598000</v>
+      </c>
+      <c r="O95">
+        <v>7798900</v>
+      </c>
+      <c r="P95">
+        <v>136710135000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673012400000</v>
+      </c>
+      <c r="B96">
+        <v>3481700</v>
+      </c>
+      <c r="C96">
+        <v>2163400</v>
+      </c>
+      <c r="D96">
+        <v>19200</v>
+      </c>
+      <c r="E96">
+        <v>57960477000</v>
+      </c>
+      <c r="F96">
+        <v>36179816000</v>
+      </c>
+      <c r="G96">
+        <v>425187000</v>
+      </c>
+      <c r="H96">
+        <v>5664300</v>
+      </c>
+      <c r="I96">
+        <v>94565480000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-06T13:40:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6680519738000</v>
+      </c>
+      <c r="L96">
+        <v>388052200</v>
+      </c>
+      <c r="M96">
+        <v>-1318300</v>
+      </c>
+      <c r="N96">
+        <v>-21780661000</v>
+      </c>
+      <c r="O96">
+        <v>6480600</v>
+      </c>
+      <c r="P96">
+        <v>114929474000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673012520000</v>
+      </c>
+      <c r="B97">
+        <v>1927500</v>
+      </c>
+      <c r="C97">
+        <v>3174200</v>
+      </c>
+      <c r="D97">
+        <v>36500</v>
+      </c>
+      <c r="E97">
+        <v>31040481000</v>
+      </c>
+      <c r="F97">
+        <v>55632465000</v>
+      </c>
+      <c r="G97">
+        <v>610595000</v>
+      </c>
+      <c r="H97">
+        <v>5138200</v>
+      </c>
+      <c r="I97">
+        <v>87283541000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-06T13:42:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6767803279000</v>
+      </c>
+      <c r="L97">
+        <v>393190400</v>
+      </c>
+      <c r="M97">
+        <v>1246700</v>
+      </c>
+      <c r="N97">
+        <v>24591984000</v>
+      </c>
+      <c r="O97">
+        <v>7727300</v>
+      </c>
+      <c r="P97">
+        <v>139521458000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673012640000</v>
+      </c>
+      <c r="B98">
+        <v>1527700</v>
+      </c>
+      <c r="C98">
+        <v>2653000</v>
+      </c>
+      <c r="D98">
+        <v>21100</v>
+      </c>
+      <c r="E98">
+        <v>28442365000</v>
+      </c>
+      <c r="F98">
+        <v>47586466000</v>
+      </c>
+      <c r="G98">
+        <v>721935000</v>
+      </c>
+      <c r="H98">
+        <v>4201800</v>
+      </c>
+      <c r="I98">
+        <v>76750766000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-06T13:44:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6844554045000</v>
+      </c>
+      <c r="L98">
+        <v>397392200</v>
+      </c>
+      <c r="M98">
+        <v>1125300</v>
+      </c>
+      <c r="N98">
+        <v>19144101000</v>
+      </c>
+      <c r="O98">
+        <v>8852600</v>
+      </c>
+      <c r="P98">
+        <v>158665559000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673012760000</v>
+      </c>
+      <c r="B99">
+        <v>1383000</v>
+      </c>
+      <c r="C99">
+        <v>1580700</v>
+      </c>
+      <c r="D99">
+        <v>11500</v>
+      </c>
+      <c r="E99">
+        <v>24997860000</v>
+      </c>
+      <c r="F99">
+        <v>29181287000</v>
+      </c>
+      <c r="G99">
+        <v>195555000</v>
+      </c>
+      <c r="H99">
+        <v>2975200</v>
+      </c>
+      <c r="I99">
+        <v>54374702000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-06T13:46:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6898928747000</v>
+      </c>
+      <c r="L99">
+        <v>400367400</v>
+      </c>
+      <c r="M99">
+        <v>197700</v>
+      </c>
+      <c r="N99">
+        <v>4183427000</v>
+      </c>
+      <c r="O99">
+        <v>9050300</v>
+      </c>
+      <c r="P99">
+        <v>162848986000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673012880000</v>
+      </c>
+      <c r="B100">
+        <v>2402000</v>
+      </c>
+      <c r="C100">
+        <v>1358800</v>
+      </c>
+      <c r="D100">
+        <v>220500</v>
+      </c>
+      <c r="E100">
+        <v>45623142000</v>
+      </c>
+      <c r="F100">
+        <v>22293163000</v>
+      </c>
+      <c r="G100">
+        <v>1181980000</v>
+      </c>
+      <c r="H100">
+        <v>3981300</v>
+      </c>
+      <c r="I100">
+        <v>69098285000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-06T13:48:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6968027032000</v>
+      </c>
+      <c r="L100">
+        <v>404348700</v>
+      </c>
+      <c r="M100">
+        <v>-1043200</v>
+      </c>
+      <c r="N100">
+        <v>-23329979000</v>
+      </c>
+      <c r="O100">
+        <v>8007100</v>
+      </c>
+      <c r="P100">
+        <v>139519007000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673013000000</v>
+      </c>
+      <c r="B101">
+        <v>1196600</v>
+      </c>
+      <c r="C101">
+        <v>1256900</v>
+      </c>
+      <c r="D101">
+        <v>2600</v>
+      </c>
+      <c r="E101">
+        <v>19127308000</v>
+      </c>
+      <c r="F101">
+        <v>19763496000</v>
+      </c>
+      <c r="G101">
+        <v>47836000</v>
+      </c>
+      <c r="H101">
+        <v>2456100</v>
+      </c>
+      <c r="I101">
+        <v>38938640000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-06T13:50:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>7006965672000</v>
+      </c>
+      <c r="L101">
+        <v>406804800</v>
+      </c>
+      <c r="M101">
+        <v>60300</v>
+      </c>
+      <c r="N101">
+        <v>636188000</v>
+      </c>
+      <c r="O101">
+        <v>8067400</v>
+      </c>
+      <c r="P101">
+        <v>140155195000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673013120000</v>
+      </c>
+      <c r="B102">
+        <v>1690100</v>
+      </c>
+      <c r="C102">
+        <v>1418200</v>
+      </c>
+      <c r="D102">
+        <v>9600</v>
+      </c>
+      <c r="E102">
+        <v>23540969000</v>
+      </c>
+      <c r="F102">
+        <v>24618130000</v>
+      </c>
+      <c r="G102">
+        <v>53346000</v>
+      </c>
+      <c r="H102">
+        <v>3117900</v>
+      </c>
+      <c r="I102">
+        <v>48212445000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-06T13:52:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>7055178117000</v>
+      </c>
+      <c r="L102">
+        <v>409922700</v>
+      </c>
+      <c r="M102">
+        <v>-271900</v>
+      </c>
+      <c r="N102">
+        <v>1077161000</v>
+      </c>
+      <c r="O102">
+        <v>7795500</v>
+      </c>
+      <c r="P102">
+        <v>141232356000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673013240000</v>
+      </c>
+      <c r="B103">
+        <v>1301500</v>
+      </c>
+      <c r="C103">
+        <v>1781100</v>
+      </c>
+      <c r="D103">
+        <v>75000</v>
+      </c>
+      <c r="E103">
+        <v>22397303000</v>
+      </c>
+      <c r="F103">
+        <v>34197250000</v>
+      </c>
+      <c r="G103">
+        <v>838556000</v>
+      </c>
+      <c r="H103">
+        <v>3157600</v>
+      </c>
+      <c r="I103">
+        <v>57433109000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-06T13:54:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>7112611226000</v>
+      </c>
+      <c r="L103">
+        <v>413080300</v>
+      </c>
+      <c r="M103">
+        <v>479600</v>
+      </c>
+      <c r="N103">
+        <v>11799947000</v>
+      </c>
+      <c r="O103">
+        <v>8275100</v>
+      </c>
+      <c r="P103">
+        <v>153032303000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673013360000</v>
+      </c>
+      <c r="B104">
+        <v>2297000</v>
+      </c>
+      <c r="C104">
+        <v>2270200</v>
+      </c>
+      <c r="D104">
+        <v>15100</v>
+      </c>
+      <c r="E104">
+        <v>38200754000</v>
+      </c>
+      <c r="F104">
+        <v>38593638000</v>
+      </c>
+      <c r="G104">
+        <v>395455000</v>
+      </c>
+      <c r="H104">
+        <v>4582300</v>
+      </c>
+      <c r="I104">
+        <v>77189847000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-06T13:56:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>7189801073000</v>
+      </c>
+      <c r="L104">
+        <v>417662600</v>
+      </c>
+      <c r="M104">
+        <v>-26800</v>
+      </c>
+      <c r="N104">
+        <v>392884000</v>
+      </c>
+      <c r="O104">
+        <v>8248300</v>
+      </c>
+      <c r="P104">
+        <v>153425187000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673013480000</v>
+      </c>
+      <c r="B105">
+        <v>1361200</v>
+      </c>
+      <c r="C105">
+        <v>1435500</v>
+      </c>
+      <c r="D105">
+        <v>3300</v>
+      </c>
+      <c r="E105">
+        <v>23754723000</v>
+      </c>
+      <c r="F105">
+        <v>21958355000</v>
+      </c>
+      <c r="G105">
+        <v>119270000</v>
+      </c>
+      <c r="H105">
+        <v>2800000</v>
+      </c>
+      <c r="I105">
+        <v>45832348000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-06T13:58:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7235633421000</v>
+      </c>
+      <c r="L105">
+        <v>420462600</v>
+      </c>
+      <c r="M105">
+        <v>74300</v>
+      </c>
+      <c r="N105">
+        <v>-1796368000</v>
+      </c>
+      <c r="O105">
+        <v>8322600</v>
+      </c>
+      <c r="P105">
+        <v>151628819000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673013600000</v>
+      </c>
+      <c r="B106">
+        <v>3964600</v>
+      </c>
+      <c r="C106">
+        <v>1325700</v>
+      </c>
+      <c r="D106">
+        <v>9700</v>
+      </c>
+      <c r="E106">
+        <v>72687782000</v>
+      </c>
+      <c r="F106">
+        <v>22750767000</v>
+      </c>
+      <c r="G106">
+        <v>182490000</v>
+      </c>
+      <c r="H106">
+        <v>5300000</v>
+      </c>
+      <c r="I106">
+        <v>95621039000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-06T14:00:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7331254460000</v>
+      </c>
+      <c r="L106">
+        <v>425762600</v>
+      </c>
+      <c r="M106">
+        <v>-2638900</v>
+      </c>
+      <c r="N106">
+        <v>-49937015000</v>
+      </c>
+      <c r="O106">
+        <v>5683700</v>
+      </c>
+      <c r="P106">
+        <v>101691804000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673013720000</v>
+      </c>
+      <c r="B107">
+        <v>5872100</v>
+      </c>
+      <c r="C107">
+        <v>988900</v>
+      </c>
+      <c r="D107">
+        <v>12300</v>
+      </c>
+      <c r="E107">
+        <v>102512074000</v>
+      </c>
+      <c r="F107">
+        <v>18247073000</v>
+      </c>
+      <c r="G107">
+        <v>205197000</v>
+      </c>
+      <c r="H107">
+        <v>6873300</v>
+      </c>
+      <c r="I107">
+        <v>120964344000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-06T14:02:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7452218804000</v>
+      </c>
+      <c r="L107">
+        <v>432635900</v>
+      </c>
+      <c r="M107">
+        <v>-4883200</v>
+      </c>
+      <c r="N107">
+        <v>-84265001000</v>
+      </c>
+      <c r="O107">
+        <v>800500</v>
+      </c>
+      <c r="P107">
+        <v>17426803000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673013840000</v>
+      </c>
+      <c r="B108">
+        <v>10208100</v>
+      </c>
+      <c r="C108">
+        <v>1439000</v>
+      </c>
+      <c r="D108">
+        <v>51200</v>
+      </c>
+      <c r="E108">
+        <v>188509847000</v>
+      </c>
+      <c r="F108">
+        <v>24157352000</v>
+      </c>
+      <c r="G108">
+        <v>779149000</v>
+      </c>
+      <c r="H108">
+        <v>11698300</v>
+      </c>
+      <c r="I108">
+        <v>213446348000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-06T14:04:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7665665152000</v>
+      </c>
+      <c r="L108">
+        <v>444334200</v>
+      </c>
+      <c r="M108">
+        <v>-8769100</v>
+      </c>
+      <c r="N108">
+        <v>-164352495000</v>
+      </c>
+      <c r="O108">
+        <v>-7968600</v>
+      </c>
+      <c r="P108">
+        <v>-146925692000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673013960000</v>
+      </c>
+      <c r="B109">
+        <v>6366900</v>
+      </c>
+      <c r="C109">
+        <v>1953700</v>
+      </c>
+      <c r="D109">
+        <v>13800</v>
+      </c>
+      <c r="E109">
+        <v>111184749000</v>
+      </c>
+      <c r="F109">
+        <v>35121990000</v>
+      </c>
+      <c r="G109">
+        <v>198881000</v>
+      </c>
+      <c r="H109">
+        <v>8334400</v>
+      </c>
+      <c r="I109">
+        <v>146505620000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-06T14:06:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>7812170772000</v>
+      </c>
+      <c r="L109">
+        <v>452668600</v>
+      </c>
+      <c r="M109">
+        <v>-4413200</v>
+      </c>
+      <c r="N109">
+        <v>-76062759000</v>
+      </c>
+      <c r="O109">
+        <v>-12381800</v>
+      </c>
+      <c r="P109">
+        <v>-222988451000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673014080000</v>
+      </c>
+      <c r="B110">
+        <v>3281800</v>
+      </c>
+      <c r="C110">
+        <v>2805800</v>
+      </c>
+      <c r="D110">
+        <v>29500</v>
+      </c>
+      <c r="E110">
+        <v>55850582000</v>
+      </c>
+      <c r="F110">
+        <v>46475251000</v>
+      </c>
+      <c r="G110">
+        <v>518384000</v>
+      </c>
+      <c r="H110">
+        <v>6117100</v>
+      </c>
+      <c r="I110">
+        <v>102844217000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-06T14:08:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>7915014989000</v>
+      </c>
+      <c r="L110">
+        <v>458785700</v>
+      </c>
+      <c r="M110">
+        <v>-476000</v>
+      </c>
+      <c r="N110">
+        <v>-9375331000</v>
+      </c>
+      <c r="O110">
+        <v>-12857800</v>
+      </c>
+      <c r="P110">
+        <v>-232363782000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673014200000</v>
+      </c>
+      <c r="B111">
+        <v>1998400</v>
+      </c>
+      <c r="C111">
+        <v>2446700</v>
+      </c>
+      <c r="D111">
+        <v>3800</v>
+      </c>
+      <c r="E111">
+        <v>31707553000</v>
+      </c>
+      <c r="F111">
+        <v>40455537000</v>
+      </c>
+      <c r="G111">
+        <v>77731000</v>
+      </c>
+      <c r="H111">
+        <v>4448900</v>
+      </c>
+      <c r="I111">
+        <v>72240821000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-06T14:10:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>7987255810000</v>
+      </c>
+      <c r="L111">
+        <v>463234600</v>
+      </c>
+      <c r="M111">
+        <v>448300</v>
+      </c>
+      <c r="N111">
+        <v>8747984000</v>
+      </c>
+      <c r="O111">
+        <v>-12409500</v>
+      </c>
+      <c r="P111">
+        <v>-223615798000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673014320000</v>
+      </c>
+      <c r="B112">
+        <v>1455000</v>
+      </c>
+      <c r="C112">
+        <v>1887300</v>
+      </c>
+      <c r="D112">
+        <v>6400</v>
+      </c>
+      <c r="E112">
+        <v>26728322000</v>
+      </c>
+      <c r="F112">
+        <v>35933009000</v>
+      </c>
+      <c r="G112">
+        <v>250498000</v>
+      </c>
+      <c r="H112">
+        <v>3348700</v>
+      </c>
+      <c r="I112">
+        <v>62911829000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-06T14:12:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>8050167639000</v>
+      </c>
+      <c r="L112">
+        <v>466583300</v>
+      </c>
+      <c r="M112">
+        <v>432300</v>
+      </c>
+      <c r="N112">
+        <v>9204687000</v>
+      </c>
+      <c r="O112">
+        <v>-11977200</v>
+      </c>
+      <c r="P112">
+        <v>-214411111000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673014440000</v>
+      </c>
+      <c r="B113">
+        <v>1966200</v>
+      </c>
+      <c r="C113">
+        <v>1850400</v>
+      </c>
+      <c r="D113">
+        <v>10200</v>
+      </c>
+      <c r="E113">
+        <v>33362685000</v>
+      </c>
+      <c r="F113">
+        <v>33243508000</v>
+      </c>
+      <c r="G113">
+        <v>146242000</v>
+      </c>
+      <c r="H113">
+        <v>3826800</v>
+      </c>
+      <c r="I113">
+        <v>66752435000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-06T14:14:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>8116920074000</v>
+      </c>
+      <c r="L113">
+        <v>470410100</v>
+      </c>
+      <c r="M113">
+        <v>-115800</v>
+      </c>
+      <c r="N113">
+        <v>-119177000</v>
+      </c>
+      <c r="O113">
+        <v>-12093000</v>
+      </c>
+      <c r="P113">
+        <v>-214530288000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673014560000</v>
+      </c>
+      <c r="B114">
+        <v>2602300</v>
+      </c>
+      <c r="C114">
+        <v>1673100</v>
+      </c>
+      <c r="D114">
+        <v>19100</v>
+      </c>
+      <c r="E114">
+        <v>51051166000</v>
+      </c>
+      <c r="F114">
+        <v>27990198000</v>
+      </c>
+      <c r="G114">
+        <v>335440000</v>
+      </c>
+      <c r="H114">
+        <v>4294500</v>
+      </c>
+      <c r="I114">
+        <v>79376804000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-06T14:16:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>8196296878000</v>
+      </c>
+      <c r="L114">
+        <v>474704600</v>
+      </c>
+      <c r="M114">
+        <v>-929200</v>
+      </c>
+      <c r="N114">
+        <v>-23060968000</v>
+      </c>
+      <c r="O114">
+        <v>-13022200</v>
+      </c>
+      <c r="P114">
+        <v>-237591256000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673014680000</v>
+      </c>
+      <c r="B115">
+        <v>12594200</v>
+      </c>
+      <c r="C115">
+        <v>1105500</v>
+      </c>
+      <c r="D115">
+        <v>85700</v>
+      </c>
+      <c r="E115">
+        <v>220731418000</v>
+      </c>
+      <c r="F115">
+        <v>18233217000</v>
+      </c>
+      <c r="G115">
+        <v>949251000</v>
+      </c>
+      <c r="H115">
+        <v>13785400</v>
+      </c>
+      <c r="I115">
+        <v>239913886000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-06T14:18:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>8436210764000</v>
+      </c>
+      <c r="L115">
+        <v>488490000</v>
+      </c>
+      <c r="M115">
+        <v>-11488700</v>
+      </c>
+      <c r="N115">
+        <v>-202498201000</v>
+      </c>
+      <c r="O115">
+        <v>-24510900</v>
+      </c>
+      <c r="P115">
+        <v>-440089457000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673014800000</v>
+      </c>
+      <c r="B116">
+        <v>16520600</v>
+      </c>
+      <c r="C116">
+        <v>2298400</v>
+      </c>
+      <c r="D116">
+        <v>117400</v>
+      </c>
+      <c r="E116">
+        <v>274654494000</v>
+      </c>
+      <c r="F116">
+        <v>40588915000</v>
+      </c>
+      <c r="G116">
+        <v>1954461000</v>
+      </c>
+      <c r="H116">
+        <v>18936400</v>
+      </c>
+      <c r="I116">
+        <v>317197870000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-06T14:20:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>8753408634000</v>
+      </c>
+      <c r="L116">
+        <v>507426400</v>
+      </c>
+      <c r="M116">
+        <v>-14222200</v>
+      </c>
+      <c r="N116">
+        <v>-234065579000</v>
+      </c>
+      <c r="O116">
+        <v>-38733100</v>
+      </c>
+      <c r="P116">
+        <v>-674155036000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673014920000</v>
+      </c>
+      <c r="B117">
+        <v>9887000</v>
+      </c>
+      <c r="C117">
+        <v>3985300</v>
+      </c>
+      <c r="D117">
+        <v>88400</v>
+      </c>
+      <c r="E117">
+        <v>165427122000</v>
+      </c>
+      <c r="F117">
+        <v>65872326000</v>
+      </c>
+      <c r="G117">
+        <v>1462564000</v>
+      </c>
+      <c r="H117">
+        <v>13960700</v>
+      </c>
+      <c r="I117">
+        <v>232762012000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2023-01-06T14:22:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>8986170646000</v>
+      </c>
+      <c r="L117">
+        <v>521387100</v>
+      </c>
+      <c r="M117">
+        <v>-5901700</v>
+      </c>
+      <c r="N117">
+        <v>-99554796000</v>
+      </c>
+      <c r="O117">
+        <v>-44634800</v>
+      </c>
+      <c r="P117">
+        <v>-773709832000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1673015040000</v>
+      </c>
+      <c r="B118">
+        <v>3433300</v>
+      </c>
+      <c r="C118">
+        <v>7034200</v>
+      </c>
+      <c r="D118">
+        <v>52600</v>
+      </c>
+      <c r="E118">
+        <v>56594203000</v>
+      </c>
+      <c r="F118">
+        <v>115234147000</v>
+      </c>
+      <c r="G118">
+        <v>823211000</v>
+      </c>
+      <c r="H118">
+        <v>10520100</v>
+      </c>
+      <c r="I118">
+        <v>172651561000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2023-01-06T14:24:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>9158822207000</v>
+      </c>
+      <c r="L118">
+        <v>531907200</v>
+      </c>
+      <c r="M118">
+        <v>3600900</v>
+      </c>
+      <c r="N118">
+        <v>58639944000</v>
+      </c>
+      <c r="O118">
+        <v>-41033900</v>
+      </c>
+      <c r="P118">
+        <v>-715069888000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1673015160000</v>
+      </c>
+      <c r="B119">
+        <v>3074800</v>
+      </c>
+      <c r="C119">
+        <v>4839700</v>
+      </c>
+      <c r="D119">
+        <v>31000</v>
+      </c>
+      <c r="E119">
+        <v>54943654000</v>
+      </c>
+      <c r="F119">
+        <v>84340567000</v>
+      </c>
+      <c r="G119">
+        <v>591131000</v>
+      </c>
+      <c r="H119">
+        <v>7945500</v>
+      </c>
+      <c r="I119">
+        <v>139875352000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2023-01-06T14:26:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>9298697559000</v>
+      </c>
+      <c r="L119">
+        <v>539852700</v>
+      </c>
+      <c r="M119">
+        <v>1764900</v>
+      </c>
+      <c r="N119">
+        <v>29396913000</v>
+      </c>
+      <c r="O119">
+        <v>-39269000</v>
+      </c>
+      <c r="P119">
+        <v>-685672975000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1673015280000</v>
+      </c>
+      <c r="B120">
+        <v>5695100</v>
+      </c>
+      <c r="C120">
+        <v>3830700</v>
+      </c>
+      <c r="D120">
+        <v>53000</v>
+      </c>
+      <c r="E120">
+        <v>95642926000</v>
+      </c>
+      <c r="F120">
+        <v>59040025000</v>
+      </c>
+      <c r="G120">
+        <v>442190000</v>
+      </c>
+      <c r="H120">
+        <v>9578800</v>
+      </c>
+      <c r="I120">
+        <v>155125141000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2023-01-06T14:28:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>9453822700000</v>
+      </c>
+      <c r="L120">
+        <v>549431500</v>
+      </c>
+      <c r="M120">
+        <v>-1864400</v>
+      </c>
+      <c r="N120">
+        <v>-36602901000</v>
+      </c>
+      <c r="O120">
+        <v>-41133400</v>
+      </c>
+      <c r="P120">
+        <v>-722275876000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1673015400000</v>
+      </c>
+      <c r="B121">
+        <v>119000</v>
+      </c>
+      <c r="C121">
+        <v>8500</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>2909165000</v>
+      </c>
+      <c r="F121">
+        <v>83578000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>127500</v>
+      </c>
+      <c r="I121">
+        <v>2992743000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2023-01-06T14:30:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>9456815443000</v>
+      </c>
+      <c r="L121">
+        <v>549559000</v>
+      </c>
+      <c r="M121">
+        <v>-110500</v>
+      </c>
+      <c r="N121">
+        <v>-2825587000</v>
+      </c>
+      <c r="O121">
+        <v>-41243900</v>
+      </c>
+      <c r="P121">
+        <v>-725101463000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1673015520000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>200</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2520000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>200</v>
+      </c>
+      <c r="I122">
+        <v>2520000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2023-01-06T14:32:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>9456817963000</v>
+      </c>
+      <c r="L122">
+        <v>549559200</v>
+      </c>
+      <c r="M122">
+        <v>200</v>
+      </c>
+      <c r="N122">
+        <v>2520000</v>
+      </c>
+      <c r="O122">
+        <v>-41243700</v>
+      </c>
+      <c r="P122">
+        <v>-725098943000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1673015640000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>500</v>
+      </c>
+      <c r="D123">
+        <v>200</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>6300000</v>
+      </c>
+      <c r="G123">
+        <v>2500000</v>
+      </c>
+      <c r="H123">
+        <v>700</v>
+      </c>
+      <c r="I123">
+        <v>8800000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2023-01-06T14:34:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>9456826763000</v>
+      </c>
+      <c r="L123">
+        <v>549559900</v>
+      </c>
+      <c r="M123">
+        <v>500</v>
+      </c>
+      <c r="N123">
+        <v>6300000</v>
+      </c>
+      <c r="O123">
+        <v>-41243200</v>
+      </c>
+      <c r="P123">
+        <v>-725092643000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1673015760000</v>
+      </c>
+      <c r="B124">
+        <v>1600</v>
+      </c>
+      <c r="C124">
+        <v>3800</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>20160000</v>
+      </c>
+      <c r="F124">
+        <v>47880000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>5400</v>
+      </c>
+      <c r="I124">
+        <v>68040000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2023-01-06T14:36:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>9456894803000</v>
+      </c>
+      <c r="L124">
+        <v>549565300</v>
+      </c>
+      <c r="M124">
+        <v>2200</v>
+      </c>
+      <c r="N124">
+        <v>27720000</v>
+      </c>
+      <c r="O124">
+        <v>-41241000</v>
+      </c>
+      <c r="P124">
+        <v>-725064923000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1673015880000</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>3200</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>40320000</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>3200</v>
+      </c>
+      <c r="I125">
+        <v>40320000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2023-01-06T14:38:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>9456935123000</v>
+      </c>
+      <c r="L125">
+        <v>549568500</v>
+      </c>
+      <c r="M125">
+        <v>3200</v>
+      </c>
+      <c r="N125">
+        <v>40320000</v>
+      </c>
+      <c r="O125">
+        <v>-41237800</v>
+      </c>
+      <c r="P125">
+        <v>-725024603000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1673016000000</v>
+      </c>
+      <c r="B126">
+        <v>2700</v>
+      </c>
+      <c r="C126">
+        <v>1000</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>34020000</v>
+      </c>
+      <c r="F126">
+        <v>12600000</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>3700</v>
+      </c>
+      <c r="I126">
+        <v>46620000</v>
+      </c>
+      <c r="J126" t="str">
+        <v>2023-01-06T14:40:00.000Z</v>
+      </c>
+      <c r="K126">
+        <v>9456981743000</v>
+      </c>
+      <c r="L126">
+        <v>549572200</v>
+      </c>
+      <c r="M126">
+        <v>-1700</v>
+      </c>
+      <c r="N126">
+        <v>-21420000</v>
+      </c>
+      <c r="O126">
+        <v>-41239500</v>
+      </c>
+      <c r="P126">
+        <v>-725046023000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1673016120000</v>
+      </c>
+      <c r="B127">
+        <v>700</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>8750000</v>
+      </c>
+      <c r="F127">
+        <v>1260000</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>800</v>
+      </c>
+      <c r="I127">
+        <v>10010000</v>
+      </c>
+      <c r="J127" t="str">
+        <v>2023-01-06T14:42:00.000Z</v>
+      </c>
+      <c r="K127">
+        <v>9456991753000</v>
+      </c>
+      <c r="L127">
+        <v>549573000</v>
+      </c>
+      <c r="M127">
+        <v>-600</v>
+      </c>
+      <c r="N127">
+        <v>-7490000</v>
+      </c>
+      <c r="O127">
+        <v>-41240100</v>
+      </c>
+      <c r="P127">
+        <v>-725053513000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1673016240000</v>
+      </c>
+      <c r="B128">
+        <v>10710800</v>
+      </c>
+      <c r="C128">
+        <v>1872200</v>
+      </c>
+      <c r="D128">
+        <v>21366100</v>
+      </c>
+      <c r="E128">
+        <v>194699806000</v>
+      </c>
+      <c r="F128">
+        <v>39899075000</v>
+      </c>
+      <c r="G128">
+        <v>363151203000</v>
+      </c>
+      <c r="H128">
+        <v>33949100</v>
+      </c>
+      <c r="I128">
+        <v>597750084000</v>
+      </c>
+      <c r="J128" t="str">
+        <v>2023-01-06T14:44:00.000Z</v>
+      </c>
+      <c r="K128">
+        <v>10054741837000</v>
+      </c>
+      <c r="L128">
+        <v>583522100</v>
+      </c>
+      <c r="M128">
+        <v>-8838600</v>
+      </c>
+      <c r="N128">
+        <v>-154800731000</v>
+      </c>
+      <c r="O128">
+        <v>-50078700</v>
+      </c>
+      <c r="P128">
+        <v>-879854244000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1673016360000</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>3900</v>
+      </c>
+      <c r="D129">
+        <v>500</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>48360000</v>
+      </c>
+      <c r="G129">
+        <v>6250000</v>
+      </c>
+      <c r="H129">
+        <v>4400</v>
+      </c>
+      <c r="I129">
+        <v>54610000</v>
+      </c>
+      <c r="J129" t="str">
+        <v>2023-01-06T14:46:00.000Z</v>
+      </c>
+      <c r="K129">
+        <v>10054796447000</v>
+      </c>
+      <c r="L129">
+        <v>583526500</v>
+      </c>
+      <c r="M129">
+        <v>3900</v>
+      </c>
+      <c r="N129">
+        <v>48360000</v>
+      </c>
+      <c r="O129">
+        <v>-50074800</v>
+      </c>
+      <c r="P129">
+        <v>-879805884000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1673016480000</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>47700</v>
+      </c>
+      <c r="D130">
+        <v>1100</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>619500000</v>
+      </c>
+      <c r="G130">
+        <v>13640000</v>
+      </c>
+      <c r="H130">
+        <v>48800</v>
+      </c>
+      <c r="I130">
+        <v>633140000</v>
+      </c>
+      <c r="J130" t="str">
+        <v>2023-01-06T14:48:00.000Z</v>
+      </c>
+      <c r="K130">
+        <v>10055429587000</v>
+      </c>
+      <c r="L130">
+        <v>583575300</v>
+      </c>
+      <c r="M130">
+        <v>47700</v>
+      </c>
+      <c r="N130">
+        <v>619500000</v>
+      </c>
+      <c r="O130">
+        <v>-50027100</v>
+      </c>
+      <c r="P130">
+        <v>-879186384000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1673016600000</v>
+      </c>
+      <c r="B131">
+        <v>300</v>
+      </c>
+      <c r="C131">
+        <v>3300</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>3900000</v>
+      </c>
+      <c r="F131">
+        <v>43230000</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>3600</v>
+      </c>
+      <c r="I131">
+        <v>47130000</v>
+      </c>
+      <c r="J131" t="str">
+        <v>2023-01-06T14:50:00.000Z</v>
+      </c>
+      <c r="K131">
+        <v>10055476717000</v>
+      </c>
+      <c r="L131">
+        <v>583578900</v>
+      </c>
+      <c r="M131">
+        <v>3000</v>
+      </c>
+      <c r="N131">
+        <v>39330000</v>
+      </c>
+      <c r="O131">
+        <v>-50024100</v>
+      </c>
+      <c r="P131">
+        <v>-879147054000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>1673016840000</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>2000</v>
+      </c>
+      <c r="D132">
+        <v>3000</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>25000000</v>
+      </c>
+      <c r="G132">
         <v>37200000</v>
       </c>
-      <c r="H57">
-        <v>54500</v>
-      </c>
-      <c r="I57">
-        <v>686750000</v>
-      </c>
-      <c r="J57" t="str">
-        <v>2023-01-06T14:55:00.000Z</v>
-      </c>
-      <c r="K57">
+      <c r="H132">
+        <v>5000</v>
+      </c>
+      <c r="I132">
+        <v>62200000</v>
+      </c>
+      <c r="J132" t="str">
+        <v>2023-01-06T14:54:00.000Z</v>
+      </c>
+      <c r="K132">
+        <v>10055538917000</v>
+      </c>
+      <c r="L132">
+        <v>583583900</v>
+      </c>
+      <c r="M132">
+        <v>2000</v>
+      </c>
+      <c r="N132">
+        <v>25000000</v>
+      </c>
+      <c r="O132">
+        <v>-50022100</v>
+      </c>
+      <c r="P132">
+        <v>-879122054000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>1673016960000</v>
+      </c>
+      <c r="B133">
+        <v>100</v>
+      </c>
+      <c r="C133">
+        <v>4900</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>1250000</v>
+      </c>
+      <c r="F133">
+        <v>61250000</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>5000</v>
+      </c>
+      <c r="I133">
+        <v>62500000</v>
+      </c>
+      <c r="J133" t="str">
+        <v>2023-01-06T14:56:00.000Z</v>
+      </c>
+      <c r="K133">
+        <v>10055601417000</v>
+      </c>
+      <c r="L133">
+        <v>583588900</v>
+      </c>
+      <c r="M133">
+        <v>4800</v>
+      </c>
+      <c r="N133">
+        <v>60000000</v>
+      </c>
+      <c r="O133">
+        <v>-50017300</v>
+      </c>
+      <c r="P133">
+        <v>-879062054000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>1673017080000</v>
+      </c>
+      <c r="B134">
+        <v>24500</v>
+      </c>
+      <c r="C134">
+        <v>20000</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>304050000</v>
+      </c>
+      <c r="F134">
+        <v>258000000</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>44500</v>
+      </c>
+      <c r="I134">
+        <v>562050000</v>
+      </c>
+      <c r="J134" t="str">
+        <v>2023-01-06T14:58:00.000Z</v>
+      </c>
+      <c r="K134">
         <v>10056163467000</v>
       </c>
-      <c r="L57">
+      <c r="L134">
         <v>583633400</v>
       </c>
-      <c r="M57">
-        <v>2300</v>
-      </c>
-      <c r="N57">
-        <v>38950000</v>
-      </c>
-      <c r="O57">
+      <c r="M134">
+        <v>-4500</v>
+      </c>
+      <c r="N134">
+        <v>-46050000</v>
+      </c>
+      <c r="O134">
         <v>-50021800</v>
       </c>
-      <c r="P57">
+      <c r="P134">
         <v>-879108104000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P134"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230106/VNINDEX_HOSE_5p_20230106.xlsx
+++ b/name/vnindex/20230106/VNINDEX_HOSE_5p_20230106.xlsx
@@ -716,25 +716,25 @@
         <v>2528200</v>
       </c>
       <c r="E7">
-        <v>40015039000</v>
+        <v>37767588700</v>
       </c>
       <c r="F7">
-        <v>22749875000</v>
+        <v>19442186000</v>
       </c>
       <c r="G7">
-        <v>31500561000</v>
+        <v>31484676900</v>
       </c>
       <c r="H7">
         <v>6171800</v>
       </c>
       <c r="I7">
-        <v>94265475000</v>
+        <v>88694451600</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-06T09:14:00.000Z</v>
       </c>
       <c r="K7">
-        <v>94475135000</v>
+        <v>88904111600</v>
       </c>
       <c r="L7">
         <v>6188500</v>
@@ -743,13 +743,13 @@
         <v>-1316200</v>
       </c>
       <c r="N7">
-        <v>-17265164000</v>
+        <v>-18325402700</v>
       </c>
       <c r="O7">
         <v>-1317300</v>
       </c>
       <c r="P7">
-        <v>-17276744000</v>
+        <v>-18336982700</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>16300</v>
       </c>
       <c r="E8">
-        <v>21656403000</v>
+        <v>19148513400</v>
       </c>
       <c r="F8">
-        <v>24263787000</v>
+        <v>22205147700</v>
       </c>
       <c r="G8">
         <v>269767000</v>
@@ -778,13 +778,13 @@
         <v>2777200</v>
       </c>
       <c r="I8">
-        <v>46189957000</v>
+        <v>41623428100</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-06T09:16:00.000Z</v>
       </c>
       <c r="K8">
-        <v>140665092000</v>
+        <v>130527539700</v>
       </c>
       <c r="L8">
         <v>8965700</v>
@@ -793,13 +793,13 @@
         <v>177100</v>
       </c>
       <c r="N8">
-        <v>2607384000</v>
+        <v>3056634300</v>
       </c>
       <c r="O8">
         <v>-1140200</v>
       </c>
       <c r="P8">
-        <v>-14669360000</v>
+        <v>-15280348400</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>56200</v>
       </c>
       <c r="E9">
-        <v>23382252000</v>
+        <v>21478557600</v>
       </c>
       <c r="F9">
-        <v>28475466000</v>
+        <v>22172575200</v>
       </c>
       <c r="G9">
-        <v>784987000</v>
+        <v>767005000</v>
       </c>
       <c r="H9">
         <v>3229400</v>
       </c>
       <c r="I9">
-        <v>52642705000</v>
+        <v>44418137800</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-06T09:18:00.000Z</v>
       </c>
       <c r="K9">
-        <v>193307797000</v>
+        <v>174945677500</v>
       </c>
       <c r="L9">
         <v>12195100</v>
@@ -843,13 +843,13 @@
         <v>399800</v>
       </c>
       <c r="N9">
-        <v>5093214000</v>
+        <v>694017600</v>
       </c>
       <c r="O9">
         <v>-740400</v>
       </c>
       <c r="P9">
-        <v>-9576146000</v>
+        <v>-14586330800</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>3300</v>
       </c>
       <c r="E10">
-        <v>29845034000</v>
+        <v>25321761800</v>
       </c>
       <c r="F10">
-        <v>32575694000</v>
+        <v>31249121900</v>
       </c>
       <c r="G10">
         <v>109022000</v>
@@ -878,13 +878,13 @@
         <v>4040600</v>
       </c>
       <c r="I10">
-        <v>62529750000</v>
+        <v>56679905700</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-06T09:20:00.000Z</v>
       </c>
       <c r="K10">
-        <v>255837547000</v>
+        <v>231625583200</v>
       </c>
       <c r="L10">
         <v>16235700</v>
@@ -893,13 +893,13 @@
         <v>498300</v>
       </c>
       <c r="N10">
-        <v>2730660000</v>
+        <v>5927360100</v>
       </c>
       <c r="O10">
         <v>-242100</v>
       </c>
       <c r="P10">
-        <v>-6845486000</v>
+        <v>-8658970700</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>18900</v>
       </c>
       <c r="E11">
-        <v>26364831000</v>
+        <v>25695501000</v>
       </c>
       <c r="F11">
-        <v>41691724000</v>
+        <v>38678939800</v>
       </c>
       <c r="G11">
         <v>275196000</v>
@@ -928,13 +928,13 @@
         <v>4547800</v>
       </c>
       <c r="I11">
-        <v>68331751000</v>
+        <v>64649636800</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-06T09:22:00.000Z</v>
       </c>
       <c r="K11">
-        <v>324169298000</v>
+        <v>296275220000</v>
       </c>
       <c r="L11">
         <v>20783500</v>
@@ -943,13 +943,13 @@
         <v>1115300</v>
       </c>
       <c r="N11">
-        <v>15326893000</v>
+        <v>12983438800</v>
       </c>
       <c r="O11">
         <v>873200</v>
       </c>
       <c r="P11">
-        <v>8481407000</v>
+        <v>4324468100</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>5400</v>
       </c>
       <c r="E12">
-        <v>28601955000</v>
+        <v>25854904800</v>
       </c>
       <c r="F12">
-        <v>49143635000</v>
+        <v>47120660000</v>
       </c>
       <c r="G12">
-        <v>116677000</v>
+        <v>17975800</v>
       </c>
       <c r="H12">
         <v>4992800</v>
       </c>
       <c r="I12">
-        <v>77862267000</v>
+        <v>72993540600</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-06T09:24:00.000Z</v>
       </c>
       <c r="K12">
-        <v>402031565000</v>
+        <v>369268760600</v>
       </c>
       <c r="L12">
         <v>25776300</v>
@@ -993,13 +993,13 @@
         <v>1264400</v>
       </c>
       <c r="N12">
-        <v>20541680000</v>
+        <v>21265755200</v>
       </c>
       <c r="O12">
         <v>2137600</v>
       </c>
       <c r="P12">
-        <v>29023087000</v>
+        <v>25590223300</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>15200</v>
       </c>
       <c r="E13">
-        <v>23157134000</v>
+        <v>21918174200</v>
       </c>
       <c r="F13">
-        <v>79248104000</v>
+        <v>70760100500</v>
       </c>
       <c r="G13">
         <v>251119000</v>
@@ -1028,13 +1028,13 @@
         <v>6409800</v>
       </c>
       <c r="I13">
-        <v>102656357000</v>
+        <v>92929393700</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-06T09:26:00.000Z</v>
       </c>
       <c r="K13">
-        <v>504687922000</v>
+        <v>462198154300</v>
       </c>
       <c r="L13">
         <v>32186100</v>
@@ -1043,13 +1043,13 @@
         <v>3575800</v>
       </c>
       <c r="N13">
-        <v>56090970000</v>
+        <v>48841926300</v>
       </c>
       <c r="O13">
         <v>5713400</v>
       </c>
       <c r="P13">
-        <v>85114057000</v>
+        <v>74432149600</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>64500</v>
       </c>
       <c r="E14">
-        <v>30331897000</v>
+        <v>28333297600</v>
       </c>
       <c r="F14">
-        <v>71610536000</v>
+        <v>66404747000</v>
       </c>
       <c r="G14">
-        <v>1104265000</v>
+        <v>1082686600</v>
       </c>
       <c r="H14">
         <v>6656300</v>
       </c>
       <c r="I14">
-        <v>103046698000</v>
+        <v>95820731200</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-06T09:28:00.000Z</v>
       </c>
       <c r="K14">
-        <v>607734620000</v>
+        <v>558018885500</v>
       </c>
       <c r="L14">
         <v>38842400</v>
@@ -1093,13 +1093,13 @@
         <v>2655200</v>
       </c>
       <c r="N14">
-        <v>41278639000</v>
+        <v>38071449400</v>
       </c>
       <c r="O14">
         <v>8368600</v>
       </c>
       <c r="P14">
-        <v>126392696000</v>
+        <v>112503599000</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>10500</v>
       </c>
       <c r="E15">
-        <v>27061496000</v>
+        <v>25181777600</v>
       </c>
       <c r="F15">
-        <v>59292781000</v>
+        <v>55593683800</v>
       </c>
       <c r="G15">
         <v>90575000</v>
@@ -1128,13 +1128,13 @@
         <v>5789600</v>
       </c>
       <c r="I15">
-        <v>86444852000</v>
+        <v>80866036400</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-06T09:30:00.000Z</v>
       </c>
       <c r="K15">
-        <v>694179472000</v>
+        <v>638884921900</v>
       </c>
       <c r="L15">
         <v>44632000</v>
@@ -1143,13 +1143,13 @@
         <v>2250900</v>
       </c>
       <c r="N15">
-        <v>32231285000</v>
+        <v>30411906200</v>
       </c>
       <c r="O15">
         <v>10619500</v>
       </c>
       <c r="P15">
-        <v>158623981000</v>
+        <v>142915505200</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>11100</v>
       </c>
       <c r="E16">
-        <v>38196085000</v>
+        <v>37062719500</v>
       </c>
       <c r="F16">
-        <v>48055407000</v>
+        <v>45026738700</v>
       </c>
       <c r="G16">
         <v>236606000</v>
@@ -1178,13 +1178,13 @@
         <v>5209700</v>
       </c>
       <c r="I16">
-        <v>86488098000</v>
+        <v>82326064200</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-06T09:32:00.000Z</v>
       </c>
       <c r="K16">
-        <v>780667570000</v>
+        <v>721210986100</v>
       </c>
       <c r="L16">
         <v>49841700</v>
@@ -1193,13 +1193,13 @@
         <v>565600</v>
       </c>
       <c r="N16">
-        <v>9859322000</v>
+        <v>7964019200</v>
       </c>
       <c r="O16">
         <v>11185100</v>
       </c>
       <c r="P16">
-        <v>168483303000</v>
+        <v>150879524400</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>7300</v>
       </c>
       <c r="E17">
-        <v>25330263000</v>
+        <v>24828365400</v>
       </c>
       <c r="F17">
-        <v>38947204000</v>
+        <v>37163489500</v>
       </c>
       <c r="G17">
         <v>106127000</v>
@@ -1228,13 +1228,13 @@
         <v>4247200</v>
       </c>
       <c r="I17">
-        <v>64383594000</v>
+        <v>62097981900</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-06T09:34:00.000Z</v>
       </c>
       <c r="K17">
-        <v>845051164000</v>
+        <v>783308968000</v>
       </c>
       <c r="L17">
         <v>54088900</v>
@@ -1243,13 +1243,13 @@
         <v>713700</v>
       </c>
       <c r="N17">
-        <v>13616941000</v>
+        <v>12335124100</v>
       </c>
       <c r="O17">
         <v>11898800</v>
       </c>
       <c r="P17">
-        <v>182100244000</v>
+        <v>163214648500</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>14100</v>
       </c>
       <c r="E18">
-        <v>48419617000</v>
+        <v>43305835900</v>
       </c>
       <c r="F18">
-        <v>24293510000</v>
+        <v>20234573000</v>
       </c>
       <c r="G18">
         <v>632246000</v>
@@ -1278,13 +1278,13 @@
         <v>4255700</v>
       </c>
       <c r="I18">
-        <v>73345373000</v>
+        <v>64172654900</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-06T09:36:00.000Z</v>
       </c>
       <c r="K18">
-        <v>918396537000</v>
+        <v>847481622900</v>
       </c>
       <c r="L18">
         <v>58344600</v>
@@ -1293,13 +1293,13 @@
         <v>-1449600</v>
       </c>
       <c r="N18">
-        <v>-24126107000</v>
+        <v>-23071262900</v>
       </c>
       <c r="O18">
         <v>10449200</v>
       </c>
       <c r="P18">
-        <v>157974137000</v>
+        <v>140143385600</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>17100</v>
       </c>
       <c r="E19">
-        <v>43714109000</v>
+        <v>38977850000</v>
       </c>
       <c r="F19">
-        <v>20676353000</v>
+        <v>20023306700</v>
       </c>
       <c r="G19">
         <v>131823000</v>
@@ -1328,13 +1328,13 @@
         <v>4061300</v>
       </c>
       <c r="I19">
-        <v>64522285000</v>
+        <v>59132979700</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-06T09:38:00.000Z</v>
       </c>
       <c r="K19">
-        <v>982918822000</v>
+        <v>906614602600</v>
       </c>
       <c r="L19">
         <v>62405900</v>
@@ -1343,13 +1343,13 @@
         <v>-1416600</v>
       </c>
       <c r="N19">
-        <v>-23037756000</v>
+        <v>-18954543300</v>
       </c>
       <c r="O19">
         <v>9032600</v>
       </c>
       <c r="P19">
-        <v>134936381000</v>
+        <v>121188842300</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>6300</v>
       </c>
       <c r="E20">
-        <v>45719339000</v>
+        <v>42200161700</v>
       </c>
       <c r="F20">
-        <v>13435420000</v>
+        <v>10961596300</v>
       </c>
       <c r="G20">
-        <v>109230000</v>
+        <v>66273000</v>
       </c>
       <c r="H20">
         <v>3441100</v>
       </c>
       <c r="I20">
-        <v>59263989000</v>
+        <v>53228031000</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-06T09:40:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1042182811000</v>
+        <v>959842633600</v>
       </c>
       <c r="L20">
         <v>65847000</v>
@@ -1393,13 +1393,13 @@
         <v>-1879600</v>
       </c>
       <c r="N20">
-        <v>-32283919000</v>
+        <v>-31238565400</v>
       </c>
       <c r="O20">
         <v>7153000</v>
       </c>
       <c r="P20">
-        <v>102652462000</v>
+        <v>89950276900</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>36400</v>
       </c>
       <c r="E21">
-        <v>43990282000</v>
+        <v>42397576300</v>
       </c>
       <c r="F21">
-        <v>17091118000</v>
+        <v>16210599400</v>
       </c>
       <c r="G21">
-        <v>642436000</v>
+        <v>636941500</v>
       </c>
       <c r="H21">
         <v>3676700</v>
       </c>
       <c r="I21">
-        <v>61723836000</v>
+        <v>59245117200</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-06T09:42:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1103906647000</v>
+        <v>1019087750800</v>
       </c>
       <c r="L21">
         <v>69523700</v>
@@ -1443,13 +1443,13 @@
         <v>-1396700</v>
       </c>
       <c r="N21">
-        <v>-26899164000</v>
+        <v>-26186976900</v>
       </c>
       <c r="O21">
         <v>5756300</v>
       </c>
       <c r="P21">
-        <v>75753298000</v>
+        <v>63763300000</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>30700</v>
       </c>
       <c r="E22">
-        <v>31554390000</v>
+        <v>28214932800</v>
       </c>
       <c r="F22">
-        <v>33305060000</v>
+        <v>27767702900</v>
       </c>
       <c r="G22">
         <v>481797000</v>
@@ -1478,13 +1478,13 @@
         <v>3666400</v>
       </c>
       <c r="I22">
-        <v>65341247000</v>
+        <v>56464432700</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-06T09:44:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1169247894000</v>
+        <v>1075552183500</v>
       </c>
       <c r="L22">
         <v>73190100</v>
@@ -1493,13 +1493,13 @@
         <v>218100</v>
       </c>
       <c r="N22">
-        <v>1750670000</v>
+        <v>-447229900</v>
       </c>
       <c r="O22">
         <v>5974400</v>
       </c>
       <c r="P22">
-        <v>77503968000</v>
+        <v>63316070100</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>11100</v>
       </c>
       <c r="E23">
-        <v>20413745000</v>
+        <v>18956403800</v>
       </c>
       <c r="F23">
-        <v>39870531000</v>
+        <v>35999406000</v>
       </c>
       <c r="G23">
         <v>349436000</v>
@@ -1528,13 +1528,13 @@
         <v>3910600</v>
       </c>
       <c r="I23">
-        <v>60633712000</v>
+        <v>55305245800</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-06T09:46:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1229881606000</v>
+        <v>1130857429300</v>
       </c>
       <c r="L23">
         <v>77100700</v>
@@ -1543,13 +1543,13 @@
         <v>851900</v>
       </c>
       <c r="N23">
-        <v>19456786000</v>
+        <v>17043002200</v>
       </c>
       <c r="O23">
         <v>6826300</v>
       </c>
       <c r="P23">
-        <v>96960754000</v>
+        <v>80359072300</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>12700</v>
       </c>
       <c r="E24">
-        <v>22836828000</v>
+        <v>21215451000</v>
       </c>
       <c r="F24">
-        <v>58244138000</v>
+        <v>55678805900</v>
       </c>
       <c r="G24">
         <v>200233000</v>
@@ -1578,13 +1578,13 @@
         <v>5019000</v>
       </c>
       <c r="I24">
-        <v>81281199000</v>
+        <v>77094489900</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-06T09:48:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1311162805000</v>
+        <v>1207951919200</v>
       </c>
       <c r="L24">
         <v>82119700</v>
@@ -1593,13 +1593,13 @@
         <v>2045900</v>
       </c>
       <c r="N24">
-        <v>35407310000</v>
+        <v>34463354900</v>
       </c>
       <c r="O24">
         <v>8872200</v>
       </c>
       <c r="P24">
-        <v>132368064000</v>
+        <v>114822427200</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>2000</v>
       </c>
       <c r="E25">
-        <v>18331795000</v>
+        <v>15701028400</v>
       </c>
       <c r="F25">
-        <v>71051125000</v>
+        <v>63759523900</v>
       </c>
       <c r="G25">
         <v>29160000</v>
@@ -1628,13 +1628,13 @@
         <v>5572600</v>
       </c>
       <c r="I25">
-        <v>89412080000</v>
+        <v>79489712300</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-06T09:50:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1400574885000</v>
+        <v>1287441631500</v>
       </c>
       <c r="L25">
         <v>87692300</v>
@@ -1643,13 +1643,13 @@
         <v>3232600</v>
       </c>
       <c r="N25">
-        <v>52719330000</v>
+        <v>48058495500</v>
       </c>
       <c r="O25">
         <v>12104800</v>
       </c>
       <c r="P25">
-        <v>185087394000</v>
+        <v>162880922700</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>9400</v>
       </c>
       <c r="E26">
-        <v>32520141000</v>
+        <v>29499165000</v>
       </c>
       <c r="F26">
-        <v>54744129000</v>
+        <v>53402671800</v>
       </c>
       <c r="G26">
         <v>207792000</v>
@@ -1678,13 +1678,13 @@
         <v>5319100</v>
       </c>
       <c r="I26">
-        <v>87472062000</v>
+        <v>83109628800</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-06T09:52:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1488046947000</v>
+        <v>1370551260300</v>
       </c>
       <c r="L26">
         <v>93011400</v>
@@ -1693,13 +1693,13 @@
         <v>1849500</v>
       </c>
       <c r="N26">
-        <v>22223988000</v>
+        <v>23903506800</v>
       </c>
       <c r="O26">
         <v>13954300</v>
       </c>
       <c r="P26">
-        <v>207311382000</v>
+        <v>186784429500</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>4900</v>
       </c>
       <c r="E27">
-        <v>31800014000</v>
+        <v>29342873600</v>
       </c>
       <c r="F27">
-        <v>52620939000</v>
+        <v>36515460600</v>
       </c>
       <c r="G27">
         <v>232755000</v>
@@ -1728,13 +1728,13 @@
         <v>4463900</v>
       </c>
       <c r="I27">
-        <v>84653708000</v>
+        <v>66091089200</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-06T09:54:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1572700655000</v>
+        <v>1436642349500</v>
       </c>
       <c r="L27">
         <v>97475300</v>
@@ -1743,13 +1743,13 @@
         <v>1229000</v>
       </c>
       <c r="N27">
-        <v>20820925000</v>
+        <v>7172587000</v>
       </c>
       <c r="O27">
         <v>15183300</v>
       </c>
       <c r="P27">
-        <v>228132307000</v>
+        <v>193957016500</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>117900</v>
       </c>
       <c r="E28">
-        <v>25367258000</v>
+        <v>22774952900</v>
       </c>
       <c r="F28">
-        <v>66352694000</v>
+        <v>60093259700</v>
       </c>
       <c r="G28">
         <v>3020000000</v>
@@ -1778,13 +1778,13 @@
         <v>5350600</v>
       </c>
       <c r="I28">
-        <v>94739952000</v>
+        <v>85888212600</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-06T09:56:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1667440607000</v>
+        <v>1522530562100</v>
       </c>
       <c r="L28">
         <v>102825900</v>
@@ -1793,13 +1793,13 @@
         <v>2609100</v>
       </c>
       <c r="N28">
-        <v>40985436000</v>
+        <v>37318306800</v>
       </c>
       <c r="O28">
         <v>17792400</v>
       </c>
       <c r="P28">
-        <v>269117743000</v>
+        <v>231275323300</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>34900</v>
       </c>
       <c r="E29">
-        <v>37203304000</v>
+        <v>27216700600</v>
       </c>
       <c r="F29">
-        <v>82361613000</v>
+        <v>73297686000</v>
       </c>
       <c r="G29">
         <v>410585000</v>
@@ -1828,13 +1828,13 @@
         <v>6822900</v>
       </c>
       <c r="I29">
-        <v>119975502000</v>
+        <v>100924971600</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-06T09:58:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1787416109000</v>
+        <v>1623455533700</v>
       </c>
       <c r="L29">
         <v>109648800</v>
@@ -1843,13 +1843,13 @@
         <v>2635200</v>
       </c>
       <c r="N29">
-        <v>45158309000</v>
+        <v>46080985400</v>
       </c>
       <c r="O29">
         <v>20427600</v>
       </c>
       <c r="P29">
-        <v>314276052000</v>
+        <v>277356308700</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>4000</v>
       </c>
       <c r="E30">
-        <v>22768283000</v>
+        <v>20753799500</v>
       </c>
       <c r="F30">
-        <v>92914769000</v>
+        <v>82892101700</v>
       </c>
       <c r="G30">
         <v>60296000</v>
@@ -1878,13 +1878,13 @@
         <v>6871400</v>
       </c>
       <c r="I30">
-        <v>115743348000</v>
+        <v>103706197200</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-06T10:00:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1903159457000</v>
+        <v>1727161730900</v>
       </c>
       <c r="L30">
         <v>116520200</v>
@@ -1893,13 +1893,13 @@
         <v>4289800</v>
       </c>
       <c r="N30">
-        <v>70146486000</v>
+        <v>62138302200</v>
       </c>
       <c r="O30">
         <v>24717400</v>
       </c>
       <c r="P30">
-        <v>384422538000</v>
+        <v>339494610900</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>31600</v>
       </c>
       <c r="E31">
-        <v>27503856000</v>
+        <v>25459902000</v>
       </c>
       <c r="F31">
-        <v>59474745000</v>
+        <v>51820407000</v>
       </c>
       <c r="G31">
-        <v>610231000</v>
+        <v>575765500</v>
       </c>
       <c r="H31">
         <v>5338300</v>
       </c>
       <c r="I31">
-        <v>87588832000</v>
+        <v>77856074500</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-06T10:02:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1990748289000</v>
+        <v>1805017805400</v>
       </c>
       <c r="L31">
         <v>121858500</v>
@@ -1943,13 +1943,13 @@
         <v>1679500</v>
       </c>
       <c r="N31">
-        <v>31970889000</v>
+        <v>26360505000</v>
       </c>
       <c r="O31">
         <v>26396900</v>
       </c>
       <c r="P31">
-        <v>416393427000</v>
+        <v>365855115900</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>16400</v>
       </c>
       <c r="E32">
-        <v>37147954000</v>
+        <v>37002000100</v>
       </c>
       <c r="F32">
-        <v>46242740000</v>
+        <v>43548337100</v>
       </c>
       <c r="G32">
         <v>322588000</v>
@@ -1978,13 +1978,13 @@
         <v>5113800</v>
       </c>
       <c r="I32">
-        <v>83713282000</v>
+        <v>80872925200</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-06T10:04:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2074461571000</v>
+        <v>1885890730600</v>
       </c>
       <c r="L32">
         <v>126972300</v>
@@ -1993,13 +1993,13 @@
         <v>371400</v>
       </c>
       <c r="N32">
-        <v>9094786000</v>
+        <v>6546337000</v>
       </c>
       <c r="O32">
         <v>26768300</v>
       </c>
       <c r="P32">
-        <v>425488213000</v>
+        <v>372401452900</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>8800</v>
       </c>
       <c r="E33">
-        <v>51096225000</v>
+        <v>48351272700</v>
       </c>
       <c r="F33">
-        <v>41775087000</v>
+        <v>38807857200</v>
       </c>
       <c r="G33">
         <v>281585000</v>
@@ -2028,13 +2028,13 @@
         <v>5587900</v>
       </c>
       <c r="I33">
-        <v>93152897000</v>
+        <v>87440714900</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-06T10:06:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2167614468000</v>
+        <v>1973331445500</v>
       </c>
       <c r="L33">
         <v>132560200</v>
@@ -2043,13 +2043,13 @@
         <v>-707700</v>
       </c>
       <c r="N33">
-        <v>-9321138000</v>
+        <v>-9543415500</v>
       </c>
       <c r="O33">
         <v>26060600</v>
       </c>
       <c r="P33">
-        <v>416167075000</v>
+        <v>362858037400</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>4500</v>
       </c>
       <c r="E34">
-        <v>44028507000</v>
+        <v>41682655200</v>
       </c>
       <c r="F34">
-        <v>19164756000</v>
+        <v>17947874100</v>
       </c>
       <c r="G34">
         <v>67050000</v>
@@ -2078,13 +2078,13 @@
         <v>3806900</v>
       </c>
       <c r="I34">
-        <v>63260313000</v>
+        <v>59697579300</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-06T10:08:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2230874781000</v>
+        <v>2033029024800</v>
       </c>
       <c r="L34">
         <v>136367100</v>
@@ -2093,13 +2093,13 @@
         <v>-1518000</v>
       </c>
       <c r="N34">
-        <v>-24863751000</v>
+        <v>-23734781100</v>
       </c>
       <c r="O34">
         <v>24542600</v>
       </c>
       <c r="P34">
-        <v>391303324000</v>
+        <v>339123256300</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>12900</v>
       </c>
       <c r="E35">
-        <v>30543244000</v>
+        <v>29195293300</v>
       </c>
       <c r="F35">
-        <v>23915049000</v>
+        <v>23209255500</v>
       </c>
       <c r="G35">
         <v>363320000</v>
@@ -2128,13 +2128,13 @@
         <v>2961100</v>
       </c>
       <c r="I35">
-        <v>54821613000</v>
+        <v>52767868800</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-06T10:10:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2285696394000</v>
+        <v>2085796893600</v>
       </c>
       <c r="L35">
         <v>139328200</v>
@@ -2143,13 +2143,13 @@
         <v>-706400</v>
       </c>
       <c r="N35">
-        <v>-6628195000</v>
+        <v>-5986037800</v>
       </c>
       <c r="O35">
         <v>23836200</v>
       </c>
       <c r="P35">
-        <v>384675129000</v>
+        <v>333137218500</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>200</v>
       </c>
       <c r="E36">
-        <v>30471793000</v>
+        <v>29122044100</v>
       </c>
       <c r="F36">
-        <v>18919159000</v>
+        <v>17884694500</v>
       </c>
       <c r="G36">
         <v>1134000</v>
@@ -2178,13 +2178,13 @@
         <v>2826900</v>
       </c>
       <c r="I36">
-        <v>49392086000</v>
+        <v>47007872600</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-06T10:12:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2335088480000</v>
+        <v>2132804766200</v>
       </c>
       <c r="L36">
         <v>142155100</v>
@@ -2193,13 +2193,13 @@
         <v>-832500</v>
       </c>
       <c r="N36">
-        <v>-11552634000</v>
+        <v>-11237349600</v>
       </c>
       <c r="O36">
         <v>23003700</v>
       </c>
       <c r="P36">
-        <v>373122495000</v>
+        <v>321899868900</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>2100</v>
       </c>
       <c r="E37">
-        <v>30141910000</v>
+        <v>29842709500</v>
       </c>
       <c r="F37">
-        <v>22139090000</v>
+        <v>20940489800</v>
       </c>
       <c r="G37">
         <v>33684000</v>
@@ -2228,13 +2228,13 @@
         <v>2937600</v>
       </c>
       <c r="I37">
-        <v>52314684000</v>
+        <v>50816883300</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-06T10:14:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2387403164000</v>
+        <v>2183621649500</v>
       </c>
       <c r="L37">
         <v>145092700</v>
@@ -2243,13 +2243,13 @@
         <v>-643500</v>
       </c>
       <c r="N37">
-        <v>-8002820000</v>
+        <v>-8902219700</v>
       </c>
       <c r="O37">
         <v>22360200</v>
       </c>
       <c r="P37">
-        <v>365119675000</v>
+        <v>312997649200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>8600</v>
       </c>
       <c r="E38">
-        <v>15539331000</v>
+        <v>14737633500</v>
       </c>
       <c r="F38">
-        <v>56375709000</v>
+        <v>53138249700</v>
       </c>
       <c r="G38">
         <v>238192000</v>
@@ -2278,13 +2278,13 @@
         <v>3553900</v>
       </c>
       <c r="I38">
-        <v>72153232000</v>
+        <v>68114075200</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-06T10:16:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2459556396000</v>
+        <v>2251735724700</v>
       </c>
       <c r="L38">
         <v>148646600</v>
@@ -2293,13 +2293,13 @@
         <v>1697300</v>
       </c>
       <c r="N38">
-        <v>40836378000</v>
+        <v>38400616200</v>
       </c>
       <c r="O38">
         <v>24057500</v>
       </c>
       <c r="P38">
-        <v>405956053000</v>
+        <v>351398265400</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>12100</v>
       </c>
       <c r="E39">
-        <v>12554763000</v>
+        <v>11875642800</v>
       </c>
       <c r="F39">
-        <v>55371294000</v>
+        <v>53994372300</v>
       </c>
       <c r="G39">
         <v>173028000</v>
@@ -2328,13 +2328,13 @@
         <v>3450300</v>
       </c>
       <c r="I39">
-        <v>68099085000</v>
+        <v>66043043100</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-06T10:18:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2527655481000</v>
+        <v>2317778767800</v>
       </c>
       <c r="L39">
         <v>152096900</v>
@@ -2343,13 +2343,13 @@
         <v>2064000</v>
       </c>
       <c r="N39">
-        <v>42816531000</v>
+        <v>42118729500</v>
       </c>
       <c r="O39">
         <v>26121500</v>
       </c>
       <c r="P39">
-        <v>448772584000</v>
+        <v>393516994900</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>3400</v>
       </c>
       <c r="E40">
-        <v>18547948000</v>
+        <v>17502894100</v>
       </c>
       <c r="F40">
-        <v>47491493000</v>
+        <v>44340447200</v>
       </c>
       <c r="G40">
         <v>99110000</v>
@@ -2378,13 +2378,13 @@
         <v>3612200</v>
       </c>
       <c r="I40">
-        <v>66138551000</v>
+        <v>61942451300</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-06T10:20:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2593794032000</v>
+        <v>2379721219100</v>
       </c>
       <c r="L40">
         <v>155709100</v>
@@ -2393,13 +2393,13 @@
         <v>1647200</v>
       </c>
       <c r="N40">
-        <v>28943545000</v>
+        <v>26837553100</v>
       </c>
       <c r="O40">
         <v>27768700</v>
       </c>
       <c r="P40">
-        <v>477716129000</v>
+        <v>420354548000</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>2200</v>
       </c>
       <c r="E41">
-        <v>24711157000</v>
+        <v>23431537900</v>
       </c>
       <c r="F41">
-        <v>29440312000</v>
+        <v>27698755300</v>
       </c>
       <c r="G41">
-        <v>37330000</v>
+        <v>17350000</v>
       </c>
       <c r="H41">
         <v>3106300</v>
       </c>
       <c r="I41">
-        <v>54188799000</v>
+        <v>51147643200</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-06T10:22:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2647982831000</v>
+        <v>2430868862300</v>
       </c>
       <c r="L41">
         <v>158815400</v>
@@ -2443,13 +2443,13 @@
         <v>292900</v>
       </c>
       <c r="N41">
-        <v>4729155000</v>
+        <v>4267217400</v>
       </c>
       <c r="O41">
         <v>28061600</v>
       </c>
       <c r="P41">
-        <v>482445284000</v>
+        <v>424621765400</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>23800</v>
       </c>
       <c r="E42">
-        <v>27399113000</v>
+        <v>25537976000</v>
       </c>
       <c r="F42">
-        <v>22376226000</v>
+        <v>21459443700</v>
       </c>
       <c r="G42">
         <v>463565000</v>
@@ -2478,13 +2478,13 @@
         <v>2974300</v>
       </c>
       <c r="I42">
-        <v>50238904000</v>
+        <v>47460984700</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-06T10:24:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2698221735000</v>
+        <v>2478329847000</v>
       </c>
       <c r="L42">
         <v>161789700</v>
@@ -2493,13 +2493,13 @@
         <v>-574900</v>
       </c>
       <c r="N42">
-        <v>-5022887000</v>
+        <v>-4078532300</v>
       </c>
       <c r="O42">
         <v>27486700</v>
       </c>
       <c r="P42">
-        <v>477422397000</v>
+        <v>420543233100</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>1400</v>
       </c>
       <c r="E43">
-        <v>32226129000</v>
+        <v>31206150000</v>
       </c>
       <c r="F43">
-        <v>28202678000</v>
+        <v>27297883700</v>
       </c>
       <c r="G43">
         <v>33375000</v>
@@ -2528,13 +2528,13 @@
         <v>3283100</v>
       </c>
       <c r="I43">
-        <v>60462182000</v>
+        <v>58537408700</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-06T10:26:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2758683917000</v>
+        <v>2536867255700</v>
       </c>
       <c r="L43">
         <v>165072800</v>
@@ -2543,13 +2543,13 @@
         <v>-429500</v>
       </c>
       <c r="N43">
-        <v>-4023451000</v>
+        <v>-3908266300</v>
       </c>
       <c r="O43">
         <v>27057200</v>
       </c>
       <c r="P43">
-        <v>473398946000</v>
+        <v>416634966800</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>400</v>
       </c>
       <c r="E44">
-        <v>35156880000</v>
+        <v>33880058100</v>
       </c>
       <c r="F44">
-        <v>28929354000</v>
+        <v>17757237300</v>
       </c>
       <c r="G44">
         <v>12409000</v>
@@ -2578,13 +2578,13 @@
         <v>3840500</v>
       </c>
       <c r="I44">
-        <v>64098643000</v>
+        <v>51649704400</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-06T10:28:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2822782560000</v>
+        <v>2588516960100</v>
       </c>
       <c r="L44">
         <v>168913300</v>
@@ -2593,13 +2593,13 @@
         <v>-825500</v>
       </c>
       <c r="N44">
-        <v>-6227526000</v>
+        <v>-16122820800</v>
       </c>
       <c r="O44">
         <v>26231700</v>
       </c>
       <c r="P44">
-        <v>467171420000</v>
+        <v>400512146000</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>5100</v>
       </c>
       <c r="E45">
-        <v>29438390000</v>
+        <v>27451478900</v>
       </c>
       <c r="F45">
-        <v>33337870000</v>
+        <v>26249165800</v>
       </c>
       <c r="G45">
         <v>61296000</v>
@@ -2628,13 +2628,13 @@
         <v>3065600</v>
       </c>
       <c r="I45">
-        <v>62837556000</v>
+        <v>53761940700</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-06T10:30:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2885620116000</v>
+        <v>2642278900800</v>
       </c>
       <c r="L45">
         <v>171978900</v>
@@ -2643,13 +2643,13 @@
         <v>-197300</v>
       </c>
       <c r="N45">
-        <v>3899480000</v>
+        <v>-1202313100</v>
       </c>
       <c r="O45">
         <v>26034400</v>
       </c>
       <c r="P45">
-        <v>471070900000</v>
+        <v>399309832900</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>5300</v>
       </c>
       <c r="E46">
-        <v>21666951000</v>
+        <v>19313806500</v>
       </c>
       <c r="F46">
-        <v>32669956000</v>
+        <v>25463969200</v>
       </c>
       <c r="G46">
         <v>134440000</v>
@@ -2678,13 +2678,13 @@
         <v>2987600</v>
       </c>
       <c r="I46">
-        <v>54471347000</v>
+        <v>44912215700</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-06T10:32:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2940091463000</v>
+        <v>2687191116500</v>
       </c>
       <c r="L46">
         <v>174966500</v>
@@ -2693,13 +2693,13 @@
         <v>375500</v>
       </c>
       <c r="N46">
-        <v>11003005000</v>
+        <v>6150162700</v>
       </c>
       <c r="O46">
         <v>26409900</v>
       </c>
       <c r="P46">
-        <v>482073905000</v>
+        <v>405459995600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>35400</v>
       </c>
       <c r="E47">
-        <v>35007288000</v>
+        <v>32458139700</v>
       </c>
       <c r="F47">
-        <v>20759228000</v>
+        <v>15333059600</v>
       </c>
       <c r="G47">
-        <v>597444000</v>
+        <v>590451000</v>
       </c>
       <c r="H47">
         <v>3322100</v>
       </c>
       <c r="I47">
-        <v>56363960000</v>
+        <v>48381650300</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-06T10:34:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2996455423000</v>
+        <v>2735572766800</v>
       </c>
       <c r="L47">
         <v>178288600</v>
@@ -2743,13 +2743,13 @@
         <v>-1055900</v>
       </c>
       <c r="N47">
-        <v>-14248060000</v>
+        <v>-17125080100</v>
       </c>
       <c r="O47">
         <v>25354000</v>
       </c>
       <c r="P47">
-        <v>467825845000</v>
+        <v>388334915500</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>600</v>
       </c>
       <c r="E48">
-        <v>37071510000</v>
+        <v>35342041200</v>
       </c>
       <c r="F48">
-        <v>25081915000</v>
+        <v>19650252100</v>
       </c>
       <c r="G48">
         <v>11810000</v>
@@ -2778,13 +2778,13 @@
         <v>3105400</v>
       </c>
       <c r="I48">
-        <v>62165235000</v>
+        <v>55004103300</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-06T10:36:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3058620658000</v>
+        <v>2790576870100</v>
       </c>
       <c r="L48">
         <v>181394000</v>
@@ -2793,13 +2793,13 @@
         <v>-728000</v>
       </c>
       <c r="N48">
-        <v>-11989595000</v>
+        <v>-15691789100</v>
       </c>
       <c r="O48">
         <v>24626000</v>
       </c>
       <c r="P48">
-        <v>455836250000</v>
+        <v>372643126400</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>9600</v>
       </c>
       <c r="E49">
-        <v>30546584000</v>
+        <v>24862673600</v>
       </c>
       <c r="F49">
-        <v>16673561000</v>
+        <v>14064272900</v>
       </c>
       <c r="G49">
         <v>205141000</v>
@@ -2828,13 +2828,13 @@
         <v>2526900</v>
       </c>
       <c r="I49">
-        <v>47425286000</v>
+        <v>39132087500</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-06T10:38:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3106045944000</v>
+        <v>2829708957600</v>
       </c>
       <c r="L49">
         <v>183920900</v>
@@ -2843,13 +2843,13 @@
         <v>-812300</v>
       </c>
       <c r="N49">
-        <v>-13873023000</v>
+        <v>-10798400700</v>
       </c>
       <c r="O49">
         <v>23813700</v>
       </c>
       <c r="P49">
-        <v>441963227000</v>
+        <v>361844725700</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>20200</v>
       </c>
       <c r="E50">
-        <v>22926044000</v>
+        <v>19921651400</v>
       </c>
       <c r="F50">
-        <v>16222527000</v>
+        <v>14858392500</v>
       </c>
       <c r="G50">
         <v>175345000</v>
@@ -2878,13 +2878,13 @@
         <v>2115000</v>
       </c>
       <c r="I50">
-        <v>39323916000</v>
+        <v>34955388900</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-06T10:40:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3145369860000</v>
+        <v>2864664346500</v>
       </c>
       <c r="L50">
         <v>186035900</v>
@@ -2893,13 +2893,13 @@
         <v>-462600</v>
       </c>
       <c r="N50">
-        <v>-6703517000</v>
+        <v>-5063258900</v>
       </c>
       <c r="O50">
         <v>23351100</v>
       </c>
       <c r="P50">
-        <v>435259710000</v>
+        <v>356781466800</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>13700</v>
       </c>
       <c r="E51">
-        <v>16060113000</v>
+        <v>14649824700</v>
       </c>
       <c r="F51">
-        <v>39827149000</v>
+        <v>35101279600</v>
       </c>
       <c r="G51">
         <v>378905000</v>
@@ -2928,13 +2928,13 @@
         <v>2676700</v>
       </c>
       <c r="I51">
-        <v>56266167000</v>
+        <v>50130009300</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-06T10:42:00.000Z</v>
       </c>
       <c r="K51">
-        <v>3201636027000</v>
+        <v>2914794355800</v>
       </c>
       <c r="L51">
         <v>188712600</v>
@@ -2943,13 +2943,13 @@
         <v>964600</v>
       </c>
       <c r="N51">
-        <v>23767036000</v>
+        <v>20451454900</v>
       </c>
       <c r="O51">
         <v>24315700</v>
       </c>
       <c r="P51">
-        <v>459026746000</v>
+        <v>377232921700</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>4600</v>
       </c>
       <c r="E52">
-        <v>15085849000</v>
+        <v>12752484700</v>
       </c>
       <c r="F52">
-        <v>27924545000</v>
+        <v>26431939100</v>
       </c>
       <c r="G52">
         <v>88903000.00000001</v>
@@ -2978,13 +2978,13 @@
         <v>2473800</v>
       </c>
       <c r="I52">
-        <v>43099297000</v>
+        <v>39273326800</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-06T10:44:00.000Z</v>
       </c>
       <c r="K52">
-        <v>3244735324000</v>
+        <v>2954067682600</v>
       </c>
       <c r="L52">
         <v>191186400</v>
@@ -2993,13 +2993,13 @@
         <v>778800</v>
       </c>
       <c r="N52">
-        <v>12838696000</v>
+        <v>13679454400</v>
       </c>
       <c r="O52">
         <v>25094500</v>
       </c>
       <c r="P52">
-        <v>471865442000</v>
+        <v>390912376100</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>5800</v>
       </c>
       <c r="E53">
-        <v>21310728000</v>
+        <v>20543296200</v>
       </c>
       <c r="F53">
-        <v>22961878000</v>
+        <v>22424116300</v>
       </c>
       <c r="G53">
-        <v>176000000</v>
+        <v>137039000</v>
       </c>
       <c r="H53">
         <v>2223200</v>
       </c>
       <c r="I53">
-        <v>44448606000</v>
+        <v>43104451500</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-06T10:46:00.000Z</v>
       </c>
       <c r="K53">
-        <v>3289183930000</v>
+        <v>2997172134100</v>
       </c>
       <c r="L53">
         <v>193409600</v>
@@ -3043,13 +3043,13 @@
         <v>40200</v>
       </c>
       <c r="N53">
-        <v>1651150000</v>
+        <v>1880820100</v>
       </c>
       <c r="O53">
         <v>25134700</v>
       </c>
       <c r="P53">
-        <v>473516592000</v>
+        <v>392793196200</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>2700</v>
       </c>
       <c r="E54">
-        <v>31322606000</v>
+        <v>29269561100</v>
       </c>
       <c r="F54">
-        <v>14357542000</v>
+        <v>12782718400</v>
       </c>
       <c r="G54">
-        <v>142860000</v>
+        <v>134868000</v>
       </c>
       <c r="H54">
         <v>2377200</v>
       </c>
       <c r="I54">
-        <v>45823008000</v>
+        <v>42187147500</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-06T10:48:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3335006938000</v>
+        <v>3039359281600</v>
       </c>
       <c r="L54">
         <v>195786800</v>
@@ -3093,13 +3093,13 @@
         <v>-900700</v>
       </c>
       <c r="N54">
-        <v>-16965064000</v>
+        <v>-16486842700</v>
       </c>
       <c r="O54">
         <v>24234000</v>
       </c>
       <c r="P54">
-        <v>456551528000</v>
+        <v>376306353500</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>12000</v>
       </c>
       <c r="E55">
-        <v>28868651000</v>
+        <v>24981741800</v>
       </c>
       <c r="F55">
-        <v>57283634000</v>
+        <v>39531903500</v>
       </c>
       <c r="G55">
-        <v>159070000</v>
+        <v>149279800</v>
       </c>
       <c r="H55">
         <v>3959400</v>
       </c>
       <c r="I55">
-        <v>86311355000</v>
+        <v>64662925100</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-06T10:50:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3421318293000</v>
+        <v>3104022206700</v>
       </c>
       <c r="L55">
         <v>199746200</v>
@@ -3143,13 +3143,13 @@
         <v>865600</v>
       </c>
       <c r="N55">
-        <v>28414983000</v>
+        <v>14550161700</v>
       </c>
       <c r="O55">
         <v>25099600</v>
       </c>
       <c r="P55">
-        <v>484966511000</v>
+        <v>390856515200</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>2600</v>
       </c>
       <c r="E56">
-        <v>34462273000</v>
+        <v>25154689900</v>
       </c>
       <c r="F56">
-        <v>27320547000</v>
+        <v>22402969500</v>
       </c>
       <c r="G56">
         <v>49904000</v>
@@ -3178,13 +3178,13 @@
         <v>2855900</v>
       </c>
       <c r="I56">
-        <v>61832724000</v>
+        <v>47607563400</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-06T10:52:00.000Z</v>
       </c>
       <c r="K56">
-        <v>3483151017000</v>
+        <v>3151629770100</v>
       </c>
       <c r="L56">
         <v>202602100</v>
@@ -3193,13 +3193,13 @@
         <v>-376100</v>
       </c>
       <c r="N56">
-        <v>-7141726000</v>
+        <v>-2751720400</v>
       </c>
       <c r="O56">
         <v>24723500</v>
       </c>
       <c r="P56">
-        <v>477824785000</v>
+        <v>388104794800</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>1200</v>
       </c>
       <c r="E57">
-        <v>21712671000</v>
+        <v>19498387500</v>
       </c>
       <c r="F57">
-        <v>20599911000</v>
+        <v>20008503000</v>
       </c>
       <c r="G57">
         <v>33221000</v>
@@ -3228,13 +3228,13 @@
         <v>2362700</v>
       </c>
       <c r="I57">
-        <v>42345803000</v>
+        <v>39540111500</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-06T10:54:00.000Z</v>
       </c>
       <c r="K57">
-        <v>3525496820000</v>
+        <v>3191169881600</v>
       </c>
       <c r="L57">
         <v>204964800</v>
@@ -3243,13 +3243,13 @@
         <v>-64300</v>
       </c>
       <c r="N57">
-        <v>-1112760000</v>
+        <v>510115500</v>
       </c>
       <c r="O57">
         <v>24659200</v>
       </c>
       <c r="P57">
-        <v>476712025000</v>
+        <v>388614910300</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>500</v>
       </c>
       <c r="E58">
-        <v>29671387000</v>
+        <v>28713146200</v>
       </c>
       <c r="F58">
-        <v>27551455000</v>
+        <v>27033773200</v>
       </c>
       <c r="G58">
         <v>6759000</v>
@@ -3278,13 +3278,13 @@
         <v>3316100</v>
       </c>
       <c r="I58">
-        <v>57229601000</v>
+        <v>55753678400</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-06T10:56:00.000Z</v>
       </c>
       <c r="K58">
-        <v>3582726421000</v>
+        <v>3246923560000</v>
       </c>
       <c r="L58">
         <v>208280900</v>
@@ -3293,13 +3293,13 @@
         <v>-111800</v>
       </c>
       <c r="N58">
-        <v>-2119932000</v>
+        <v>-1679373000</v>
       </c>
       <c r="O58">
         <v>24547400</v>
       </c>
       <c r="P58">
-        <v>474592093000</v>
+        <v>386935537300</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>3900</v>
       </c>
       <c r="E59">
-        <v>26677620000</v>
+        <v>25368930000</v>
       </c>
       <c r="F59">
-        <v>44787490000</v>
+        <v>43697481100</v>
       </c>
       <c r="G59">
-        <v>255505000</v>
+        <v>31729000</v>
       </c>
       <c r="H59">
         <v>4303800</v>
       </c>
       <c r="I59">
-        <v>71720615000</v>
+        <v>69098140100</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-06T10:58:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3654447036000</v>
+        <v>3316021700100</v>
       </c>
       <c r="L59">
         <v>212584700</v>
@@ -3343,13 +3343,13 @@
         <v>1242500</v>
       </c>
       <c r="N59">
-        <v>18109870000</v>
+        <v>18328551100</v>
       </c>
       <c r="O59">
         <v>25789900</v>
       </c>
       <c r="P59">
-        <v>492701963000</v>
+        <v>405264088400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>1400</v>
       </c>
       <c r="E60">
-        <v>18184133000</v>
+        <v>17631885800</v>
       </c>
       <c r="F60">
-        <v>111408533000</v>
+        <v>110992249700</v>
       </c>
       <c r="G60">
         <v>63550000</v>
@@ -3378,13 +3378,13 @@
         <v>8884000</v>
       </c>
       <c r="I60">
-        <v>129656216000</v>
+        <v>128687685500</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-06T11:00:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3784103252000</v>
+        <v>3444709385600</v>
       </c>
       <c r="L60">
         <v>221468700</v>
@@ -3393,13 +3393,13 @@
         <v>6777200</v>
       </c>
       <c r="N60">
-        <v>93224400000</v>
+        <v>93360363900</v>
       </c>
       <c r="O60">
         <v>32567100</v>
       </c>
       <c r="P60">
-        <v>585926363000</v>
+        <v>498624452300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>16800</v>
       </c>
       <c r="E61">
-        <v>29456302000</v>
+        <v>29087970700</v>
       </c>
       <c r="F61">
-        <v>69378612000</v>
+        <v>57591011400</v>
       </c>
       <c r="G61">
         <v>527554000</v>
@@ -3428,13 +3428,13 @@
         <v>5895900</v>
       </c>
       <c r="I61">
-        <v>99362468000</v>
+        <v>87206536100</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-06T11:02:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3883465720000</v>
+        <v>3531915921700</v>
       </c>
       <c r="L61">
         <v>227364600</v>
@@ -3443,13 +3443,13 @@
         <v>1878100</v>
       </c>
       <c r="N61">
-        <v>39922310000</v>
+        <v>28503040700</v>
       </c>
       <c r="O61">
         <v>34445200</v>
       </c>
       <c r="P61">
-        <v>625848673000</v>
+        <v>527127493000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>22599106000</v>
+        <v>22180425100</v>
       </c>
       <c r="F62">
-        <v>43171422000</v>
+        <v>42182312100</v>
       </c>
       <c r="G62">
         <v>3520000.0000000005</v>
@@ -3478,13 +3478,13 @@
         <v>3704800</v>
       </c>
       <c r="I62">
-        <v>65774048000</v>
+        <v>64366257200</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-06T11:04:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3949239768000</v>
+        <v>3596282178900</v>
       </c>
       <c r="L62">
         <v>231069400</v>
@@ -3493,13 +3493,13 @@
         <v>1288100</v>
       </c>
       <c r="N62">
-        <v>20572316000</v>
+        <v>20001887000</v>
       </c>
       <c r="O62">
         <v>35733300</v>
       </c>
       <c r="P62">
-        <v>646420989000</v>
+        <v>547129380000</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>1700</v>
       </c>
       <c r="E63">
-        <v>25408600000</v>
+        <v>23931978100</v>
       </c>
       <c r="F63">
-        <v>58550247000</v>
+        <v>52264239300</v>
       </c>
       <c r="G63">
         <v>27924000</v>
@@ -3528,13 +3528,13 @@
         <v>4779900</v>
       </c>
       <c r="I63">
-        <v>83986771000</v>
+        <v>76224141400</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-06T11:06:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4033226539000</v>
+        <v>3672506320300</v>
       </c>
       <c r="L63">
         <v>235849300</v>
@@ -3543,13 +3543,13 @@
         <v>1800400</v>
       </c>
       <c r="N63">
-        <v>33141647000</v>
+        <v>28332261200</v>
       </c>
       <c r="O63">
         <v>37533700</v>
       </c>
       <c r="P63">
-        <v>679562636000</v>
+        <v>575461641200</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>2400</v>
       </c>
       <c r="E64">
-        <v>21479706000</v>
+        <v>19926061200</v>
       </c>
       <c r="F64">
-        <v>41033832000</v>
+        <v>38326542000</v>
       </c>
       <c r="G64">
-        <v>43634000</v>
+        <v>36141500</v>
       </c>
       <c r="H64">
         <v>3684000</v>
       </c>
       <c r="I64">
-        <v>62557172000</v>
+        <v>58288744700</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-06T11:08:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4095783711000</v>
+        <v>3730795065000</v>
       </c>
       <c r="L64">
         <v>239533300</v>
@@ -3593,13 +3593,13 @@
         <v>1036200</v>
       </c>
       <c r="N64">
-        <v>19554126000</v>
+        <v>18400480800</v>
       </c>
       <c r="O64">
         <v>38569900</v>
       </c>
       <c r="P64">
-        <v>699116762000</v>
+        <v>593862122000</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>21200</v>
       </c>
       <c r="E65">
-        <v>24134506000</v>
+        <v>23966574100</v>
       </c>
       <c r="F65">
-        <v>89490323000</v>
+        <v>83994724100</v>
       </c>
       <c r="G65">
         <v>399010000</v>
@@ -3628,13 +3628,13 @@
         <v>6397100</v>
       </c>
       <c r="I65">
-        <v>114023839000</v>
+        <v>108360308200</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-06T11:10:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4209807550000</v>
+        <v>3839155373200</v>
       </c>
       <c r="L65">
         <v>245930400</v>
@@ -3643,13 +3643,13 @@
         <v>3656900</v>
       </c>
       <c r="N65">
-        <v>65355817000</v>
+        <v>60028150000</v>
       </c>
       <c r="O65">
         <v>42226800</v>
       </c>
       <c r="P65">
-        <v>764472579000</v>
+        <v>653890272000</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>9600</v>
       </c>
       <c r="E66">
-        <v>25209678000</v>
+        <v>24223665000</v>
       </c>
       <c r="F66">
-        <v>68898125000</v>
+        <v>60883847300</v>
       </c>
       <c r="G66">
         <v>319910000</v>
@@ -3678,13 +3678,13 @@
         <v>5379500</v>
       </c>
       <c r="I66">
-        <v>94427713000</v>
+        <v>85427422300</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-06T11:12:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4304235263000</v>
+        <v>3924582795500</v>
       </c>
       <c r="L66">
         <v>251309900</v>
@@ -3693,13 +3693,13 @@
         <v>2408500</v>
       </c>
       <c r="N66">
-        <v>43688447000</v>
+        <v>36660182300</v>
       </c>
       <c r="O66">
         <v>44635300</v>
       </c>
       <c r="P66">
-        <v>808161026000</v>
+        <v>690550454300</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>4500</v>
       </c>
       <c r="E67">
-        <v>25169879000</v>
+        <v>24556393100</v>
       </c>
       <c r="F67">
-        <v>71712821000</v>
+        <v>48873283400</v>
       </c>
       <c r="G67">
         <v>39275000</v>
@@ -3728,13 +3728,13 @@
         <v>5737600</v>
       </c>
       <c r="I67">
-        <v>96921975000</v>
+        <v>73468951500</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-06T11:14:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4401157238000</v>
+        <v>3998051747000</v>
       </c>
       <c r="L67">
         <v>257047500</v>
@@ -3743,13 +3743,13 @@
         <v>2754700</v>
       </c>
       <c r="N67">
-        <v>46542942000</v>
+        <v>24316890300</v>
       </c>
       <c r="O67">
         <v>47390000</v>
       </c>
       <c r="P67">
-        <v>854703968000</v>
+        <v>714867344600</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>8900</v>
       </c>
       <c r="E68">
-        <v>29686567000</v>
+        <v>28681073500</v>
       </c>
       <c r="F68">
-        <v>52712839000</v>
+        <v>44450010100</v>
       </c>
       <c r="G68">
         <v>119505000</v>
@@ -3778,13 +3778,13 @@
         <v>4754700</v>
       </c>
       <c r="I68">
-        <v>82518911000</v>
+        <v>73250588600</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-06T11:16:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4483676149000</v>
+        <v>4071302335600</v>
       </c>
       <c r="L68">
         <v>261802200</v>
@@ -3793,13 +3793,13 @@
         <v>968600</v>
       </c>
       <c r="N68">
-        <v>23026272000</v>
+        <v>15768936600</v>
       </c>
       <c r="O68">
         <v>48358600</v>
       </c>
       <c r="P68">
-        <v>877730240000</v>
+        <v>730636281200</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>3000</v>
       </c>
       <c r="E69">
-        <v>27308954000</v>
+        <v>26891072300</v>
       </c>
       <c r="F69">
-        <v>42059494000</v>
+        <v>35805154600</v>
       </c>
       <c r="G69">
         <v>20357000</v>
@@ -3828,13 +3828,13 @@
         <v>3738100</v>
       </c>
       <c r="I69">
-        <v>69388805000</v>
+        <v>62716583900</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-06T11:18:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4553064954000</v>
+        <v>4134018919500</v>
       </c>
       <c r="L69">
         <v>265540300</v>
@@ -3843,13 +3843,13 @@
         <v>930900</v>
       </c>
       <c r="N69">
-        <v>14750540000</v>
+        <v>8914082300</v>
       </c>
       <c r="O69">
         <v>49289500</v>
       </c>
       <c r="P69">
-        <v>892480780000</v>
+        <v>739550363500</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>16100</v>
       </c>
       <c r="E70">
-        <v>45594635000</v>
+        <v>36891946400</v>
       </c>
       <c r="F70">
-        <v>22764988000</v>
+        <v>17349409000</v>
       </c>
       <c r="G70">
         <v>157388000</v>
@@ -3878,13 +3878,13 @@
         <v>3831800</v>
       </c>
       <c r="I70">
-        <v>68517011000</v>
+        <v>54398743400</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-06T11:20:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4621581965000</v>
+        <v>4188417662900</v>
       </c>
       <c r="L70">
         <v>269372100</v>
@@ -3893,13 +3893,13 @@
         <v>-945700</v>
       </c>
       <c r="N70">
-        <v>-22829647000</v>
+        <v>-19542537400</v>
       </c>
       <c r="O70">
         <v>48343800</v>
       </c>
       <c r="P70">
-        <v>869651133000</v>
+        <v>720007826100</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>23800</v>
       </c>
       <c r="E71">
-        <v>39492162000</v>
+        <v>35732625300</v>
       </c>
       <c r="F71">
-        <v>36786024000</v>
+        <v>34002110700</v>
       </c>
       <c r="G71">
         <v>401573000</v>
@@ -3928,13 +3928,13 @@
         <v>4202300</v>
       </c>
       <c r="I71">
-        <v>76679759000</v>
+        <v>70136309000</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-06T11:22:00.000Z</v>
       </c>
       <c r="K71">
-        <v>4698261724000</v>
+        <v>4258553971900</v>
       </c>
       <c r="L71">
         <v>273574400</v>
@@ -3943,13 +3943,13 @@
         <v>-630500</v>
       </c>
       <c r="N71">
-        <v>-2706138000</v>
+        <v>-1730514600</v>
       </c>
       <c r="O71">
         <v>47713300</v>
       </c>
       <c r="P71">
-        <v>866944995000</v>
+        <v>718277311500</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>5100</v>
       </c>
       <c r="E72">
-        <v>24322129000</v>
+        <v>21170983300</v>
       </c>
       <c r="F72">
-        <v>18285833000</v>
+        <v>16419800900</v>
       </c>
       <c r="G72">
         <v>46256000</v>
@@ -3978,13 +3978,13 @@
         <v>2616000</v>
       </c>
       <c r="I72">
-        <v>42654218000</v>
+        <v>37637040200</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-06T11:24:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4740915942000</v>
+        <v>4296191012100</v>
       </c>
       <c r="L72">
         <v>276190400</v>
@@ -3993,13 +3993,13 @@
         <v>-363300</v>
       </c>
       <c r="N72">
-        <v>-6036296000</v>
+        <v>-4751182400</v>
       </c>
       <c r="O72">
         <v>47350000</v>
       </c>
       <c r="P72">
-        <v>860908699000</v>
+        <v>713526129100</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>3300</v>
       </c>
       <c r="E73">
-        <v>40659995000</v>
+        <v>39293363000</v>
       </c>
       <c r="F73">
-        <v>20613766000</v>
+        <v>16621961800</v>
       </c>
       <c r="G73">
         <v>145922000</v>
@@ -4028,13 +4028,13 @@
         <v>3364100</v>
       </c>
       <c r="I73">
-        <v>61419683000</v>
+        <v>56061246800</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-06T11:26:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4802335625000</v>
+        <v>4352252258900</v>
       </c>
       <c r="L73">
         <v>279554500</v>
@@ -4043,13 +4043,13 @@
         <v>-1267000</v>
       </c>
       <c r="N73">
-        <v>-20046229000</v>
+        <v>-22671401200</v>
       </c>
       <c r="O73">
         <v>46083000</v>
       </c>
       <c r="P73">
-        <v>840862470000</v>
+        <v>690854727900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>3300</v>
       </c>
       <c r="E74">
-        <v>46927926000</v>
+        <v>46056098700</v>
       </c>
       <c r="F74">
-        <v>22619891000</v>
+        <v>21658453400</v>
       </c>
       <c r="G74">
         <v>49587000</v>
@@ -4078,13 +4078,13 @@
         <v>4262300</v>
       </c>
       <c r="I74">
-        <v>69597404000</v>
+        <v>67764139100</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-06T11:28:00.000Z</v>
       </c>
       <c r="K74">
-        <v>4871933029000</v>
+        <v>4420016398000</v>
       </c>
       <c r="L74">
         <v>283816800</v>
@@ -4093,13 +4093,13 @@
         <v>-1609800</v>
       </c>
       <c r="N74">
-        <v>-24308035000</v>
+        <v>-24397645300</v>
       </c>
       <c r="O74">
         <v>44473200</v>
       </c>
       <c r="P74">
-        <v>816554435000</v>
+        <v>666457082600</v>
       </c>
     </row>
     <row r="75">
@@ -4134,7 +4134,7 @@
         <v>2023-01-06T11:30:00.000Z</v>
       </c>
       <c r="K75">
-        <v>4872031284000</v>
+        <v>4420114653000</v>
       </c>
       <c r="L75">
         <v>283823400</v>
@@ -4149,7 +4149,7 @@
         <v>44466800</v>
       </c>
       <c r="P75">
-        <v>816461170000</v>
+        <v>666363817600</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>173900</v>
       </c>
       <c r="E76">
-        <v>104563624000</v>
+        <v>95477818900</v>
       </c>
       <c r="F76">
-        <v>50635890000</v>
+        <v>48171057300</v>
       </c>
       <c r="G76">
-        <v>2952850000</v>
+        <v>2792510500</v>
       </c>
       <c r="H76">
         <v>8934800</v>
       </c>
       <c r="I76">
-        <v>158152364000</v>
+        <v>146441386700</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-06T13:00:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5030183648000</v>
+        <v>4566556039700</v>
       </c>
       <c r="L76">
         <v>292758200</v>
@@ -4193,13 +4193,13 @@
         <v>-2554700</v>
       </c>
       <c r="N76">
-        <v>-53927734000</v>
+        <v>-47306761600</v>
       </c>
       <c r="O76">
         <v>41912100</v>
       </c>
       <c r="P76">
-        <v>762533436000</v>
+        <v>619057056000</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>12300</v>
       </c>
       <c r="E77">
-        <v>51255346000</v>
+        <v>50232769600</v>
       </c>
       <c r="F77">
-        <v>18894088000</v>
+        <v>17914568500</v>
       </c>
       <c r="G77">
         <v>215128000</v>
@@ -4228,13 +4228,13 @@
         <v>4259700</v>
       </c>
       <c r="I77">
-        <v>70364562000</v>
+        <v>68362466100</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-06T13:02:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5100548210000</v>
+        <v>4634918505800</v>
       </c>
       <c r="L77">
         <v>297017900</v>
@@ -4243,13 +4243,13 @@
         <v>-2006000</v>
       </c>
       <c r="N77">
-        <v>-32361258000</v>
+        <v>-32318201100</v>
       </c>
       <c r="O77">
         <v>39906100</v>
       </c>
       <c r="P77">
-        <v>730172178000</v>
+        <v>586738854900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>17700</v>
       </c>
       <c r="E78">
-        <v>47386205000</v>
+        <v>40047850700</v>
       </c>
       <c r="F78">
-        <v>22961878000</v>
+        <v>19656586600</v>
       </c>
       <c r="G78">
         <v>293211000</v>
@@ -4278,13 +4278,13 @@
         <v>4747300</v>
       </c>
       <c r="I78">
-        <v>70641294000</v>
+        <v>59997648300</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-06T13:04:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5171189504000</v>
+        <v>4694916154100</v>
       </c>
       <c r="L78">
         <v>301765200</v>
@@ -4293,13 +4293,13 @@
         <v>-1880000</v>
       </c>
       <c r="N78">
-        <v>-24424327000</v>
+        <v>-20391264100</v>
       </c>
       <c r="O78">
         <v>38026100</v>
       </c>
       <c r="P78">
-        <v>705747851000</v>
+        <v>566347590800</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>14500</v>
       </c>
       <c r="E79">
-        <v>58623977000</v>
+        <v>52373933300</v>
       </c>
       <c r="F79">
-        <v>15312842000</v>
+        <v>12421835900</v>
       </c>
       <c r="G79">
         <v>239099000</v>
@@ -4328,13 +4328,13 @@
         <v>4506000</v>
       </c>
       <c r="I79">
-        <v>74175918000</v>
+        <v>65034868200</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-06T13:06:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5245365422000</v>
+        <v>4759951022300</v>
       </c>
       <c r="L79">
         <v>306271200</v>
@@ -4343,13 +4343,13 @@
         <v>-2381500</v>
       </c>
       <c r="N79">
-        <v>-43311135000</v>
+        <v>-39952097400</v>
       </c>
       <c r="O79">
         <v>35644600</v>
       </c>
       <c r="P79">
-        <v>662436716000</v>
+        <v>526395493400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>9700</v>
       </c>
       <c r="E80">
-        <v>40678497000</v>
+        <v>36878301000</v>
       </c>
       <c r="F80">
-        <v>21156859000</v>
+        <v>19720596700</v>
       </c>
       <c r="G80">
         <v>194660000</v>
@@ -4378,13 +4378,13 @@
         <v>3778700</v>
       </c>
       <c r="I80">
-        <v>62030016000</v>
+        <v>56793557700</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-06T13:08:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5307395438000</v>
+        <v>4816744580000</v>
       </c>
       <c r="L80">
         <v>310049900</v>
@@ -4393,13 +4393,13 @@
         <v>-1439600</v>
       </c>
       <c r="N80">
-        <v>-19521638000</v>
+        <v>-17157704300</v>
       </c>
       <c r="O80">
         <v>34205000</v>
       </c>
       <c r="P80">
-        <v>642915078000</v>
+        <v>509237789100</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>500</v>
       </c>
       <c r="E81">
-        <v>39681774000</v>
+        <v>32031432000</v>
       </c>
       <c r="F81">
-        <v>27630294000</v>
+        <v>25044282600</v>
       </c>
       <c r="G81">
         <v>14600000</v>
@@ -4428,13 +4428,13 @@
         <v>3813200</v>
       </c>
       <c r="I81">
-        <v>67326668000</v>
+        <v>57090314600</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-06T13:10:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5374722106000</v>
+        <v>4873834894600</v>
       </c>
       <c r="L81">
         <v>313863100</v>
@@ -4443,13 +4443,13 @@
         <v>-488300</v>
       </c>
       <c r="N81">
-        <v>-12051480000</v>
+        <v>-6987149400</v>
       </c>
       <c r="O81">
         <v>33716700</v>
       </c>
       <c r="P81">
-        <v>630863598000</v>
+        <v>502250639700</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>90400</v>
       </c>
       <c r="E82">
-        <v>41657446000</v>
+        <v>40237167700</v>
       </c>
       <c r="F82">
-        <v>25877725000</v>
+        <v>24249554800</v>
       </c>
       <c r="G82">
-        <v>1340908000</v>
+        <v>1204644400</v>
       </c>
       <c r="H82">
         <v>3897500</v>
       </c>
       <c r="I82">
-        <v>68876079000</v>
+        <v>65691366900</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-06T13:12:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5443598185000</v>
+        <v>4939526261500</v>
       </c>
       <c r="L82">
         <v>317760600</v>
@@ -4493,13 +4493,13 @@
         <v>-301300</v>
       </c>
       <c r="N82">
-        <v>-15779721000</v>
+        <v>-15987612900</v>
       </c>
       <c r="O82">
         <v>33415400</v>
       </c>
       <c r="P82">
-        <v>615083877000</v>
+        <v>486263026800</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>5400</v>
       </c>
       <c r="E83">
-        <v>63065484000</v>
+        <v>57164790600</v>
       </c>
       <c r="F83">
-        <v>72137294000</v>
+        <v>70870861700</v>
       </c>
       <c r="G83">
         <v>159050000</v>
@@ -4528,13 +4528,13 @@
         <v>8204600</v>
       </c>
       <c r="I83">
-        <v>135361828000</v>
+        <v>128194702300</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-06T13:14:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5578960013000</v>
+        <v>5067720963800</v>
       </c>
       <c r="L83">
         <v>325965200</v>
@@ -4543,13 +4543,13 @@
         <v>1252400</v>
       </c>
       <c r="N83">
-        <v>9071810000</v>
+        <v>13706071100</v>
       </c>
       <c r="O83">
         <v>34667800</v>
       </c>
       <c r="P83">
-        <v>624155687000</v>
+        <v>499969097900</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>9800</v>
       </c>
       <c r="E84">
-        <v>60904576000</v>
+        <v>58919662900</v>
       </c>
       <c r="F84">
-        <v>18092743000</v>
+        <v>17182953700</v>
       </c>
       <c r="G84">
         <v>149459000</v>
@@ -4578,13 +4578,13 @@
         <v>4229800</v>
       </c>
       <c r="I84">
-        <v>79146778000</v>
+        <v>76252075600</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-06T13:16:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5658106791000</v>
+        <v>5143973039400</v>
       </c>
       <c r="L84">
         <v>330195000</v>
@@ -4593,13 +4593,13 @@
         <v>-2071400</v>
       </c>
       <c r="N84">
-        <v>-42811833000</v>
+        <v>-41736709200</v>
       </c>
       <c r="O84">
         <v>32596400</v>
       </c>
       <c r="P84">
-        <v>581343854000</v>
+        <v>458232388700</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>14800</v>
       </c>
       <c r="E85">
-        <v>46856758000</v>
+        <v>40842778000</v>
       </c>
       <c r="F85">
-        <v>22853240000</v>
+        <v>22215578300</v>
       </c>
       <c r="G85">
         <v>438249000</v>
@@ -4628,13 +4628,13 @@
         <v>4201100</v>
       </c>
       <c r="I85">
-        <v>70148247000</v>
+        <v>63496605300</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-06T13:18:00.000Z</v>
       </c>
       <c r="K85">
-        <v>5728255038000</v>
+        <v>5207469644700</v>
       </c>
       <c r="L85">
         <v>334396100</v>
@@ -4643,13 +4643,13 @@
         <v>-1307700</v>
       </c>
       <c r="N85">
-        <v>-24003518000</v>
+        <v>-18627199700</v>
       </c>
       <c r="O85">
         <v>31288700</v>
       </c>
       <c r="P85">
-        <v>557340336000</v>
+        <v>439605189000</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>67200</v>
       </c>
       <c r="E86">
-        <v>50255935000</v>
+        <v>48488104600</v>
       </c>
       <c r="F86">
-        <v>23529571000</v>
+        <v>23049351700</v>
       </c>
       <c r="G86">
         <v>491560000</v>
@@ -4678,13 +4678,13 @@
         <v>4529600</v>
       </c>
       <c r="I86">
-        <v>74277066000</v>
+        <v>72029016300</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-06T13:20:00.000Z</v>
       </c>
       <c r="K86">
-        <v>5802532104000</v>
+        <v>5279498661000</v>
       </c>
       <c r="L86">
         <v>338925700</v>
@@ -4693,13 +4693,13 @@
         <v>-1902000</v>
       </c>
       <c r="N86">
-        <v>-26726364000</v>
+        <v>-25438752900</v>
       </c>
       <c r="O86">
         <v>29386700</v>
       </c>
       <c r="P86">
-        <v>530613972000</v>
+        <v>414166436100</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>47500</v>
       </c>
       <c r="E87">
-        <v>85826434000</v>
+        <v>80370295600</v>
       </c>
       <c r="F87">
-        <v>21511375000</v>
+        <v>20045442400</v>
       </c>
       <c r="G87">
         <v>741104000</v>
@@ -4728,13 +4728,13 @@
         <v>5865800</v>
       </c>
       <c r="I87">
-        <v>108078913000</v>
+        <v>101156842000</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-06T13:22:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5910611017000</v>
+        <v>5380655503000</v>
       </c>
       <c r="L87">
         <v>344791500</v>
@@ -4743,13 +4743,13 @@
         <v>-3392300</v>
       </c>
       <c r="N87">
-        <v>-64315059000</v>
+        <v>-60324853200</v>
       </c>
       <c r="O87">
         <v>25994400</v>
       </c>
       <c r="P87">
-        <v>466298913000</v>
+        <v>353841582900</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>10700</v>
       </c>
       <c r="E88">
-        <v>87505228000</v>
+        <v>75224920600</v>
       </c>
       <c r="F88">
-        <v>18154238000</v>
+        <v>17638754000</v>
       </c>
       <c r="G88">
-        <v>308917000</v>
+        <v>292133800</v>
       </c>
       <c r="H88">
         <v>6049300</v>
       </c>
       <c r="I88">
-        <v>105968383000</v>
+        <v>93155808400</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-06T13:24:00.000Z</v>
       </c>
       <c r="K88">
-        <v>6016579400000</v>
+        <v>5473811311400</v>
       </c>
       <c r="L88">
         <v>350840800</v>
@@ -4793,13 +4793,13 @@
         <v>-3818600</v>
       </c>
       <c r="N88">
-        <v>-69350990000</v>
+        <v>-57586166600</v>
       </c>
       <c r="O88">
         <v>22175800</v>
       </c>
       <c r="P88">
-        <v>396947923000</v>
+        <v>296255416300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>21400</v>
       </c>
       <c r="E89">
-        <v>75916698000</v>
+        <v>66437586600</v>
       </c>
       <c r="F89">
-        <v>19864869000</v>
+        <v>17667468600</v>
       </c>
       <c r="G89">
         <v>276664000</v>
@@ -4828,13 +4828,13 @@
         <v>5713100</v>
       </c>
       <c r="I89">
-        <v>96058231000</v>
+        <v>84381719200</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-06T13:26:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6112637631000</v>
+        <v>5558193030600</v>
       </c>
       <c r="L89">
         <v>356553900</v>
@@ -4843,13 +4843,13 @@
         <v>-3427900</v>
       </c>
       <c r="N89">
-        <v>-56051829000</v>
+        <v>-48770118000</v>
       </c>
       <c r="O89">
         <v>18747900</v>
       </c>
       <c r="P89">
-        <v>340896094000</v>
+        <v>247485298300</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>20600</v>
       </c>
       <c r="E90">
-        <v>41488919000</v>
+        <v>39015894500</v>
       </c>
       <c r="F90">
-        <v>42015161000</v>
+        <v>39280798100</v>
       </c>
       <c r="G90">
         <v>423861000</v>
@@ -4878,13 +4878,13 @@
         <v>4993900</v>
       </c>
       <c r="I90">
-        <v>83927941000</v>
+        <v>78720553600</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-06T13:28:00.000Z</v>
       </c>
       <c r="K90">
-        <v>6196565572000</v>
+        <v>5636913584200</v>
       </c>
       <c r="L90">
         <v>361547800</v>
@@ -4893,13 +4893,13 @@
         <v>-126500</v>
       </c>
       <c r="N90">
-        <v>526242000</v>
+        <v>264903600</v>
       </c>
       <c r="O90">
         <v>18621400</v>
       </c>
       <c r="P90">
-        <v>341422336000</v>
+        <v>247750201900</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>28400</v>
       </c>
       <c r="E91">
-        <v>38379636000</v>
+        <v>36918198900</v>
       </c>
       <c r="F91">
-        <v>20080578000</v>
+        <v>18445614600</v>
       </c>
       <c r="G91">
-        <v>865290000</v>
+        <v>860794500</v>
       </c>
       <c r="H91">
         <v>3144300</v>
       </c>
       <c r="I91">
-        <v>59325504000</v>
+        <v>56224608000</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-06T13:30:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6255891076000</v>
+        <v>5693138192200</v>
       </c>
       <c r="L91">
         <v>364692100</v>
@@ -4943,13 +4943,13 @@
         <v>-801300</v>
       </c>
       <c r="N91">
-        <v>-18299058000</v>
+        <v>-18472584300</v>
       </c>
       <c r="O91">
         <v>17820100</v>
       </c>
       <c r="P91">
-        <v>323123278000</v>
+        <v>229277617600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>4500</v>
       </c>
       <c r="E92">
-        <v>52806430000</v>
+        <v>46872370000</v>
       </c>
       <c r="F92">
-        <v>17888927000</v>
+        <v>17336679800</v>
       </c>
       <c r="G92">
         <v>40122000</v>
@@ -4978,13 +4978,13 @@
         <v>3697200</v>
       </c>
       <c r="I92">
-        <v>70735479000</v>
+        <v>64249171800</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-06T13:32:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6326626555000</v>
+        <v>5757387364000</v>
       </c>
       <c r="L92">
         <v>368389300</v>
@@ -4993,13 +4993,13 @@
         <v>-1714900</v>
       </c>
       <c r="N92">
-        <v>-34917503000</v>
+        <v>-29535690200</v>
       </c>
       <c r="O92">
         <v>16105200</v>
       </c>
       <c r="P92">
-        <v>288205775000</v>
+        <v>199741927400</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>10900</v>
       </c>
       <c r="E93">
-        <v>48127151000</v>
+        <v>44936844500</v>
       </c>
       <c r="F93">
-        <v>14037510000</v>
+        <v>13390557600</v>
       </c>
       <c r="G93">
-        <v>304545000</v>
+        <v>290559000</v>
       </c>
       <c r="H93">
         <v>3182500</v>
       </c>
       <c r="I93">
-        <v>62469206000</v>
+        <v>58617961100</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-06T13:34:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6389095761000</v>
+        <v>5816005325100</v>
       </c>
       <c r="L93">
         <v>371571800</v>
@@ -5043,13 +5043,13 @@
         <v>-1771600</v>
       </c>
       <c r="N93">
-        <v>-34089641000</v>
+        <v>-31546286900</v>
       </c>
       <c r="O93">
         <v>14333600</v>
       </c>
       <c r="P93">
-        <v>254116134000</v>
+        <v>168195640500</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>10400</v>
       </c>
       <c r="E94">
-        <v>79549297000</v>
+        <v>75882867100</v>
       </c>
       <c r="F94">
-        <v>19675896000</v>
+        <v>18740931900</v>
       </c>
       <c r="G94">
         <v>256635000</v>
@@ -5078,13 +5078,13 @@
         <v>5478800</v>
       </c>
       <c r="I94">
-        <v>99481828000</v>
+        <v>94880434000</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-06T13:36:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6488577589000</v>
+        <v>5910885759100</v>
       </c>
       <c r="L94">
         <v>377050600</v>
@@ -5093,13 +5093,13 @@
         <v>-3438000</v>
       </c>
       <c r="N94">
-        <v>-59873401000</v>
+        <v>-57141935200</v>
       </c>
       <c r="O94">
         <v>10895600</v>
       </c>
       <c r="P94">
-        <v>194242733000</v>
+        <v>111053705300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>10400</v>
       </c>
       <c r="E95">
-        <v>77365785000</v>
+        <v>74693460000</v>
       </c>
       <c r="F95">
-        <v>19833187000</v>
+        <v>19529391100</v>
       </c>
       <c r="G95">
         <v>177697000</v>
@@ -5128,13 +5128,13 @@
         <v>5337300</v>
       </c>
       <c r="I95">
-        <v>97376669000</v>
+        <v>94400548100</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-06T13:38:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6585954258000</v>
+        <v>6005286307200</v>
       </c>
       <c r="L95">
         <v>382387900</v>
@@ -5143,13 +5143,13 @@
         <v>-3096700</v>
       </c>
       <c r="N95">
-        <v>-57532598000</v>
+        <v>-55164068900</v>
       </c>
       <c r="O95">
         <v>7798900</v>
       </c>
       <c r="P95">
-        <v>136710135000</v>
+        <v>55889636400</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>19200</v>
       </c>
       <c r="E96">
-        <v>57960477000</v>
+        <v>54594346500</v>
       </c>
       <c r="F96">
-        <v>36179816000</v>
+        <v>33730068200</v>
       </c>
       <c r="G96">
         <v>425187000</v>
@@ -5178,13 +5178,13 @@
         <v>5664300</v>
       </c>
       <c r="I96">
-        <v>94565480000</v>
+        <v>88749601700</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-06T13:40:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6680519738000</v>
+        <v>6094035908900</v>
       </c>
       <c r="L96">
         <v>388052200</v>
@@ -5193,13 +5193,13 @@
         <v>-1318300</v>
       </c>
       <c r="N96">
-        <v>-21780661000</v>
+        <v>-20864278300</v>
       </c>
       <c r="O96">
         <v>6480600</v>
       </c>
       <c r="P96">
-        <v>114929474000</v>
+        <v>35025358100</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>36500</v>
       </c>
       <c r="E97">
-        <v>31040481000</v>
+        <v>27613911000</v>
       </c>
       <c r="F97">
-        <v>55632465000</v>
+        <v>51529971600</v>
       </c>
       <c r="G97">
-        <v>610595000</v>
+        <v>526679000</v>
       </c>
       <c r="H97">
         <v>5138200</v>
       </c>
       <c r="I97">
-        <v>87283541000</v>
+        <v>79670561600</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-06T13:42:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6767803279000</v>
+        <v>6173706470500</v>
       </c>
       <c r="L97">
         <v>393190400</v>
@@ -5243,13 +5243,13 @@
         <v>1246700</v>
       </c>
       <c r="N97">
-        <v>24591984000</v>
+        <v>23916060600</v>
       </c>
       <c r="O97">
         <v>7727300</v>
       </c>
       <c r="P97">
-        <v>139521458000</v>
+        <v>58941418700</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>21100</v>
       </c>
       <c r="E98">
-        <v>28442365000</v>
+        <v>27732575500</v>
       </c>
       <c r="F98">
-        <v>47586466000</v>
+        <v>43589467000</v>
       </c>
       <c r="G98">
-        <v>721935000</v>
+        <v>575082000</v>
       </c>
       <c r="H98">
         <v>4201800</v>
       </c>
       <c r="I98">
-        <v>76750766000</v>
+        <v>71897124500</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-06T13:44:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6844554045000</v>
+        <v>6245603595000</v>
       </c>
       <c r="L98">
         <v>397392200</v>
@@ -5293,13 +5293,13 @@
         <v>1125300</v>
       </c>
       <c r="N98">
-        <v>19144101000</v>
+        <v>15856891500</v>
       </c>
       <c r="O98">
         <v>8852600</v>
       </c>
       <c r="P98">
-        <v>158665559000</v>
+        <v>74798310200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>11500</v>
       </c>
       <c r="E99">
-        <v>24997860000</v>
+        <v>22904755200</v>
       </c>
       <c r="F99">
-        <v>29181287000</v>
+        <v>26624246600</v>
       </c>
       <c r="G99">
-        <v>195555000</v>
+        <v>55695000</v>
       </c>
       <c r="H99">
         <v>2975200</v>
       </c>
       <c r="I99">
-        <v>54374702000</v>
+        <v>49584696800</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-06T13:46:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6898928747000</v>
+        <v>6295188291800</v>
       </c>
       <c r="L99">
         <v>400367400</v>
@@ -5343,13 +5343,13 @@
         <v>197700</v>
       </c>
       <c r="N99">
-        <v>4183427000</v>
+        <v>3719491400</v>
       </c>
       <c r="O99">
         <v>9050300</v>
       </c>
       <c r="P99">
-        <v>162848986000</v>
+        <v>78517801600</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>220500</v>
       </c>
       <c r="E100">
-        <v>45623142000</v>
+        <v>44194771800</v>
       </c>
       <c r="F100">
-        <v>22293163000</v>
+        <v>21427629400</v>
       </c>
       <c r="G100">
         <v>1181980000</v>
@@ -5378,13 +5378,13 @@
         <v>3981300</v>
       </c>
       <c r="I100">
-        <v>69098285000</v>
+        <v>66804381200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-06T13:48:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6968027032000</v>
+        <v>6361992673000</v>
       </c>
       <c r="L100">
         <v>404348700</v>
@@ -5393,13 +5393,13 @@
         <v>-1043200</v>
       </c>
       <c r="N100">
-        <v>-23329979000</v>
+        <v>-22767142400</v>
       </c>
       <c r="O100">
         <v>8007100</v>
       </c>
       <c r="P100">
-        <v>139519007000</v>
+        <v>55750659200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>2600</v>
       </c>
       <c r="E101">
-        <v>19127308000</v>
+        <v>18750784900</v>
       </c>
       <c r="F101">
-        <v>19763496000</v>
+        <v>19126333800</v>
       </c>
       <c r="G101">
         <v>47836000</v>
@@ -5428,13 +5428,13 @@
         <v>2456100</v>
       </c>
       <c r="I101">
-        <v>38938640000</v>
+        <v>37924954700</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-06T13:50:00.000Z</v>
       </c>
       <c r="K101">
-        <v>7006965672000</v>
+        <v>6399917627700</v>
       </c>
       <c r="L101">
         <v>406804800</v>
@@ -5443,13 +5443,13 @@
         <v>60300</v>
       </c>
       <c r="N101">
-        <v>636188000</v>
+        <v>375548900</v>
       </c>
       <c r="O101">
         <v>8067400</v>
       </c>
       <c r="P101">
-        <v>140155195000</v>
+        <v>56126208100</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>9600</v>
       </c>
       <c r="E102">
-        <v>23540969000</v>
+        <v>23420789300</v>
       </c>
       <c r="F102">
-        <v>24618130000</v>
+        <v>23752396600</v>
       </c>
       <c r="G102">
         <v>53346000</v>
@@ -5478,13 +5478,13 @@
         <v>3117900</v>
       </c>
       <c r="I102">
-        <v>48212445000</v>
+        <v>47226531900</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-06T13:52:00.000Z</v>
       </c>
       <c r="K102">
-        <v>7055178117000</v>
+        <v>6447144159600</v>
       </c>
       <c r="L102">
         <v>409922700</v>
@@ -5493,13 +5493,13 @@
         <v>-271900</v>
       </c>
       <c r="N102">
-        <v>1077161000</v>
+        <v>331607300</v>
       </c>
       <c r="O102">
         <v>7795500</v>
       </c>
       <c r="P102">
-        <v>141232356000</v>
+        <v>56457815400</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>75000</v>
       </c>
       <c r="E103">
-        <v>22397303000</v>
+        <v>21373028300</v>
       </c>
       <c r="F103">
-        <v>34197250000</v>
+        <v>31762087600</v>
       </c>
       <c r="G103">
         <v>838556000</v>
@@ -5528,13 +5528,13 @@
         <v>3157600</v>
       </c>
       <c r="I103">
-        <v>57433109000</v>
+        <v>53973671900</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-06T13:54:00.000Z</v>
       </c>
       <c r="K103">
-        <v>7112611226000</v>
+        <v>6501117831500</v>
       </c>
       <c r="L103">
         <v>413080300</v>
@@ -5543,13 +5543,13 @@
         <v>479600</v>
       </c>
       <c r="N103">
-        <v>11799947000</v>
+        <v>10389059300</v>
       </c>
       <c r="O103">
         <v>8275100</v>
       </c>
       <c r="P103">
-        <v>153032303000</v>
+        <v>66846874700</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>15100</v>
       </c>
       <c r="E104">
-        <v>38200754000</v>
+        <v>35698059200</v>
       </c>
       <c r="F104">
-        <v>38593638000</v>
+        <v>38030701500</v>
       </c>
       <c r="G104">
         <v>395455000</v>
@@ -5578,13 +5578,13 @@
         <v>4582300</v>
       </c>
       <c r="I104">
-        <v>77189847000</v>
+        <v>74124215700</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-06T13:56:00.000Z</v>
       </c>
       <c r="K104">
-        <v>7189801073000</v>
+        <v>6575242047200</v>
       </c>
       <c r="L104">
         <v>417662600</v>
@@ -5593,13 +5593,13 @@
         <v>-26800</v>
       </c>
       <c r="N104">
-        <v>392884000</v>
+        <v>2332642300</v>
       </c>
       <c r="O104">
         <v>8248300</v>
       </c>
       <c r="P104">
-        <v>153425187000</v>
+        <v>69179517000</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>3300</v>
       </c>
       <c r="E105">
-        <v>23754723000</v>
+        <v>22825453200</v>
       </c>
       <c r="F105">
-        <v>21958355000</v>
+        <v>20357657300</v>
       </c>
       <c r="G105">
         <v>119270000</v>
@@ -5628,13 +5628,13 @@
         <v>2800000</v>
       </c>
       <c r="I105">
-        <v>45832348000</v>
+        <v>43302380500</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-06T13:58:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7235633421000</v>
+        <v>6618544427700</v>
       </c>
       <c r="L105">
         <v>420462600</v>
@@ -5643,13 +5643,13 @@
         <v>74300</v>
       </c>
       <c r="N105">
-        <v>-1796368000</v>
+        <v>-2467795900</v>
       </c>
       <c r="O105">
         <v>8322600</v>
       </c>
       <c r="P105">
-        <v>151628819000</v>
+        <v>66711721100</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>9700</v>
       </c>
       <c r="E106">
-        <v>72687782000</v>
+        <v>71426944100</v>
       </c>
       <c r="F106">
-        <v>22750767000</v>
+        <v>19797323400</v>
       </c>
       <c r="G106">
         <v>182490000</v>
@@ -5678,13 +5678,13 @@
         <v>5300000</v>
       </c>
       <c r="I106">
-        <v>95621039000</v>
+        <v>91406757500</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-06T14:00:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7331254460000</v>
+        <v>6709951185200</v>
       </c>
       <c r="L106">
         <v>425762600</v>
@@ -5693,13 +5693,13 @@
         <v>-2638900</v>
       </c>
       <c r="N106">
-        <v>-49937015000</v>
+        <v>-51629620700</v>
       </c>
       <c r="O106">
         <v>5683700</v>
       </c>
       <c r="P106">
-        <v>101691804000</v>
+        <v>15082100400</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>12300</v>
       </c>
       <c r="E107">
-        <v>102512074000</v>
+        <v>98806982800</v>
       </c>
       <c r="F107">
-        <v>18247073000</v>
+        <v>17632588100</v>
       </c>
       <c r="G107">
-        <v>205197000</v>
+        <v>172729500</v>
       </c>
       <c r="H107">
         <v>6873300</v>
       </c>
       <c r="I107">
-        <v>120964344000</v>
+        <v>116612300400</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-06T14:02:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7452218804000</v>
+        <v>6826563485600</v>
       </c>
       <c r="L107">
         <v>432635900</v>
@@ -5743,13 +5743,13 @@
         <v>-4883200</v>
       </c>
       <c r="N107">
-        <v>-84265001000</v>
+        <v>-81174394700</v>
       </c>
       <c r="O107">
         <v>800500</v>
       </c>
       <c r="P107">
-        <v>17426803000</v>
+        <v>-66092294300</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>51200</v>
       </c>
       <c r="E108">
-        <v>188509847000</v>
+        <v>165938241200</v>
       </c>
       <c r="F108">
-        <v>24157352000</v>
+        <v>23321988200</v>
       </c>
       <c r="G108">
         <v>779149000</v>
@@ -5778,13 +5778,13 @@
         <v>11698300</v>
       </c>
       <c r="I108">
-        <v>213446348000</v>
+        <v>190039378400</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-06T14:04:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7665665152000</v>
+        <v>7016602864000</v>
       </c>
       <c r="L108">
         <v>444334200</v>
@@ -5793,13 +5793,13 @@
         <v>-8769100</v>
       </c>
       <c r="N108">
-        <v>-164352495000</v>
+        <v>-142616253000</v>
       </c>
       <c r="O108">
         <v>-7968600</v>
       </c>
       <c r="P108">
-        <v>-146925692000</v>
+        <v>-208708547300</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>13800</v>
       </c>
       <c r="E109">
-        <v>111184749000</v>
+        <v>96436512000</v>
       </c>
       <c r="F109">
-        <v>35121990000</v>
+        <v>31900015200</v>
       </c>
       <c r="G109">
-        <v>198881000</v>
+        <v>194984900</v>
       </c>
       <c r="H109">
         <v>8334400</v>
       </c>
       <c r="I109">
-        <v>146505620000</v>
+        <v>128531512100</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-06T14:06:00.000Z</v>
       </c>
       <c r="K109">
-        <v>7812170772000</v>
+        <v>7145134376100</v>
       </c>
       <c r="L109">
         <v>452668600</v>
@@ -5843,13 +5843,13 @@
         <v>-4413200</v>
       </c>
       <c r="N109">
-        <v>-76062759000</v>
+        <v>-64536496800</v>
       </c>
       <c r="O109">
         <v>-12381800</v>
       </c>
       <c r="P109">
-        <v>-222988451000</v>
+        <v>-273245044100</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>29500</v>
       </c>
       <c r="E110">
-        <v>55850582000</v>
+        <v>53371663400</v>
       </c>
       <c r="F110">
-        <v>46475251000</v>
+        <v>42247183300</v>
       </c>
       <c r="G110">
         <v>518384000</v>
@@ -5878,13 +5878,13 @@
         <v>6117100</v>
       </c>
       <c r="I110">
-        <v>102844217000</v>
+        <v>96137230700</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-06T14:08:00.000Z</v>
       </c>
       <c r="K110">
-        <v>7915014989000</v>
+        <v>7241271606800</v>
       </c>
       <c r="L110">
         <v>458785700</v>
@@ -5893,13 +5893,13 @@
         <v>-476000</v>
       </c>
       <c r="N110">
-        <v>-9375331000</v>
+        <v>-11124480100</v>
       </c>
       <c r="O110">
         <v>-12857800</v>
       </c>
       <c r="P110">
-        <v>-232363782000</v>
+        <v>-284369524200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>3800</v>
       </c>
       <c r="E111">
-        <v>31707553000</v>
+        <v>29330432500</v>
       </c>
       <c r="F111">
-        <v>40455537000</v>
+        <v>36169427400</v>
       </c>
       <c r="G111">
         <v>77731000</v>
@@ -5928,13 +5928,13 @@
         <v>4448900</v>
       </c>
       <c r="I111">
-        <v>72240821000</v>
+        <v>65577590900</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-06T14:10:00.000Z</v>
       </c>
       <c r="K111">
-        <v>7987255810000</v>
+        <v>7306849197700</v>
       </c>
       <c r="L111">
         <v>463234600</v>
@@ -5943,13 +5943,13 @@
         <v>448300</v>
       </c>
       <c r="N111">
-        <v>8747984000</v>
+        <v>6838994900</v>
       </c>
       <c r="O111">
         <v>-12409500</v>
       </c>
       <c r="P111">
-        <v>-223615798000</v>
+        <v>-277530529300</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>6400</v>
       </c>
       <c r="E112">
-        <v>26728322000</v>
+        <v>26132518400</v>
       </c>
       <c r="F112">
-        <v>35933009000</v>
+        <v>31136110700</v>
       </c>
       <c r="G112">
         <v>250498000</v>
@@ -5978,13 +5978,13 @@
         <v>3348700</v>
       </c>
       <c r="I112">
-        <v>62911829000</v>
+        <v>57519127100</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-06T14:12:00.000Z</v>
       </c>
       <c r="K112">
-        <v>8050167639000</v>
+        <v>7364368324800</v>
       </c>
       <c r="L112">
         <v>466583300</v>
@@ -5993,13 +5993,13 @@
         <v>432300</v>
       </c>
       <c r="N112">
-        <v>9204687000</v>
+        <v>5003592300</v>
       </c>
       <c r="O112">
         <v>-11977200</v>
       </c>
       <c r="P112">
-        <v>-214411111000</v>
+        <v>-272526937000</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>10200</v>
       </c>
       <c r="E113">
-        <v>33362685000</v>
+        <v>31570678800</v>
       </c>
       <c r="F113">
-        <v>33243508000</v>
+        <v>30919834000</v>
       </c>
       <c r="G113">
-        <v>146242000</v>
+        <v>132655600</v>
       </c>
       <c r="H113">
         <v>3826800</v>
       </c>
       <c r="I113">
-        <v>66752435000</v>
+        <v>62623168400</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-06T14:14:00.000Z</v>
       </c>
       <c r="K113">
-        <v>8116920074000</v>
+        <v>7426991493200</v>
       </c>
       <c r="L113">
         <v>470410100</v>
@@ -6043,13 +6043,13 @@
         <v>-115800</v>
       </c>
       <c r="N113">
-        <v>-119177000</v>
+        <v>-650844800</v>
       </c>
       <c r="O113">
         <v>-12093000</v>
       </c>
       <c r="P113">
-        <v>-214530288000</v>
+        <v>-273177781800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>19100</v>
       </c>
       <c r="E114">
-        <v>51051166000</v>
+        <v>48589230400</v>
       </c>
       <c r="F114">
-        <v>27990198000</v>
+        <v>25643547000</v>
       </c>
       <c r="G114">
         <v>335440000</v>
@@ -6078,13 +6078,13 @@
         <v>4294500</v>
       </c>
       <c r="I114">
-        <v>79376804000</v>
+        <v>74568217400</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-06T14:16:00.000Z</v>
       </c>
       <c r="K114">
-        <v>8196296878000</v>
+        <v>7501559710600</v>
       </c>
       <c r="L114">
         <v>474704600</v>
@@ -6093,13 +6093,13 @@
         <v>-929200</v>
       </c>
       <c r="N114">
-        <v>-23060968000</v>
+        <v>-22945683400</v>
       </c>
       <c r="O114">
         <v>-13022200</v>
       </c>
       <c r="P114">
-        <v>-237591256000</v>
+        <v>-296123465200</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>85700</v>
       </c>
       <c r="E115">
-        <v>220731418000</v>
+        <v>207971390800</v>
       </c>
       <c r="F115">
-        <v>18233217000</v>
+        <v>17629721100</v>
       </c>
       <c r="G115">
-        <v>949251000</v>
+        <v>845355000</v>
       </c>
       <c r="H115">
         <v>13785400</v>
       </c>
       <c r="I115">
-        <v>239913886000</v>
+        <v>226446466900</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-06T14:18:00.000Z</v>
       </c>
       <c r="K115">
-        <v>8436210764000</v>
+        <v>7728006177500</v>
       </c>
       <c r="L115">
         <v>488490000</v>
@@ -6143,13 +6143,13 @@
         <v>-11488700</v>
       </c>
       <c r="N115">
-        <v>-202498201000</v>
+        <v>-190341669700</v>
       </c>
       <c r="O115">
         <v>-24510900</v>
       </c>
       <c r="P115">
-        <v>-440089457000</v>
+        <v>-486465134900</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>117400</v>
       </c>
       <c r="E116">
-        <v>274654494000</v>
+        <v>234767920500</v>
       </c>
       <c r="F116">
-        <v>40588915000</v>
+        <v>36240467800</v>
       </c>
       <c r="G116">
-        <v>1954461000</v>
+        <v>1895520000</v>
       </c>
       <c r="H116">
         <v>18936400</v>
       </c>
       <c r="I116">
-        <v>317197870000</v>
+        <v>272903908300</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-06T14:20:00.000Z</v>
       </c>
       <c r="K116">
-        <v>8753408634000</v>
+        <v>8000910085800</v>
       </c>
       <c r="L116">
         <v>507426400</v>
@@ -6193,13 +6193,13 @@
         <v>-14222200</v>
       </c>
       <c r="N116">
-        <v>-234065579000</v>
+        <v>-198527452700</v>
       </c>
       <c r="O116">
         <v>-38733100</v>
       </c>
       <c r="P116">
-        <v>-674155036000</v>
+        <v>-684992587600</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>88400</v>
       </c>
       <c r="E117">
-        <v>165427122000</v>
+        <v>159012842700</v>
       </c>
       <c r="F117">
-        <v>65872326000</v>
+        <v>57515591100</v>
       </c>
       <c r="G117">
-        <v>1462564000</v>
+        <v>1435391200</v>
       </c>
       <c r="H117">
         <v>13960700</v>
       </c>
       <c r="I117">
-        <v>232762012000</v>
+        <v>217963825000</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-06T14:22:00.000Z</v>
       </c>
       <c r="K117">
-        <v>8986170646000</v>
+        <v>8218873910800</v>
       </c>
       <c r="L117">
         <v>521387100</v>
@@ -6243,13 +6243,13 @@
         <v>-5901700</v>
       </c>
       <c r="N117">
-        <v>-99554796000</v>
+        <v>-101497251600</v>
       </c>
       <c r="O117">
         <v>-44634800</v>
       </c>
       <c r="P117">
-        <v>-773709832000</v>
+        <v>-786489839200</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>52600</v>
       </c>
       <c r="E118">
-        <v>56594203000</v>
+        <v>51627874300</v>
       </c>
       <c r="F118">
-        <v>115234147000</v>
+        <v>108783703900</v>
       </c>
       <c r="G118">
-        <v>823211000</v>
+        <v>822112100</v>
       </c>
       <c r="H118">
         <v>10520100</v>
       </c>
       <c r="I118">
-        <v>172651561000</v>
+        <v>161233690300</v>
       </c>
       <c r="J118" t="str">
         <v>2023-01-06T14:24:00.000Z</v>
       </c>
       <c r="K118">
-        <v>9158822207000</v>
+        <v>8380107601100</v>
       </c>
       <c r="L118">
         <v>531907200</v>
@@ -6293,13 +6293,13 @@
         <v>3600900</v>
       </c>
       <c r="N118">
-        <v>58639944000</v>
+        <v>57155829600</v>
       </c>
       <c r="O118">
         <v>-41033900</v>
       </c>
       <c r="P118">
-        <v>-715069888000</v>
+        <v>-729334009600</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>31000</v>
       </c>
       <c r="E119">
-        <v>54943654000</v>
+        <v>51782418400</v>
       </c>
       <c r="F119">
-        <v>84340567000</v>
+        <v>73324294300</v>
       </c>
       <c r="G119">
-        <v>591131000</v>
+        <v>537884300</v>
       </c>
       <c r="H119">
         <v>7945500</v>
       </c>
       <c r="I119">
-        <v>139875352000</v>
+        <v>125644597000</v>
       </c>
       <c r="J119" t="str">
         <v>2023-01-06T14:26:00.000Z</v>
       </c>
       <c r="K119">
-        <v>9298697559000</v>
+        <v>8505752198100</v>
       </c>
       <c r="L119">
         <v>539852700</v>
@@ -6343,13 +6343,13 @@
         <v>1764900</v>
       </c>
       <c r="N119">
-        <v>29396913000</v>
+        <v>21541875900</v>
       </c>
       <c r="O119">
         <v>-39269000</v>
       </c>
       <c r="P119">
-        <v>-685672975000</v>
+        <v>-707792133700</v>
       </c>
     </row>
     <row r="120">
@@ -6366,10 +6366,10 @@
         <v>53000</v>
       </c>
       <c r="E120">
-        <v>95642926000</v>
+        <v>88738037800</v>
       </c>
       <c r="F120">
-        <v>59040025000</v>
+        <v>53031339700</v>
       </c>
       <c r="G120">
         <v>442190000</v>
@@ -6378,13 +6378,13 @@
         <v>9578800</v>
       </c>
       <c r="I120">
-        <v>155125141000</v>
+        <v>142211567500</v>
       </c>
       <c r="J120" t="str">
         <v>2023-01-06T14:28:00.000Z</v>
       </c>
       <c r="K120">
-        <v>9453822700000</v>
+        <v>8647963765600</v>
       </c>
       <c r="L120">
         <v>549431500</v>
@@ -6393,13 +6393,13 @@
         <v>-1864400</v>
       </c>
       <c r="N120">
-        <v>-36602901000</v>
+        <v>-35706698100</v>
       </c>
       <c r="O120">
         <v>-41133400</v>
       </c>
       <c r="P120">
-        <v>-722275876000</v>
+        <v>-743498831800</v>
       </c>
     </row>
     <row r="121">
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>2909165000</v>
+        <v>2799275000</v>
       </c>
       <c r="F121">
         <v>83578000</v>
@@ -6428,13 +6428,13 @@
         <v>127500</v>
       </c>
       <c r="I121">
-        <v>2992743000</v>
+        <v>2882853000</v>
       </c>
       <c r="J121" t="str">
         <v>2023-01-06T14:30:00.000Z</v>
       </c>
       <c r="K121">
-        <v>9456815443000</v>
+        <v>8650846618600</v>
       </c>
       <c r="L121">
         <v>549559000</v>
@@ -6443,13 +6443,13 @@
         <v>-110500</v>
       </c>
       <c r="N121">
-        <v>-2825587000</v>
+        <v>-2715697000</v>
       </c>
       <c r="O121">
         <v>-41243900</v>
       </c>
       <c r="P121">
-        <v>-725101463000</v>
+        <v>-746214528800</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2023-01-06T14:32:00.000Z</v>
       </c>
       <c r="K122">
-        <v>9456817963000</v>
+        <v>8650849138600</v>
       </c>
       <c r="L122">
         <v>549559200</v>
@@ -6499,7 +6499,7 @@
         <v>-41243700</v>
       </c>
       <c r="P122">
-        <v>-725098943000</v>
+        <v>-746212008800</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2023-01-06T14:34:00.000Z</v>
       </c>
       <c r="K123">
-        <v>9456826763000</v>
+        <v>8650857938600</v>
       </c>
       <c r="L123">
         <v>549559900</v>
@@ -6549,7 +6549,7 @@
         <v>-41243200</v>
       </c>
       <c r="P123">
-        <v>-725092643000</v>
+        <v>-746205708800</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2023-01-06T14:36:00.000Z</v>
       </c>
       <c r="K124">
-        <v>9456894803000</v>
+        <v>8650925978600</v>
       </c>
       <c r="L124">
         <v>549565300</v>
@@ -6599,7 +6599,7 @@
         <v>-41241000</v>
       </c>
       <c r="P124">
-        <v>-725064923000</v>
+        <v>-746177988800</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2023-01-06T14:38:00.000Z</v>
       </c>
       <c r="K125">
-        <v>9456935123000</v>
+        <v>8650966298600</v>
       </c>
       <c r="L125">
         <v>549568500</v>
@@ -6649,7 +6649,7 @@
         <v>-41237800</v>
       </c>
       <c r="P125">
-        <v>-725024603000</v>
+        <v>-746137668800</v>
       </c>
     </row>
     <row r="126">
@@ -6684,7 +6684,7 @@
         <v>2023-01-06T14:40:00.000Z</v>
       </c>
       <c r="K126">
-        <v>9456981743000</v>
+        <v>8651012918600</v>
       </c>
       <c r="L126">
         <v>549572200</v>
@@ -6699,7 +6699,7 @@
         <v>-41239500</v>
       </c>
       <c r="P126">
-        <v>-725046023000</v>
+        <v>-746159088800</v>
       </c>
     </row>
     <row r="127">
@@ -6734,7 +6734,7 @@
         <v>2023-01-06T14:42:00.000Z</v>
       </c>
       <c r="K127">
-        <v>9456991753000</v>
+        <v>8651022928600</v>
       </c>
       <c r="L127">
         <v>549573000</v>
@@ -6749,7 +6749,7 @@
         <v>-41240100</v>
       </c>
       <c r="P127">
-        <v>-725053513000</v>
+        <v>-746166578800</v>
       </c>
     </row>
     <row r="128">
@@ -6766,25 +6766,25 @@
         <v>21366100</v>
       </c>
       <c r="E128">
-        <v>194699806000</v>
+        <v>182364253900</v>
       </c>
       <c r="F128">
-        <v>39899075000</v>
+        <v>38867207900</v>
       </c>
       <c r="G128">
-        <v>363151203000</v>
+        <v>358714943700</v>
       </c>
       <c r="H128">
         <v>33949100</v>
       </c>
       <c r="I128">
-        <v>597750084000</v>
+        <v>579946405500</v>
       </c>
       <c r="J128" t="str">
         <v>2023-01-06T14:44:00.000Z</v>
       </c>
       <c r="K128">
-        <v>10054741837000</v>
+        <v>9230969334100</v>
       </c>
       <c r="L128">
         <v>583522100</v>
@@ -6793,13 +6793,13 @@
         <v>-8838600</v>
       </c>
       <c r="N128">
-        <v>-154800731000</v>
+        <v>-143497046000</v>
       </c>
       <c r="O128">
         <v>-50078700</v>
       </c>
       <c r="P128">
-        <v>-879854244000</v>
+        <v>-889663624800</v>
       </c>
     </row>
     <row r="129">
@@ -6834,7 +6834,7 @@
         <v>2023-01-06T14:46:00.000Z</v>
       </c>
       <c r="K129">
-        <v>10054796447000</v>
+        <v>9231023944100</v>
       </c>
       <c r="L129">
         <v>583526500</v>
@@ -6849,7 +6849,7 @@
         <v>-50074800</v>
       </c>
       <c r="P129">
-        <v>-879805884000</v>
+        <v>-889615264800</v>
       </c>
     </row>
     <row r="130">
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>619500000</v>
+        <v>13007100</v>
       </c>
       <c r="G130">
         <v>13640000</v>
@@ -6878,13 +6878,13 @@
         <v>48800</v>
       </c>
       <c r="I130">
-        <v>633140000</v>
+        <v>26647100</v>
       </c>
       <c r="J130" t="str">
         <v>2023-01-06T14:48:00.000Z</v>
       </c>
       <c r="K130">
-        <v>10055429587000</v>
+        <v>9231050591200</v>
       </c>
       <c r="L130">
         <v>583575300</v>
@@ -6893,13 +6893,13 @@
         <v>47700</v>
       </c>
       <c r="N130">
-        <v>619500000</v>
+        <v>13007100</v>
       </c>
       <c r="O130">
         <v>-50027100</v>
       </c>
       <c r="P130">
-        <v>-879186384000</v>
+        <v>-889602257700</v>
       </c>
     </row>
     <row r="131">
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
       <c r="F131">
         <v>43230000</v>
@@ -6928,13 +6928,13 @@
         <v>3600</v>
       </c>
       <c r="I131">
-        <v>47130000</v>
+        <v>43233900</v>
       </c>
       <c r="J131" t="str">
         <v>2023-01-06T14:50:00.000Z</v>
       </c>
       <c r="K131">
-        <v>10055476717000</v>
+        <v>9231093825100</v>
       </c>
       <c r="L131">
         <v>583578900</v>
@@ -6943,13 +6943,13 @@
         <v>3000</v>
       </c>
       <c r="N131">
-        <v>39330000</v>
+        <v>43226100</v>
       </c>
       <c r="O131">
         <v>-50024100</v>
       </c>
       <c r="P131">
-        <v>-879147054000</v>
+        <v>-889559031600</v>
       </c>
     </row>
     <row r="132">
@@ -6984,7 +6984,7 @@
         <v>2023-01-06T14:54:00.000Z</v>
       </c>
       <c r="K132">
-        <v>10055538917000</v>
+        <v>9231156025100</v>
       </c>
       <c r="L132">
         <v>583583900</v>
@@ -6999,7 +6999,7 @@
         <v>-50022100</v>
       </c>
       <c r="P132">
-        <v>-879122054000</v>
+        <v>-889534031600</v>
       </c>
     </row>
     <row r="133">
@@ -7034,7 +7034,7 @@
         <v>2023-01-06T14:56:00.000Z</v>
       </c>
       <c r="K133">
-        <v>10055601417000</v>
+        <v>9231218525100</v>
       </c>
       <c r="L133">
         <v>583588900</v>
@@ -7049,7 +7049,7 @@
         <v>-50017300</v>
       </c>
       <c r="P133">
-        <v>-879062054000</v>
+        <v>-889474031600</v>
       </c>
     </row>
     <row r="134">
@@ -7084,7 +7084,7 @@
         <v>2023-01-06T14:58:00.000Z</v>
       </c>
       <c r="K134">
-        <v>10056163467000</v>
+        <v>9231780575100</v>
       </c>
       <c r="L134">
         <v>583633400</v>
@@ -7099,7 +7099,7 @@
         <v>-50021800</v>
       </c>
       <c r="P134">
-        <v>-879108104000</v>
+        <v>-889520081600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230106/VNINDEX_HOSE_5p_20230106.xlsx
+++ b/name/vnindex/20230106/VNINDEX_HOSE_5p_20230106.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P134"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-17080000</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>17080000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1400</v>
+      </c>
+      <c r="U2">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V2">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W2">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X2">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y2">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z2">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA2">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB2">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-64640000</v>
       </c>
+      <c r="Q3">
+        <v>5040000</v>
+      </c>
+      <c r="R3">
+        <v>69680000</v>
+      </c>
+      <c r="S3">
+        <v>400</v>
+      </c>
+      <c r="T3">
+        <v>5700</v>
+      </c>
+      <c r="U3">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V3">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W3">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X3">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y3">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z3">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA3">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB3">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-56970000</v>
       </c>
+      <c r="Q4">
+        <v>52390000</v>
+      </c>
+      <c r="R4">
+        <v>109360000</v>
+      </c>
+      <c r="S4">
+        <v>4100</v>
+      </c>
+      <c r="T4">
+        <v>8800</v>
+      </c>
+      <c r="U4">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V4">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W4">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X4">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y4">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z4">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA4">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB4">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-11580000</v>
       </c>
+      <c r="Q5">
+        <v>97780000</v>
+      </c>
+      <c r="R5">
+        <v>109360000</v>
+      </c>
+      <c r="S5">
+        <v>7700</v>
+      </c>
+      <c r="T5">
+        <v>8800</v>
+      </c>
+      <c r="U5">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V5">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W5">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X5">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y5">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z5">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA5">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB5">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-11580000</v>
       </c>
+      <c r="Q6">
+        <v>97780000</v>
+      </c>
+      <c r="R6">
+        <v>109360000</v>
+      </c>
+      <c r="S6">
+        <v>7700</v>
+      </c>
+      <c r="T6">
+        <v>8800</v>
+      </c>
+      <c r="U6">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V6">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W6">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X6">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y6">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z6">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA6">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB6">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-18336982700</v>
       </c>
+      <c r="Q7">
+        <v>19539966000</v>
+      </c>
+      <c r="R7">
+        <v>37876948700</v>
+      </c>
+      <c r="S7">
+        <v>1171400</v>
+      </c>
+      <c r="T7">
+        <v>2488700</v>
+      </c>
+      <c r="U7">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V7">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W7">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X7">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y7">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z7">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA7">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB7">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC7">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-15280348400</v>
       </c>
+      <c r="Q8">
+        <v>41745113700</v>
+      </c>
+      <c r="R8">
+        <v>57025462100</v>
+      </c>
+      <c r="S8">
+        <v>2640400</v>
+      </c>
+      <c r="T8">
+        <v>3780600</v>
+      </c>
+      <c r="U8">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V8">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W8">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X8">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y8">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z8">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA8">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB8">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-14586330800</v>
       </c>
+      <c r="Q9">
+        <v>63917688900</v>
+      </c>
+      <c r="R9">
+        <v>78504019700</v>
+      </c>
+      <c r="S9">
+        <v>4426900</v>
+      </c>
+      <c r="T9">
+        <v>5167300</v>
+      </c>
+      <c r="U9">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V9">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W9">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X9">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y9">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z9">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA9">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB9">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC9">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-8658970700</v>
       </c>
+      <c r="Q10">
+        <v>95166810800</v>
+      </c>
+      <c r="R10">
+        <v>103825781500</v>
+      </c>
+      <c r="S10">
+        <v>6694700</v>
+      </c>
+      <c r="T10">
+        <v>6936800</v>
+      </c>
+      <c r="U10">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V10">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W10">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X10">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y10">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z10">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA10">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB10">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC10">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>4324468100</v>
       </c>
+      <c r="Q11">
+        <v>133845750600</v>
+      </c>
+      <c r="R11">
+        <v>129521282500</v>
+      </c>
+      <c r="S11">
+        <v>9516800</v>
+      </c>
+      <c r="T11">
+        <v>8643600</v>
+      </c>
+      <c r="U11">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V11">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W11">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X11">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y11">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z11">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA11">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB11">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC11">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>25590223300</v>
       </c>
+      <c r="Q12">
+        <v>180966410600</v>
+      </c>
+      <c r="R12">
+        <v>155376187300</v>
+      </c>
+      <c r="S12">
+        <v>12642700</v>
+      </c>
+      <c r="T12">
+        <v>10505100</v>
+      </c>
+      <c r="U12">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V12">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W12">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X12">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y12">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z12">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA12">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB12">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC12">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>74432149600</v>
       </c>
+      <c r="Q13">
+        <v>251726511100</v>
+      </c>
+      <c r="R13">
+        <v>177294361500</v>
+      </c>
+      <c r="S13">
+        <v>17627900</v>
+      </c>
+      <c r="T13">
+        <v>11914500</v>
+      </c>
+      <c r="U13">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V13">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W13">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X13">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y13">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z13">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA13">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB13">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC13">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>112503599000</v>
       </c>
+      <c r="Q14">
+        <v>318131258100</v>
+      </c>
+      <c r="R14">
+        <v>205627659100</v>
+      </c>
+      <c r="S14">
+        <v>22251400</v>
+      </c>
+      <c r="T14">
+        <v>13882800</v>
+      </c>
+      <c r="U14">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V14">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W14">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X14">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y14">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z14">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA14">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB14">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC14">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>142915505200</v>
       </c>
+      <c r="Q15">
+        <v>373724941900</v>
+      </c>
+      <c r="R15">
+        <v>230809436700</v>
+      </c>
+      <c r="S15">
+        <v>26266400</v>
+      </c>
+      <c r="T15">
+        <v>15646900</v>
+      </c>
+      <c r="U15">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V15">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W15">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X15">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y15">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z15">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA15">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB15">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC15">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>150879524400</v>
       </c>
+      <c r="Q16">
+        <v>418751680600</v>
+      </c>
+      <c r="R16">
+        <v>267872156200</v>
+      </c>
+      <c r="S16">
+        <v>29148500</v>
+      </c>
+      <c r="T16">
+        <v>17963400</v>
+      </c>
+      <c r="U16">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V16">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W16">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X16">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y16">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z16">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA16">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB16">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC16">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>163214648500</v>
       </c>
+      <c r="Q17">
+        <v>455915170100</v>
+      </c>
+      <c r="R17">
+        <v>292700521600</v>
+      </c>
+      <c r="S17">
+        <v>31625300</v>
+      </c>
+      <c r="T17">
+        <v>19726500</v>
+      </c>
+      <c r="U17">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V17">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W17">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X17">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y17">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z17">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA17">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB17">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC17">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>140143385600</v>
       </c>
+      <c r="Q18">
+        <v>476149743100</v>
+      </c>
+      <c r="R18">
+        <v>336006357500</v>
+      </c>
+      <c r="S18">
+        <v>33021300</v>
+      </c>
+      <c r="T18">
+        <v>22572100</v>
+      </c>
+      <c r="U18">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V18">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W18">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X18">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y18">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z18">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA18">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB18">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC18">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>121188842300</v>
       </c>
+      <c r="Q19">
+        <v>496173049800</v>
+      </c>
+      <c r="R19">
+        <v>374984207500</v>
+      </c>
+      <c r="S19">
+        <v>34335100</v>
+      </c>
+      <c r="T19">
+        <v>25302500</v>
+      </c>
+      <c r="U19">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V19">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W19">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X19">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y19">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z19">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA19">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB19">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC19">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>89950276900</v>
       </c>
+      <c r="Q20">
+        <v>507134646100</v>
+      </c>
+      <c r="R20">
+        <v>417184369200</v>
+      </c>
+      <c r="S20">
+        <v>35112700</v>
+      </c>
+      <c r="T20">
+        <v>27959700</v>
+      </c>
+      <c r="U20">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V20">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W20">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X20">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y20">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z20">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA20">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB20">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC20">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>63763300000</v>
       </c>
+      <c r="Q21">
+        <v>523345245500</v>
+      </c>
+      <c r="R21">
+        <v>459581945500</v>
+      </c>
+      <c r="S21">
+        <v>36234500</v>
+      </c>
+      <c r="T21">
+        <v>30478200</v>
+      </c>
+      <c r="U21">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V21">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W21">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X21">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y21">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z21">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA21">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB21">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC21">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>63316070100</v>
       </c>
+      <c r="Q22">
+        <v>551112948400</v>
+      </c>
+      <c r="R22">
+        <v>487796878300</v>
+      </c>
+      <c r="S22">
+        <v>38161400</v>
+      </c>
+      <c r="T22">
+        <v>32187000</v>
+      </c>
+      <c r="U22">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V22">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W22">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X22">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y22">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z22">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA22">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB22">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC22">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>80359072300</v>
       </c>
+      <c r="Q23">
+        <v>587112354400</v>
+      </c>
+      <c r="R23">
+        <v>506753282100</v>
+      </c>
+      <c r="S23">
+        <v>40537100</v>
+      </c>
+      <c r="T23">
+        <v>33710800</v>
+      </c>
+      <c r="U23">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V23">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W23">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X23">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y23">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z23">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA23">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB23">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC23">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>114822427200</v>
       </c>
+      <c r="Q24">
+        <v>642791160300</v>
+      </c>
+      <c r="R24">
+        <v>527968733100</v>
+      </c>
+      <c r="S24">
+        <v>44063200</v>
+      </c>
+      <c r="T24">
+        <v>35191000</v>
+      </c>
+      <c r="U24">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V24">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W24">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X24">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y24">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z24">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA24">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB24">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC24">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>162880922700</v>
       </c>
+      <c r="Q25">
+        <v>706550684200</v>
+      </c>
+      <c r="R25">
+        <v>543669761500</v>
+      </c>
+      <c r="S25">
+        <v>48464800</v>
+      </c>
+      <c r="T25">
+        <v>36360000</v>
+      </c>
+      <c r="U25">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V25">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W25">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X25">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y25">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z25">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA25">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB25">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC25">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>186784429500</v>
       </c>
+      <c r="Q26">
+        <v>759953356000</v>
+      </c>
+      <c r="R26">
+        <v>573168926500</v>
+      </c>
+      <c r="S26">
+        <v>52044400</v>
+      </c>
+      <c r="T26">
+        <v>38090100</v>
+      </c>
+      <c r="U26">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V26">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W26">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X26">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y26">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z26">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA26">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB26">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC26">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>193957016500</v>
       </c>
+      <c r="Q27">
+        <v>796468816600</v>
+      </c>
+      <c r="R27">
+        <v>602511800100</v>
+      </c>
+      <c r="S27">
+        <v>54888400</v>
+      </c>
+      <c r="T27">
+        <v>39705100</v>
+      </c>
+      <c r="U27">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V27">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W27">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X27">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y27">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z27">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA27">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB27">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>231275323300</v>
       </c>
+      <c r="Q28">
+        <v>856562076300</v>
+      </c>
+      <c r="R28">
+        <v>625286753000</v>
+      </c>
+      <c r="S28">
+        <v>58809300</v>
+      </c>
+      <c r="T28">
+        <v>41016900</v>
+      </c>
+      <c r="U28">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V28">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W28">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X28">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y28">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z28">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA28">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB28">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC28">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>277356308700</v>
       </c>
+      <c r="Q29">
+        <v>929859762300</v>
+      </c>
+      <c r="R29">
+        <v>652503453600</v>
+      </c>
+      <c r="S29">
+        <v>63520900</v>
+      </c>
+      <c r="T29">
+        <v>43093300</v>
+      </c>
+      <c r="U29">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V29">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W29">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X29">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y29">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z29">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA29">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB29">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC29">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>339494610900</v>
       </c>
+      <c r="Q30">
+        <v>1012751864000</v>
+      </c>
+      <c r="R30">
+        <v>673257253100</v>
+      </c>
+      <c r="S30">
+        <v>69099500</v>
+      </c>
+      <c r="T30">
+        <v>44382100</v>
+      </c>
+      <c r="U30">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V30">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W30">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X30">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y30">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z30">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA30">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB30">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC30">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>365855115900</v>
       </c>
+      <c r="Q31">
+        <v>1064572271000</v>
+      </c>
+      <c r="R31">
+        <v>698717155100</v>
+      </c>
+      <c r="S31">
+        <v>72592600</v>
+      </c>
+      <c r="T31">
+        <v>46195700</v>
+      </c>
+      <c r="U31">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V31">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W31">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X31">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y31">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z31">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA31">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB31">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC31">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>372401452900</v>
       </c>
+      <c r="Q32">
+        <v>1108120608100</v>
+      </c>
+      <c r="R32">
+        <v>735719155200</v>
+      </c>
+      <c r="S32">
+        <v>75327000</v>
+      </c>
+      <c r="T32">
+        <v>48558700</v>
+      </c>
+      <c r="U32">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V32">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W32">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X32">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y32">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z32">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA32">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB32">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>362858037400</v>
       </c>
+      <c r="Q33">
+        <v>1146928465300</v>
+      </c>
+      <c r="R33">
+        <v>784070427900</v>
+      </c>
+      <c r="S33">
+        <v>77762700</v>
+      </c>
+      <c r="T33">
+        <v>51702100</v>
+      </c>
+      <c r="U33">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V33">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W33">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X33">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y33">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z33">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA33">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB33">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC33">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>339123256300</v>
       </c>
+      <c r="Q34">
+        <v>1164876339400</v>
+      </c>
+      <c r="R34">
+        <v>825753083100</v>
+      </c>
+      <c r="S34">
+        <v>78904900</v>
+      </c>
+      <c r="T34">
+        <v>54362300</v>
+      </c>
+      <c r="U34">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V34">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W34">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X34">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y34">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z34">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA34">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB34">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC34">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>333137218500</v>
       </c>
+      <c r="Q35">
+        <v>1188085594900</v>
+      </c>
+      <c r="R35">
+        <v>854948376400</v>
+      </c>
+      <c r="S35">
+        <v>80025800</v>
+      </c>
+      <c r="T35">
+        <v>56189600</v>
+      </c>
+      <c r="U35">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V35">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W35">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X35">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y35">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z35">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA35">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB35">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC35">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>321899868900</v>
       </c>
+      <c r="Q36">
+        <v>1205970289400</v>
+      </c>
+      <c r="R36">
+        <v>884070420500</v>
+      </c>
+      <c r="S36">
+        <v>81022900</v>
+      </c>
+      <c r="T36">
+        <v>58019200</v>
+      </c>
+      <c r="U36">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V36">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W36">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X36">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y36">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z36">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA36">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB36">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC36">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>312997649200</v>
       </c>
+      <c r="Q37">
+        <v>1226910779200</v>
+      </c>
+      <c r="R37">
+        <v>913913130000</v>
+      </c>
+      <c r="S37">
+        <v>82168900</v>
+      </c>
+      <c r="T37">
+        <v>59808700</v>
+      </c>
+      <c r="U37">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V37">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W37">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X37">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y37">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z37">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA37">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB37">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC37">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>351398265400</v>
       </c>
+      <c r="Q38">
+        <v>1280049028900</v>
+      </c>
+      <c r="R38">
+        <v>928650763500</v>
+      </c>
+      <c r="S38">
+        <v>84790200</v>
+      </c>
+      <c r="T38">
+        <v>60732700</v>
+      </c>
+      <c r="U38">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V38">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W38">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X38">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y38">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z38">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA38">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB38">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC38">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>393516994900</v>
       </c>
+      <c r="Q39">
+        <v>1334043401200</v>
+      </c>
+      <c r="R39">
+        <v>940526406300</v>
+      </c>
+      <c r="S39">
+        <v>87541300</v>
+      </c>
+      <c r="T39">
+        <v>61419800</v>
+      </c>
+      <c r="U39">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V39">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W39">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X39">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y39">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z39">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA39">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB39">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC39">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>420354548000</v>
       </c>
+      <c r="Q40">
+        <v>1378383848400</v>
+      </c>
+      <c r="R40">
+        <v>958029300400</v>
+      </c>
+      <c r="S40">
+        <v>90169300</v>
+      </c>
+      <c r="T40">
+        <v>62400600</v>
+      </c>
+      <c r="U40">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V40">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W40">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X40">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y40">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z40">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA40">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB40">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC40">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>424621765400</v>
       </c>
+      <c r="Q41">
+        <v>1406082603700</v>
+      </c>
+      <c r="R41">
+        <v>981460838300</v>
+      </c>
+      <c r="S41">
+        <v>91867800</v>
+      </c>
+      <c r="T41">
+        <v>63806200</v>
+      </c>
+      <c r="U41">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V41">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W41">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X41">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y41">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z41">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA41">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB41">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC41">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>420543233100</v>
       </c>
+      <c r="Q42">
+        <v>1427542047400</v>
+      </c>
+      <c r="R42">
+        <v>1006998814300</v>
+      </c>
+      <c r="S42">
+        <v>93055600</v>
+      </c>
+      <c r="T42">
+        <v>65568900</v>
+      </c>
+      <c r="U42">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V42">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W42">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X42">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y42">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z42">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA42">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB42">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC42">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>416634966800</v>
       </c>
+      <c r="Q43">
+        <v>1454839931100</v>
+      </c>
+      <c r="R43">
+        <v>1038204964300</v>
+      </c>
+      <c r="S43">
+        <v>94481700</v>
+      </c>
+      <c r="T43">
+        <v>67424500</v>
+      </c>
+      <c r="U43">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V43">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W43">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X43">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y43">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z43">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA43">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB43">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC43">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>400512146000</v>
       </c>
+      <c r="Q44">
+        <v>1472597168400</v>
+      </c>
+      <c r="R44">
+        <v>1072085022400</v>
+      </c>
+      <c r="S44">
+        <v>95989000</v>
+      </c>
+      <c r="T44">
+        <v>69757300</v>
+      </c>
+      <c r="U44">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V44">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W44">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X44">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y44">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z44">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA44">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB44">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC44">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>399309832900</v>
       </c>
+      <c r="Q45">
+        <v>1498846334200</v>
+      </c>
+      <c r="R45">
+        <v>1099536501300</v>
+      </c>
+      <c r="S45">
+        <v>97420600</v>
+      </c>
+      <c r="T45">
+        <v>71386200</v>
+      </c>
+      <c r="U45">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V45">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W45">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X45">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y45">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z45">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA45">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB45">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC45">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>405459995600</v>
       </c>
+      <c r="Q46">
+        <v>1524310303400</v>
+      </c>
+      <c r="R46">
+        <v>1118850307800</v>
+      </c>
+      <c r="S46">
+        <v>99099500</v>
+      </c>
+      <c r="T46">
+        <v>72689600</v>
+      </c>
+      <c r="U46">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V46">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W46">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X46">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y46">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z46">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA46">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB46">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC46">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>388334915500</v>
       </c>
+      <c r="Q47">
+        <v>1539643363000</v>
+      </c>
+      <c r="R47">
+        <v>1151308447500</v>
+      </c>
+      <c r="S47">
+        <v>100214900</v>
+      </c>
+      <c r="T47">
+        <v>74860900</v>
+      </c>
+      <c r="U47">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V47">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W47">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X47">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y47">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z47">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA47">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB47">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC47">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>372643126400</v>
       </c>
+      <c r="Q48">
+        <v>1559293615100</v>
+      </c>
+      <c r="R48">
+        <v>1186650488700</v>
+      </c>
+      <c r="S48">
+        <v>101403300</v>
+      </c>
+      <c r="T48">
+        <v>76777300</v>
+      </c>
+      <c r="U48">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V48">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W48">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X48">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y48">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z48">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA48">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB48">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC48">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>361844725700</v>
       </c>
+      <c r="Q49">
+        <v>1573357888000</v>
+      </c>
+      <c r="R49">
+        <v>1211513162300</v>
+      </c>
+      <c r="S49">
+        <v>102255800</v>
+      </c>
+      <c r="T49">
+        <v>78442100</v>
+      </c>
+      <c r="U49">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V49">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W49">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X49">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y49">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z49">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA49">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB49">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC49">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>356781466800</v>
       </c>
+      <c r="Q50">
+        <v>1588216280500</v>
+      </c>
+      <c r="R50">
+        <v>1231434813700</v>
+      </c>
+      <c r="S50">
+        <v>103071900</v>
+      </c>
+      <c r="T50">
+        <v>79720800</v>
+      </c>
+      <c r="U50">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V50">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W50">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X50">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y50">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z50">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA50">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB50">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC50">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>377232921700</v>
       </c>
+      <c r="Q51">
+        <v>1623317560100</v>
+      </c>
+      <c r="R51">
+        <v>1246084638400</v>
+      </c>
+      <c r="S51">
+        <v>104885700</v>
+      </c>
+      <c r="T51">
+        <v>80570000</v>
+      </c>
+      <c r="U51">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V51">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W51">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X51">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y51">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z51">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA51">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB51">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC51">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>390912376100</v>
       </c>
+      <c r="Q52">
+        <v>1649749499200</v>
+      </c>
+      <c r="R52">
+        <v>1258837123100</v>
+      </c>
+      <c r="S52">
+        <v>106509700</v>
+      </c>
+      <c r="T52">
+        <v>81415200</v>
+      </c>
+      <c r="U52">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V52">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W52">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X52">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y52">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z52">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA52">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB52">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>392793196200</v>
       </c>
+      <c r="Q53">
+        <v>1672173615500</v>
+      </c>
+      <c r="R53">
+        <v>1279380419300</v>
+      </c>
+      <c r="S53">
+        <v>107638500</v>
+      </c>
+      <c r="T53">
+        <v>82503800</v>
+      </c>
+      <c r="U53">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V53">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W53">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X53">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y53">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z53">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA53">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB53">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC53">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>376306353500</v>
       </c>
+      <c r="Q54">
+        <v>1684956333900</v>
+      </c>
+      <c r="R54">
+        <v>1308649980400</v>
+      </c>
+      <c r="S54">
+        <v>108375400</v>
+      </c>
+      <c r="T54">
+        <v>84141400</v>
+      </c>
+      <c r="U54">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V54">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W54">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X54">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y54">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z54">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA54">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB54">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC54">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>390856515200</v>
       </c>
+      <c r="Q55">
+        <v>1724488237400</v>
+      </c>
+      <c r="R55">
+        <v>1333631722200</v>
+      </c>
+      <c r="S55">
+        <v>110781900</v>
+      </c>
+      <c r="T55">
+        <v>85682300</v>
+      </c>
+      <c r="U55">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V55">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W55">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X55">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y55">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z55">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA55">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB55">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC55">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>388104794800</v>
       </c>
+      <c r="Q56">
+        <v>1746891206900</v>
+      </c>
+      <c r="R56">
+        <v>1358786412100</v>
+      </c>
+      <c r="S56">
+        <v>112020500</v>
+      </c>
+      <c r="T56">
+        <v>87297000</v>
+      </c>
+      <c r="U56">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V56">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W56">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X56">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y56">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z56">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA56">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB56">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC56">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>388614910300</v>
       </c>
+      <c r="Q57">
+        <v>1766899709900</v>
+      </c>
+      <c r="R57">
+        <v>1378284799600</v>
+      </c>
+      <c r="S57">
+        <v>113169100</v>
+      </c>
+      <c r="T57">
+        <v>88509900</v>
+      </c>
+      <c r="U57">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V57">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W57">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X57">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y57">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z57">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA57">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB57">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC57">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>386935537300</v>
       </c>
+      <c r="Q58">
+        <v>1793933483100</v>
+      </c>
+      <c r="R58">
+        <v>1406997945800</v>
+      </c>
+      <c r="S58">
+        <v>114771000</v>
+      </c>
+      <c r="T58">
+        <v>90223600</v>
+      </c>
+      <c r="U58">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V58">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W58">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X58">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y58">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z58">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA58">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB58">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC58">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>405264088400</v>
       </c>
+      <c r="Q59">
+        <v>1837630964200</v>
+      </c>
+      <c r="R59">
+        <v>1432366875800</v>
+      </c>
+      <c r="S59">
+        <v>117542200</v>
+      </c>
+      <c r="T59">
+        <v>91752300</v>
+      </c>
+      <c r="U59">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V59">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W59">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X59">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y59">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z59">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA59">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB59">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC59">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>498624452300</v>
       </c>
+      <c r="Q60">
+        <v>1948623213900</v>
+      </c>
+      <c r="R60">
+        <v>1449998761600</v>
+      </c>
+      <c r="S60">
+        <v>125372100</v>
+      </c>
+      <c r="T60">
+        <v>92805000</v>
+      </c>
+      <c r="U60">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V60">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W60">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X60">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y60">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z60">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA60">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB60">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC60">
+        <v>14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>527127493000</v>
       </c>
+      <c r="Q61">
+        <v>2006214225300</v>
+      </c>
+      <c r="R61">
+        <v>1479086732300</v>
+      </c>
+      <c r="S61">
+        <v>129250700</v>
+      </c>
+      <c r="T61">
+        <v>94805500</v>
+      </c>
+      <c r="U61">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V61">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W61">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X61">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y61">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z61">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA61">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB61">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC61">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>547129380000</v>
       </c>
+      <c r="Q62">
+        <v>2048396537400</v>
+      </c>
+      <c r="R62">
+        <v>1501267157400</v>
+      </c>
+      <c r="S62">
+        <v>131747100</v>
+      </c>
+      <c r="T62">
+        <v>96013800</v>
+      </c>
+      <c r="U62">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V62">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W62">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X62">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y62">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z62">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA62">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB62">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>575461641200</v>
       </c>
+      <c r="Q63">
+        <v>2100660776700</v>
+      </c>
+      <c r="R63">
+        <v>1525199135500</v>
+      </c>
+      <c r="S63">
+        <v>135036400</v>
+      </c>
+      <c r="T63">
+        <v>97502700</v>
+      </c>
+      <c r="U63">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V63">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W63">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X63">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y63">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z63">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA63">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB63">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC63">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>593862122000</v>
       </c>
+      <c r="Q64">
+        <v>2138987318700</v>
+      </c>
+      <c r="R64">
+        <v>1545125196700</v>
+      </c>
+      <c r="S64">
+        <v>137395300</v>
+      </c>
+      <c r="T64">
+        <v>98825400</v>
+      </c>
+      <c r="U64">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V64">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W64">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X64">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y64">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z64">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA64">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB64">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC64">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>653890272000</v>
       </c>
+      <c r="Q65">
+        <v>2222982042800</v>
+      </c>
+      <c r="R65">
+        <v>1569091770800</v>
+      </c>
+      <c r="S65">
+        <v>142411700</v>
+      </c>
+      <c r="T65">
+        <v>100184900</v>
+      </c>
+      <c r="U65">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V65">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W65">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X65">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y65">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z65">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA65">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB65">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC65">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>690550454300</v>
       </c>
+      <c r="Q66">
+        <v>2283865890100</v>
+      </c>
+      <c r="R66">
+        <v>1593315435800</v>
+      </c>
+      <c r="S66">
+        <v>146300900</v>
+      </c>
+      <c r="T66">
+        <v>101665600</v>
+      </c>
+      <c r="U66">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V66">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W66">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X66">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y66">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z66">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA66">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB66">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC66">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>714867344600</v>
       </c>
+      <c r="Q67">
+        <v>2332739173500</v>
+      </c>
+      <c r="R67">
+        <v>1617871828900</v>
+      </c>
+      <c r="S67">
+        <v>150544800</v>
+      </c>
+      <c r="T67">
+        <v>103154800</v>
+      </c>
+      <c r="U67">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V67">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W67">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X67">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y67">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z67">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA67">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB67">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC67">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>730636281200</v>
       </c>
+      <c r="Q68">
+        <v>2377189183600</v>
+      </c>
+      <c r="R68">
+        <v>1646552902400</v>
+      </c>
+      <c r="S68">
+        <v>153402000</v>
+      </c>
+      <c r="T68">
+        <v>105043400</v>
+      </c>
+      <c r="U68">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V68">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W68">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X68">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y68">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z68">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA68">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB68">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC68">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>739550363500</v>
       </c>
+      <c r="Q69">
+        <v>2412994338200</v>
+      </c>
+      <c r="R69">
+        <v>1673443974700</v>
+      </c>
+      <c r="S69">
+        <v>155735000</v>
+      </c>
+      <c r="T69">
+        <v>106445500</v>
+      </c>
+      <c r="U69">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V69">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W69">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X69">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y69">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z69">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA69">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB69">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC69">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>720007826100</v>
       </c>
+      <c r="Q70">
+        <v>2430343747200</v>
+      </c>
+      <c r="R70">
+        <v>1710335921100</v>
+      </c>
+      <c r="S70">
+        <v>157170000</v>
+      </c>
+      <c r="T70">
+        <v>108826200</v>
+      </c>
+      <c r="U70">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V70">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W70">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X70">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y70">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z70">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA70">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB70">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC70">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>718277311500</v>
       </c>
+      <c r="Q71">
+        <v>2464345857900</v>
+      </c>
+      <c r="R71">
+        <v>1746068546400</v>
+      </c>
+      <c r="S71">
+        <v>158944000</v>
+      </c>
+      <c r="T71">
+        <v>111230700</v>
+      </c>
+      <c r="U71">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V71">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W71">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X71">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y71">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z71">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA71">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB71">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC71">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>713526129100</v>
       </c>
+      <c r="Q72">
+        <v>2480765658800</v>
+      </c>
+      <c r="R72">
+        <v>1767239529700</v>
+      </c>
+      <c r="S72">
+        <v>160067800</v>
+      </c>
+      <c r="T72">
+        <v>112717800</v>
+      </c>
+      <c r="U72">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V72">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W72">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X72">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y72">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z72">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA72">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB72">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC72">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>690854727900</v>
       </c>
+      <c r="Q73">
+        <v>2497387620600</v>
+      </c>
+      <c r="R73">
+        <v>1806532892700</v>
+      </c>
+      <c r="S73">
+        <v>161114700</v>
+      </c>
+      <c r="T73">
+        <v>115031700</v>
+      </c>
+      <c r="U73">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V73">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W73">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X73">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y73">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z73">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA73">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB73">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC73">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>666457082600</v>
       </c>
+      <c r="Q74">
+        <v>2519046074000</v>
+      </c>
+      <c r="R74">
+        <v>1852588991400</v>
+      </c>
+      <c r="S74">
+        <v>162439300</v>
+      </c>
+      <c r="T74">
+        <v>117966100</v>
+      </c>
+      <c r="U74">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V74">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W74">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X74">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y74">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z74">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA74">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB74">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC74">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>666363817600</v>
       </c>
+      <c r="Q75">
+        <v>2519048569000</v>
+      </c>
+      <c r="R75">
+        <v>1852684751400</v>
+      </c>
+      <c r="S75">
+        <v>162439400</v>
+      </c>
+      <c r="T75">
+        <v>117972600</v>
+      </c>
+      <c r="U75">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V75">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W75">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X75">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y75">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z75">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA75">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB75">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>619057056000</v>
       </c>
+      <c r="Q76">
+        <v>2567219626300</v>
+      </c>
+      <c r="R76">
+        <v>1948162570300</v>
+      </c>
+      <c r="S76">
+        <v>165542500</v>
+      </c>
+      <c r="T76">
+        <v>123630400</v>
+      </c>
+      <c r="U76">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V76">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W76">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X76">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y76">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z76">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA76">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB76">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC76">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>586738854900</v>
       </c>
+      <c r="Q77">
+        <v>2585134194800</v>
+      </c>
+      <c r="R77">
+        <v>1998395339900</v>
+      </c>
+      <c r="S77">
+        <v>166663200</v>
+      </c>
+      <c r="T77">
+        <v>126757100</v>
+      </c>
+      <c r="U77">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V77">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W77">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X77">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y77">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z77">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA77">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB77">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC77">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>566347590800</v>
       </c>
+      <c r="Q78">
+        <v>2604790781400</v>
+      </c>
+      <c r="R78">
+        <v>2038443190600</v>
+      </c>
+      <c r="S78">
+        <v>168088000</v>
+      </c>
+      <c r="T78">
+        <v>130061900</v>
+      </c>
+      <c r="U78">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V78">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W78">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X78">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y78">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z78">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA78">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB78">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>526395493400</v>
       </c>
+      <c r="Q79">
+        <v>2617212617300</v>
+      </c>
+      <c r="R79">
+        <v>2090817123900</v>
+      </c>
+      <c r="S79">
+        <v>169143000</v>
+      </c>
+      <c r="T79">
+        <v>133498400</v>
+      </c>
+      <c r="U79">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V79">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W79">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X79">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y79">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z79">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA79">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB79">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC79">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>509237789100</v>
       </c>
+      <c r="Q80">
+        <v>2636933214000</v>
+      </c>
+      <c r="R80">
+        <v>2127695424900</v>
+      </c>
+      <c r="S80">
+        <v>170307700</v>
+      </c>
+      <c r="T80">
+        <v>136102700</v>
+      </c>
+      <c r="U80">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V80">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W80">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X80">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y80">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z80">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA80">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB80">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC80">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>502250639700</v>
       </c>
+      <c r="Q81">
+        <v>2661977496600</v>
+      </c>
+      <c r="R81">
+        <v>2159726856900</v>
+      </c>
+      <c r="S81">
+        <v>171969900</v>
+      </c>
+      <c r="T81">
+        <v>138253200</v>
+      </c>
+      <c r="U81">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V81">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W81">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X81">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y81">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z81">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA81">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB81">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>486263026800</v>
       </c>
+      <c r="Q82">
+        <v>2686227051400</v>
+      </c>
+      <c r="R82">
+        <v>2199964024600</v>
+      </c>
+      <c r="S82">
+        <v>173722800</v>
+      </c>
+      <c r="T82">
+        <v>140307400</v>
+      </c>
+      <c r="U82">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V82">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W82">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X82">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y82">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z82">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA82">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB82">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC82">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>499969097900</v>
       </c>
+      <c r="Q83">
+        <v>2757097913100</v>
+      </c>
+      <c r="R83">
+        <v>2257128815200</v>
+      </c>
+      <c r="S83">
+        <v>178448600</v>
+      </c>
+      <c r="T83">
+        <v>143780800</v>
+      </c>
+      <c r="U83">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V83">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W83">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X83">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y83">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z83">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA83">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB83">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>458232388700</v>
       </c>
+      <c r="Q84">
+        <v>2774280866800</v>
+      </c>
+      <c r="R84">
+        <v>2316048478100</v>
+      </c>
+      <c r="S84">
+        <v>179522900</v>
+      </c>
+      <c r="T84">
+        <v>146926500</v>
+      </c>
+      <c r="U84">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V84">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W84">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X84">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y84">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z84">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA84">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB84">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC84">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>439605189000</v>
       </c>
+      <c r="Q85">
+        <v>2796496445100</v>
+      </c>
+      <c r="R85">
+        <v>2356891256100</v>
+      </c>
+      <c r="S85">
+        <v>180962200</v>
+      </c>
+      <c r="T85">
+        <v>149673500</v>
+      </c>
+      <c r="U85">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V85">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W85">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X85">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y85">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z85">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA85">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB85">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC85">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>414166436100</v>
       </c>
+      <c r="Q86">
+        <v>2819545796800</v>
+      </c>
+      <c r="R86">
+        <v>2405379360700</v>
+      </c>
+      <c r="S86">
+        <v>182242400</v>
+      </c>
+      <c r="T86">
+        <v>152855700</v>
+      </c>
+      <c r="U86">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V86">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W86">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X86">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y86">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z86">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA86">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB86">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC86">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>353841582900</v>
       </c>
+      <c r="Q87">
+        <v>2839591239200</v>
+      </c>
+      <c r="R87">
+        <v>2485749656300</v>
+      </c>
+      <c r="S87">
+        <v>183455400</v>
+      </c>
+      <c r="T87">
+        <v>157461000</v>
+      </c>
+      <c r="U87">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V87">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W87">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X87">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y87">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z87">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA87">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB87">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC87">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>296255416300</v>
       </c>
+      <c r="Q88">
+        <v>2857229993200</v>
+      </c>
+      <c r="R88">
+        <v>2560974576900</v>
+      </c>
+      <c r="S88">
+        <v>184565400</v>
+      </c>
+      <c r="T88">
+        <v>162389600</v>
+      </c>
+      <c r="U88">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V88">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W88">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X88">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y88">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z88">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA88">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB88">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC88">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>247485298300</v>
       </c>
+      <c r="Q89">
+        <v>2874897461800</v>
+      </c>
+      <c r="R89">
+        <v>2627412163500</v>
+      </c>
+      <c r="S89">
+        <v>185697300</v>
+      </c>
+      <c r="T89">
+        <v>166949400</v>
+      </c>
+      <c r="U89">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V89">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W89">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X89">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y89">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z89">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA89">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB89">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC89">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>247750201900</v>
       </c>
+      <c r="Q90">
+        <v>2914178259900</v>
+      </c>
+      <c r="R90">
+        <v>2666428058000</v>
+      </c>
+      <c r="S90">
+        <v>188120700</v>
+      </c>
+      <c r="T90">
+        <v>169499300</v>
+      </c>
+      <c r="U90">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V90">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W90">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X90">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y90">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z90">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA90">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB90">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>229277617600</v>
       </c>
+      <c r="Q91">
+        <v>2932623874500</v>
+      </c>
+      <c r="R91">
+        <v>2703346256900</v>
+      </c>
+      <c r="S91">
+        <v>189278000</v>
+      </c>
+      <c r="T91">
+        <v>171457900</v>
+      </c>
+      <c r="U91">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V91">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W91">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X91">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y91">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z91">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA91">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB91">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC91">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>199741927400</v>
       </c>
+      <c r="Q92">
+        <v>2949960554300</v>
+      </c>
+      <c r="R92">
+        <v>2750218626900</v>
+      </c>
+      <c r="S92">
+        <v>190266900</v>
+      </c>
+      <c r="T92">
+        <v>174161700</v>
+      </c>
+      <c r="U92">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V92">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W92">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X92">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y92">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z92">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA92">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB92">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC92">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>168195640500</v>
       </c>
+      <c r="Q93">
+        <v>2963351111900</v>
+      </c>
+      <c r="R93">
+        <v>2795155471400</v>
+      </c>
+      <c r="S93">
+        <v>190966900</v>
+      </c>
+      <c r="T93">
+        <v>176633300</v>
+      </c>
+      <c r="U93">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V93">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W93">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X93">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y93">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z93">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA93">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB93">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC93">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>111053705300</v>
       </c>
+      <c r="Q94">
+        <v>2982092043800</v>
+      </c>
+      <c r="R94">
+        <v>2871038338500</v>
+      </c>
+      <c r="S94">
+        <v>191982100</v>
+      </c>
+      <c r="T94">
+        <v>181086500</v>
+      </c>
+      <c r="U94">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V94">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W94">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X94">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y94">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z94">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA94">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB94">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC94">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>55889636400</v>
       </c>
+      <c r="Q95">
+        <v>3001621434900</v>
+      </c>
+      <c r="R95">
+        <v>2945731798500</v>
+      </c>
+      <c r="S95">
+        <v>193097200</v>
+      </c>
+      <c r="T95">
+        <v>185298300</v>
+      </c>
+      <c r="U95">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V95">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W95">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X95">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y95">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z95">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA95">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB95">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC95">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>35025358100</v>
       </c>
+      <c r="Q96">
+        <v>3035351503100</v>
+      </c>
+      <c r="R96">
+        <v>3000326145000</v>
+      </c>
+      <c r="S96">
+        <v>195260600</v>
+      </c>
+      <c r="T96">
+        <v>188780000</v>
+      </c>
+      <c r="U96">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V96">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W96">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X96">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y96">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z96">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA96">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB96">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC96">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>58941418700</v>
       </c>
+      <c r="Q97">
+        <v>3086881474700</v>
+      </c>
+      <c r="R97">
+        <v>3027940056000</v>
+      </c>
+      <c r="S97">
+        <v>198434800</v>
+      </c>
+      <c r="T97">
+        <v>190707500</v>
+      </c>
+      <c r="U97">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V97">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W97">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X97">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y97">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z97">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA97">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB97">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC97">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>74798310200</v>
       </c>
+      <c r="Q98">
+        <v>3130470941700</v>
+      </c>
+      <c r="R98">
+        <v>3055672631500</v>
+      </c>
+      <c r="S98">
+        <v>201087800</v>
+      </c>
+      <c r="T98">
+        <v>192235200</v>
+      </c>
+      <c r="U98">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V98">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W98">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X98">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y98">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z98">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA98">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB98">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC98">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>78517801600</v>
       </c>
+      <c r="Q99">
+        <v>3157095188300</v>
+      </c>
+      <c r="R99">
+        <v>3078577386700</v>
+      </c>
+      <c r="S99">
+        <v>202668500</v>
+      </c>
+      <c r="T99">
+        <v>193618200</v>
+      </c>
+      <c r="U99">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V99">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W99">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X99">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y99">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z99">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA99">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB99">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC99">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>55750659200</v>
       </c>
+      <c r="Q100">
+        <v>3178522817700</v>
+      </c>
+      <c r="R100">
+        <v>3122772158500</v>
+      </c>
+      <c r="S100">
+        <v>204027300</v>
+      </c>
+      <c r="T100">
+        <v>196020200</v>
+      </c>
+      <c r="U100">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V100">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W100">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X100">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y100">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z100">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA100">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB100">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC100">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>56126208100</v>
       </c>
+      <c r="Q101">
+        <v>3197649151500</v>
+      </c>
+      <c r="R101">
+        <v>3141522943400</v>
+      </c>
+      <c r="S101">
+        <v>205284200</v>
+      </c>
+      <c r="T101">
+        <v>197216800</v>
+      </c>
+      <c r="U101">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V101">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W101">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X101">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y101">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z101">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA101">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB101">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC101">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>56457815400</v>
       </c>
+      <c r="Q102">
+        <v>3221401548100</v>
+      </c>
+      <c r="R102">
+        <v>3164943732700</v>
+      </c>
+      <c r="S102">
+        <v>206702400</v>
+      </c>
+      <c r="T102">
+        <v>198906900</v>
+      </c>
+      <c r="U102">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V102">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W102">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X102">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y102">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z102">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA102">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB102">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>66846874700</v>
       </c>
+      <c r="Q103">
+        <v>3253163635700</v>
+      </c>
+      <c r="R103">
+        <v>3186316761000</v>
+      </c>
+      <c r="S103">
+        <v>208483500</v>
+      </c>
+      <c r="T103">
+        <v>200208400</v>
+      </c>
+      <c r="U103">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V103">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W103">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X103">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y103">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z103">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA103">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB103">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC103">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>69179517000</v>
       </c>
+      <c r="Q104">
+        <v>3291194337200</v>
+      </c>
+      <c r="R104">
+        <v>3222014820200</v>
+      </c>
+      <c r="S104">
+        <v>210753700</v>
+      </c>
+      <c r="T104">
+        <v>202505400</v>
+      </c>
+      <c r="U104">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V104">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W104">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X104">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y104">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z104">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA104">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB104">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC104">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>66711721100</v>
       </c>
+      <c r="Q105">
+        <v>3311551994500</v>
+      </c>
+      <c r="R105">
+        <v>3244840273400</v>
+      </c>
+      <c r="S105">
+        <v>212189200</v>
+      </c>
+      <c r="T105">
+        <v>203866600</v>
+      </c>
+      <c r="U105">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V105">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W105">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X105">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y105">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z105">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA105">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB105">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC105">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>15082100400</v>
       </c>
+      <c r="Q106">
+        <v>3331349317900</v>
+      </c>
+      <c r="R106">
+        <v>3316267217500</v>
+      </c>
+      <c r="S106">
+        <v>213514900</v>
+      </c>
+      <c r="T106">
+        <v>207831200</v>
+      </c>
+      <c r="U106">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V106">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W106">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X106">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y106">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z106">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA106">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB106">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC106">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-66092294300</v>
       </c>
+      <c r="Q107">
+        <v>3348981906000</v>
+      </c>
+      <c r="R107">
+        <v>3415074200300</v>
+      </c>
+      <c r="S107">
+        <v>214503800</v>
+      </c>
+      <c r="T107">
+        <v>213703300</v>
+      </c>
+      <c r="U107">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V107">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W107">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X107">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y107">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z107">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA107">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB107">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC107">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-208708547300</v>
       </c>
+      <c r="Q108">
+        <v>3372303894200</v>
+      </c>
+      <c r="R108">
+        <v>3581012441500</v>
+      </c>
+      <c r="S108">
+        <v>215942800</v>
+      </c>
+      <c r="T108">
+        <v>223911400</v>
+      </c>
+      <c r="U108">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V108">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W108">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X108">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y108">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z108">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA108">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB108">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC108">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-273245044100</v>
       </c>
+      <c r="Q109">
+        <v>3404203909400</v>
+      </c>
+      <c r="R109">
+        <v>3677448953500</v>
+      </c>
+      <c r="S109">
+        <v>217896500</v>
+      </c>
+      <c r="T109">
+        <v>230278300</v>
+      </c>
+      <c r="U109">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V109">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W109">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X109">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y109">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z109">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA109">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB109">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC109">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-284369524200</v>
       </c>
+      <c r="Q110">
+        <v>3446451092700</v>
+      </c>
+      <c r="R110">
+        <v>3730820616900</v>
+      </c>
+      <c r="S110">
+        <v>220702300</v>
+      </c>
+      <c r="T110">
+        <v>233560100</v>
+      </c>
+      <c r="U110">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V110">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W110">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X110">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y110">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z110">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA110">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB110">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC110">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-277530529300</v>
       </c>
+      <c r="Q111">
+        <v>3482620520100</v>
+      </c>
+      <c r="R111">
+        <v>3760151049400</v>
+      </c>
+      <c r="S111">
+        <v>223149000</v>
+      </c>
+      <c r="T111">
+        <v>235558500</v>
+      </c>
+      <c r="U111">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V111">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W111">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X111">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y111">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z111">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA111">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB111">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-272526937000</v>
       </c>
+      <c r="Q112">
+        <v>3513756630800</v>
+      </c>
+      <c r="R112">
+        <v>3786283567800</v>
+      </c>
+      <c r="S112">
+        <v>225036300</v>
+      </c>
+      <c r="T112">
+        <v>237013500</v>
+      </c>
+      <c r="U112">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V112">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W112">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X112">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y112">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z112">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA112">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB112">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC112">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-273177781800</v>
       </c>
+      <c r="Q113">
+        <v>3544676464800</v>
+      </c>
+      <c r="R113">
+        <v>3817854246600</v>
+      </c>
+      <c r="S113">
+        <v>226886700</v>
+      </c>
+      <c r="T113">
+        <v>238979700</v>
+      </c>
+      <c r="U113">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V113">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W113">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X113">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y113">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z113">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA113">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB113">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC113">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-296123465200</v>
       </c>
+      <c r="Q114">
+        <v>3570320011800</v>
+      </c>
+      <c r="R114">
+        <v>3866443477000</v>
+      </c>
+      <c r="S114">
+        <v>228559800</v>
+      </c>
+      <c r="T114">
+        <v>241582000</v>
+      </c>
+      <c r="U114">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V114">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W114">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X114">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y114">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z114">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA114">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB114">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC114">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-486465134900</v>
       </c>
+      <c r="Q115">
+        <v>3587949732900</v>
+      </c>
+      <c r="R115">
+        <v>4074414867800</v>
+      </c>
+      <c r="S115">
+        <v>229665300</v>
+      </c>
+      <c r="T115">
+        <v>254176200</v>
+      </c>
+      <c r="U115">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V115">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W115">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X115">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y115">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z115">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA115">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB115">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC115">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-684992587600</v>
       </c>
+      <c r="Q116">
+        <v>3624190200700</v>
+      </c>
+      <c r="R116">
+        <v>4309182788300</v>
+      </c>
+      <c r="S116">
+        <v>231963700</v>
+      </c>
+      <c r="T116">
+        <v>270696800</v>
+      </c>
+      <c r="U116">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V116">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W116">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X116">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y116">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z116">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA116">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB116">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC116">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-786489839200</v>
       </c>
+      <c r="Q117">
+        <v>3681705791800</v>
+      </c>
+      <c r="R117">
+        <v>4468195631000</v>
+      </c>
+      <c r="S117">
+        <v>235949000</v>
+      </c>
+      <c r="T117">
+        <v>280583800</v>
+      </c>
+      <c r="U117">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V117">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W117">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X117">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y117">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z117">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA117">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB117">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC117">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-729334009600</v>
       </c>
+      <c r="Q118">
+        <v>3790489495700</v>
+      </c>
+      <c r="R118">
+        <v>4519823505300</v>
+      </c>
+      <c r="S118">
+        <v>242983200</v>
+      </c>
+      <c r="T118">
+        <v>284017100</v>
+      </c>
+      <c r="U118">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V118">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W118">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X118">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y118">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z118">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA118">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB118">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC118">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-707792133700</v>
       </c>
+      <c r="Q119">
+        <v>3863813790000</v>
+      </c>
+      <c r="R119">
+        <v>4571605923700</v>
+      </c>
+      <c r="S119">
+        <v>247822900</v>
+      </c>
+      <c r="T119">
+        <v>287091900</v>
+      </c>
+      <c r="U119">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V119">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W119">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X119">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y119">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z119">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA119">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB119">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC119">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-743498831800</v>
       </c>
+      <c r="Q120">
+        <v>3916845129700</v>
+      </c>
+      <c r="R120">
+        <v>4660343961500</v>
+      </c>
+      <c r="S120">
+        <v>251653600</v>
+      </c>
+      <c r="T120">
+        <v>292787000</v>
+      </c>
+      <c r="U120">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V120">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W120">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X120">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y120">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z120">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA120">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB120">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC120">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-746214528800</v>
       </c>
+      <c r="Q121">
+        <v>3916928707700</v>
+      </c>
+      <c r="R121">
+        <v>4663143236500</v>
+      </c>
+      <c r="S121">
+        <v>251662100</v>
+      </c>
+      <c r="T121">
+        <v>292906000</v>
+      </c>
+      <c r="U121">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V121">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W121">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X121">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y121">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z121">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA121">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB121">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC121">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-746212008800</v>
       </c>
+      <c r="Q122">
+        <v>3916931227700</v>
+      </c>
+      <c r="R122">
+        <v>4663143236500</v>
+      </c>
+      <c r="S122">
+        <v>251662300</v>
+      </c>
+      <c r="T122">
+        <v>292906000</v>
+      </c>
+      <c r="U122">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V122">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W122">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X122">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y122">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z122">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA122">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB122">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>-746205708800</v>
       </c>
+      <c r="Q123">
+        <v>3916937527700</v>
+      </c>
+      <c r="R123">
+        <v>4663143236500</v>
+      </c>
+      <c r="S123">
+        <v>251662800</v>
+      </c>
+      <c r="T123">
+        <v>292906000</v>
+      </c>
+      <c r="U123">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V123">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W123">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X123">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y123">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z123">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA123">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB123">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>-746177988800</v>
       </c>
+      <c r="Q124">
+        <v>3916985407700</v>
+      </c>
+      <c r="R124">
+        <v>4663163396500</v>
+      </c>
+      <c r="S124">
+        <v>251666600</v>
+      </c>
+      <c r="T124">
+        <v>292907600</v>
+      </c>
+      <c r="U124">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V124">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W124">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X124">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y124">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z124">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA124">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB124">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>-746137668800</v>
       </c>
+      <c r="Q125">
+        <v>3917025727700</v>
+      </c>
+      <c r="R125">
+        <v>4663163396500</v>
+      </c>
+      <c r="S125">
+        <v>251669800</v>
+      </c>
+      <c r="T125">
+        <v>292907600</v>
+      </c>
+      <c r="U125">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V125">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W125">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X125">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y125">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z125">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA125">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB125">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,6 +11576,45 @@
       <c r="P126">
         <v>-746159088800</v>
       </c>
+      <c r="Q126">
+        <v>3917038327700</v>
+      </c>
+      <c r="R126">
+        <v>4663197416500</v>
+      </c>
+      <c r="S126">
+        <v>251670800</v>
+      </c>
+      <c r="T126">
+        <v>292910300</v>
+      </c>
+      <c r="U126">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V126">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W126">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X126">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y126">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z126">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA126">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB126">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -6751,6 +11665,45 @@
       <c r="P127">
         <v>-746166578800</v>
       </c>
+      <c r="Q127">
+        <v>3917039587700</v>
+      </c>
+      <c r="R127">
+        <v>4663206166500</v>
+      </c>
+      <c r="S127">
+        <v>251670900</v>
+      </c>
+      <c r="T127">
+        <v>292911000</v>
+      </c>
+      <c r="U127">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V127">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W127">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X127">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y127">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z127">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA127">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB127">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -6801,6 +11754,45 @@
       <c r="P128">
         <v>-889663624800</v>
       </c>
+      <c r="Q128">
+        <v>3955906795600</v>
+      </c>
+      <c r="R128">
+        <v>4845570420400</v>
+      </c>
+      <c r="S128">
+        <v>253543100</v>
+      </c>
+      <c r="T128">
+        <v>303621800</v>
+      </c>
+      <c r="U128">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V128">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W128">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X128">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y128">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z128">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA128">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB128">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC128">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -6851,6 +11843,45 @@
       <c r="P129">
         <v>-889615264800</v>
       </c>
+      <c r="Q129">
+        <v>3955955155600</v>
+      </c>
+      <c r="R129">
+        <v>4845570420400</v>
+      </c>
+      <c r="S129">
+        <v>253547000</v>
+      </c>
+      <c r="T129">
+        <v>303621800</v>
+      </c>
+      <c r="U129">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V129">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W129">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X129">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y129">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z129">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA129">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB129">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -6901,6 +11932,45 @@
       <c r="P130">
         <v>-889602257700</v>
       </c>
+      <c r="Q130">
+        <v>3955968162700</v>
+      </c>
+      <c r="R130">
+        <v>4845570420400</v>
+      </c>
+      <c r="S130">
+        <v>253594700</v>
+      </c>
+      <c r="T130">
+        <v>303621800</v>
+      </c>
+      <c r="U130">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V130">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W130">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X130">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y130">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z130">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA130">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB130">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -6951,6 +12021,45 @@
       <c r="P131">
         <v>-889559031600</v>
       </c>
+      <c r="Q131">
+        <v>3956011392700</v>
+      </c>
+      <c r="R131">
+        <v>4845570424300</v>
+      </c>
+      <c r="S131">
+        <v>253598000</v>
+      </c>
+      <c r="T131">
+        <v>303622100</v>
+      </c>
+      <c r="U131">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V131">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W131">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X131">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y131">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z131">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA131">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB131">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -7001,6 +12110,45 @@
       <c r="P132">
         <v>-889534031600</v>
       </c>
+      <c r="Q132">
+        <v>3956036392700</v>
+      </c>
+      <c r="R132">
+        <v>4845570424300</v>
+      </c>
+      <c r="S132">
+        <v>253600000</v>
+      </c>
+      <c r="T132">
+        <v>303622100</v>
+      </c>
+      <c r="U132">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V132">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W132">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X132">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y132">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z132">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA132">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB132">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -7051,6 +12199,45 @@
       <c r="P133">
         <v>-889474031600</v>
       </c>
+      <c r="Q133">
+        <v>3956097642700</v>
+      </c>
+      <c r="R133">
+        <v>4845571674300</v>
+      </c>
+      <c r="S133">
+        <v>253604900</v>
+      </c>
+      <c r="T133">
+        <v>303622200</v>
+      </c>
+      <c r="U133">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V133">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W133">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X133">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y133">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z133">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA133">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB133">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -7101,10 +12288,49 @@
       <c r="P134">
         <v>-889520081600</v>
       </c>
+      <c r="Q134">
+        <v>3956355642700</v>
+      </c>
+      <c r="R134">
+        <v>4845875724300</v>
+      </c>
+      <c r="S134">
+        <v>253624900</v>
+      </c>
+      <c r="T134">
+        <v>303646700</v>
+      </c>
+      <c r="U134">
+        <v>29747034907.5</v>
+      </c>
+      <c r="V134">
+        <v>36435155821.8</v>
+      </c>
+      <c r="W134">
+        <v>69411884023.3</v>
+      </c>
+      <c r="X134">
+        <v>4388221.1</v>
+      </c>
+      <c r="Y134">
+        <v>1906954.1</v>
+      </c>
+      <c r="Z134">
+        <v>2283057.9</v>
+      </c>
+      <c r="AA134">
+        <v>-376103.8</v>
+      </c>
+      <c r="AB134">
+        <v>-6688120914.3</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P134"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC134"/>
   </ignoredErrors>
 </worksheet>
 </file>